--- a/escenarios_montecarlo/escenario_002.xlsx
+++ b/escenarios_montecarlo/escenario_002.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>13.41429446078774</v>
+        <v>20.35029966916715</v>
       </c>
       <c r="D2" t="n">
-        <v>20.49832829183869</v>
+        <v>17.3893875716687</v>
       </c>
       <c r="E2" t="n">
-        <v>43.25295773742202</v>
+        <v>42.43735815500553</v>
       </c>
       <c r="F2" t="n">
-        <v>21.84560624055791</v>
+        <v>24.73007518507478</v>
       </c>
       <c r="G2" t="n">
-        <v>19.33477245708137</v>
+        <v>19.01547357974119</v>
       </c>
       <c r="H2" t="n">
-        <v>9.023048998600052</v>
+        <v>27.94323833362787</v>
       </c>
       <c r="I2" t="n">
-        <v>31.47676212323852</v>
+        <v>17.03483486505606</v>
       </c>
       <c r="J2" t="n">
-        <v>19.32406737935993</v>
+        <v>105.7638866373267</v>
       </c>
       <c r="K2" t="n">
-        <v>38.23208013480325</v>
+        <v>38.63645363235085</v>
       </c>
       <c r="L2" t="n">
-        <v>138.7738022747568</v>
+        <v>19.01068332974292</v>
       </c>
       <c r="M2" t="n">
-        <v>68.23602641240196</v>
+        <v>46.218333727767</v>
       </c>
       <c r="N2" t="n">
-        <v>71.45558913127078</v>
+        <v>224.3101889091588</v>
       </c>
       <c r="O2" t="n">
-        <v>79.03318950479321</v>
+        <v>36.5676291697567</v>
       </c>
       <c r="P2" t="n">
-        <v>131.1462687971354</v>
+        <v>120.7314445889799</v>
       </c>
       <c r="Q2" t="n">
-        <v>40.97009376628992</v>
+        <v>54.9337200060311</v>
       </c>
       <c r="R2" t="n">
-        <v>77.73013832985794</v>
+        <v>78.52741396515843</v>
       </c>
       <c r="S2" t="n">
-        <v>43.95017330304826</v>
+        <v>76.80352425392098</v>
       </c>
       <c r="T2" t="n">
-        <v>72.60842846974813</v>
+        <v>49.72276674935855</v>
       </c>
       <c r="U2" t="n">
-        <v>44.93068616565613</v>
+        <v>97.01231996552237</v>
       </c>
       <c r="V2" t="n">
-        <v>53.60825214713786</v>
+        <v>31.262754002593</v>
       </c>
       <c r="W2" t="n">
-        <v>54.58195957645169</v>
+        <v>81.19602387382044</v>
       </c>
       <c r="X2" t="n">
-        <v>61.81838414498962</v>
+        <v>56.71051137627388</v>
       </c>
       <c r="Y2" t="n">
-        <v>63.39674164123181</v>
+        <v>80.54969891210739</v>
       </c>
       <c r="Z2" t="n">
-        <v>108.6773461863743</v>
+        <v>67.3863345972992</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.72251988780374</v>
+        <v>35.69736411517463</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.901025</v>
+        <v>70.70099986139476</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.7788113691878</v>
+        <v>104.4234408021947</v>
       </c>
       <c r="AD2" t="n">
-        <v>83.7439509544011</v>
+        <v>71.29350538856278</v>
       </c>
       <c r="AE2" t="n">
-        <v>53.64571591288995</v>
+        <v>190.9041498547837</v>
       </c>
       <c r="AF2" t="n">
-        <v>95.56211309590428</v>
+        <v>75.85402369425287</v>
       </c>
       <c r="AG2" t="n">
-        <v>130.2198748602086</v>
+        <v>82.55699548298867</v>
       </c>
       <c r="AH2" t="n">
-        <v>159.1100992823414</v>
+        <v>142.2429563400165</v>
       </c>
       <c r="AI2" t="n">
-        <v>115.473578337382</v>
+        <v>77.33054644522447</v>
       </c>
       <c r="AJ2" t="n">
-        <v>111.138173628212</v>
+        <v>89.16416336019452</v>
       </c>
       <c r="AK2" t="n">
-        <v>48.1951433853335</v>
+        <v>50.96912157428895</v>
       </c>
       <c r="AL2" t="n">
-        <v>32.1241334720462</v>
+        <v>36.16048381253257</v>
       </c>
       <c r="AM2" t="n">
-        <v>42.73804285714284</v>
+        <v>35.84076642983823</v>
       </c>
       <c r="AN2" t="n">
-        <v>16.99318801505901</v>
+        <v>48.68280314064418</v>
       </c>
       <c r="AO2" t="n">
-        <v>18.71147616115891</v>
+        <v>25.99640683547162</v>
       </c>
       <c r="AP2" t="n">
-        <v>22.65547376369533</v>
+        <v>50.02968681308872</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29.217143050851</v>
+        <v>18.89451461970155</v>
       </c>
       <c r="AR2" t="n">
-        <v>24.98461754805257</v>
+        <v>27.82100987802951</v>
       </c>
       <c r="AS2" t="n">
-        <v>23.12694965203845</v>
+        <v>44.71503224028032</v>
       </c>
       <c r="AT2" t="n">
-        <v>18.66151893249643</v>
+        <v>23.54206312853793</v>
       </c>
       <c r="AU2" t="n">
-        <v>32.17539903383823</v>
+        <v>24.64360363384084</v>
       </c>
       <c r="AV2" t="n">
-        <v>33.29988920555645</v>
+        <v>28.61466685346462</v>
       </c>
       <c r="AW2" t="n">
-        <v>27.05578500424105</v>
+        <v>29.86725881786431</v>
       </c>
       <c r="AX2" t="n">
-        <v>13.20386186816122</v>
+        <v>20.7960013298093</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3.485309573778843</v>
+        <v>0.6433747792498491</v>
       </c>
       <c r="D3" t="n">
-        <v>2.423981831945496</v>
+        <v>3.151922735016503</v>
       </c>
       <c r="E3" t="n">
-        <v>1.964881621638986</v>
+        <v>0.07283759482500281</v>
       </c>
       <c r="F3" t="n">
-        <v>3.300739686054582</v>
+        <v>7.608701253047518</v>
       </c>
       <c r="G3" t="n">
-        <v>4.387381393482813</v>
+        <v>29.67941967618926</v>
       </c>
       <c r="H3" t="n">
-        <v>5.850498570661903</v>
+        <v>7.278525755368568</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001</v>
+        <v>7.236005770856456</v>
       </c>
       <c r="J3" t="n">
-        <v>11.66748089607412</v>
+        <v>6.719650050925916</v>
       </c>
       <c r="K3" t="n">
-        <v>1.004148248894934</v>
+        <v>0.8921856776283175</v>
       </c>
       <c r="L3" t="n">
-        <v>10.77581559642699</v>
+        <v>2.217710026408601</v>
       </c>
       <c r="M3" t="n">
-        <v>2.42670153701044</v>
+        <v>2.393972683765154</v>
       </c>
       <c r="N3" t="n">
-        <v>5.289176839904899</v>
+        <v>0.366362990867367</v>
       </c>
       <c r="O3" t="n">
-        <v>1.296684328279364</v>
+        <v>2.768344601759644</v>
       </c>
       <c r="P3" t="n">
-        <v>5.141222430962817</v>
+        <v>3.879580648439513</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.046320602952589</v>
+        <v>4.425729849614596</v>
       </c>
       <c r="R3" t="n">
-        <v>10.21009502573096</v>
+        <v>7.393980804174477</v>
       </c>
       <c r="S3" t="n">
-        <v>8.594295171376151</v>
+        <v>7.929127123765491</v>
       </c>
       <c r="T3" t="n">
-        <v>6.108521239364498</v>
+        <v>8.969106815983736</v>
       </c>
       <c r="U3" t="n">
-        <v>2.41208588776917</v>
+        <v>3.765741805697789</v>
       </c>
       <c r="V3" t="n">
-        <v>2.585394379790588</v>
+        <v>2.410788670473589</v>
       </c>
       <c r="W3" t="n">
-        <v>3.01286167665782</v>
+        <v>1.94702480109408</v>
       </c>
       <c r="X3" t="n">
-        <v>3.551108233084481</v>
+        <v>6.290350725077851</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.776264107355054</v>
+        <v>2.727431100636411</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.531648479853871</v>
+        <v>5.579611571584791</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.240112757858826</v>
+        <v>3.918088126648767</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.595890835254846</v>
+        <v>3.50728076860075</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.303612451896043</v>
+        <v>5.128659766147022</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.05963264086315</v>
+        <v>5.294875025984462</v>
       </c>
       <c r="AE3" t="n">
-        <v>6.259375910909328</v>
+        <v>7.455613558621382</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.30069507510132</v>
+        <v>3.586637253742654</v>
       </c>
       <c r="AG3" t="n">
-        <v>3.844802402562661</v>
+        <v>3.956069571820545</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.640525919825888</v>
+        <v>4.665242759882768</v>
       </c>
       <c r="AI3" t="n">
-        <v>6.121044072626188</v>
+        <v>2.879802907525542</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4.171104853706653</v>
+        <v>5.508239897286098</v>
       </c>
       <c r="AK3" t="n">
-        <v>3.182861161907462</v>
+        <v>8.10789882800205</v>
       </c>
       <c r="AL3" t="n">
-        <v>5.039484135208555</v>
+        <v>6.259203386818935</v>
       </c>
       <c r="AM3" t="n">
-        <v>4.930288495154455</v>
+        <v>6.647354005662891</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.260310013630456</v>
+        <v>5.747106113899762</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.708220635492826</v>
+        <v>4.27049487212738</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.996807824226576</v>
+        <v>5.312515641422761</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4.705936970232607</v>
+        <v>4.483773708639442</v>
       </c>
       <c r="AR3" t="n">
-        <v>4.066941722537391</v>
+        <v>1.908576927417547</v>
       </c>
       <c r="AS3" t="n">
-        <v>3.644559051057246</v>
+        <v>2.866649373761218</v>
       </c>
       <c r="AT3" t="n">
-        <v>4.172801908159014</v>
+        <v>1.595490102829387</v>
       </c>
       <c r="AU3" t="n">
-        <v>4.125004467873592</v>
+        <v>0.385734372703332</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02765927105001475</v>
+        <v>2.69909549125986</v>
       </c>
       <c r="AW3" t="n">
-        <v>2.026956958361545</v>
+        <v>0.7391920745001959</v>
       </c>
       <c r="AX3" t="n">
-        <v>2.330659349527884</v>
+        <v>6.616911936005776</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>6.637357098546867</v>
+        <v>8.74542837367359</v>
       </c>
       <c r="D4" t="n">
-        <v>13.57002669310752</v>
+        <v>12.93396620597864</v>
       </c>
       <c r="E4" t="n">
-        <v>7.553074457142857</v>
+        <v>7.382755839990415</v>
       </c>
       <c r="F4" t="n">
-        <v>45.34587193951335</v>
+        <v>14.30902393888279</v>
       </c>
       <c r="G4" t="n">
-        <v>12.18956148571429</v>
+        <v>17.7152727122844</v>
       </c>
       <c r="H4" t="n">
-        <v>29.29741232348775</v>
+        <v>5.227270479726201</v>
       </c>
       <c r="I4" t="n">
-        <v>2.857091108152493</v>
+        <v>14.34588882523189</v>
       </c>
       <c r="J4" t="n">
-        <v>46.54353647774386</v>
+        <v>54.92171461803844</v>
       </c>
       <c r="K4" t="n">
-        <v>13.75044428553951</v>
+        <v>90.67393431231582</v>
       </c>
       <c r="L4" t="n">
-        <v>48.40459636725348</v>
+        <v>45.0986505431527</v>
       </c>
       <c r="M4" t="n">
-        <v>84.31102308426095</v>
+        <v>36.52996664082414</v>
       </c>
       <c r="N4" t="n">
-        <v>466.4306377250001</v>
+        <v>35.95361316836429</v>
       </c>
       <c r="O4" t="n">
-        <v>115.8527120049752</v>
+        <v>83.73176621308852</v>
       </c>
       <c r="P4" t="n">
-        <v>78.82046333808846</v>
+        <v>45.6764218369797</v>
       </c>
       <c r="Q4" t="n">
-        <v>73.52900583023859</v>
+        <v>88.9185748970111</v>
       </c>
       <c r="R4" t="n">
-        <v>21.18125734433358</v>
+        <v>35.94104113557353</v>
       </c>
       <c r="S4" t="n">
-        <v>39.99742341713781</v>
+        <v>22.78882860282264</v>
       </c>
       <c r="T4" t="n">
-        <v>17.58167679809878</v>
+        <v>76.264215397665</v>
       </c>
       <c r="U4" t="n">
-        <v>14.63678783146336</v>
+        <v>52.11611823243938</v>
       </c>
       <c r="V4" t="n">
-        <v>41.85890543681459</v>
+        <v>136.928498633501</v>
       </c>
       <c r="W4" t="n">
-        <v>98.94273966116251</v>
+        <v>91.76532900382306</v>
       </c>
       <c r="X4" t="n">
-        <v>41.67732820232404</v>
+        <v>60.318492054053</v>
       </c>
       <c r="Y4" t="n">
-        <v>71.90235404601296</v>
+        <v>70.68086555961162</v>
       </c>
       <c r="Z4" t="n">
-        <v>61.41657120097243</v>
+        <v>69.30859362410617</v>
       </c>
       <c r="AA4" t="n">
-        <v>45.29423819330844</v>
+        <v>69.58647014637887</v>
       </c>
       <c r="AB4" t="n">
-        <v>107.0916681336385</v>
+        <v>40.49726336917569</v>
       </c>
       <c r="AC4" t="n">
-        <v>82.08275472440702</v>
+        <v>51.34023090427299</v>
       </c>
       <c r="AD4" t="n">
-        <v>65.57837715611821</v>
+        <v>89.84886313715477</v>
       </c>
       <c r="AE4" t="n">
-        <v>84.05006944546227</v>
+        <v>28.61261122295456</v>
       </c>
       <c r="AF4" t="n">
-        <v>96.67385331650358</v>
+        <v>31.99016723911111</v>
       </c>
       <c r="AG4" t="n">
-        <v>73.24756329610923</v>
+        <v>68.99672272289212</v>
       </c>
       <c r="AH4" t="n">
-        <v>38.50112934975177</v>
+        <v>51.88901823648197</v>
       </c>
       <c r="AI4" t="n">
-        <v>27.76956155010512</v>
+        <v>58.58198017139022</v>
       </c>
       <c r="AJ4" t="n">
-        <v>32.62520016341579</v>
+        <v>84.06508701329705</v>
       </c>
       <c r="AK4" t="n">
-        <v>14.60567503139979</v>
+        <v>21.75782567782663</v>
       </c>
       <c r="AL4" t="n">
-        <v>20.03607577686929</v>
+        <v>24.12769700708651</v>
       </c>
       <c r="AM4" t="n">
-        <v>40.62669969587566</v>
+        <v>29.56800597114943</v>
       </c>
       <c r="AN4" t="n">
-        <v>17.05062839741938</v>
+        <v>41.81145902167398</v>
       </c>
       <c r="AO4" t="n">
-        <v>37.86207175</v>
+        <v>20.79193353231693</v>
       </c>
       <c r="AP4" t="n">
-        <v>21.29817053354359</v>
+        <v>18.85918601275462</v>
       </c>
       <c r="AQ4" t="n">
-        <v>23.08542349759997</v>
+        <v>16.52008541307852</v>
       </c>
       <c r="AR4" t="n">
-        <v>12.65835407437241</v>
+        <v>11.25388350850249</v>
       </c>
       <c r="AS4" t="n">
-        <v>17.73598204081632</v>
+        <v>16.91714978100092</v>
       </c>
       <c r="AT4" t="n">
-        <v>8.347773392101205</v>
+        <v>19.35042549515725</v>
       </c>
       <c r="AU4" t="n">
-        <v>16.51334180432021</v>
+        <v>10.70966567880574</v>
       </c>
       <c r="AV4" t="n">
-        <v>17.75251199541668</v>
+        <v>18.20139360695701</v>
       </c>
       <c r="AW4" t="n">
-        <v>19.7506526</v>
+        <v>12.01917377614818</v>
       </c>
       <c r="AX4" t="n">
-        <v>10.3780135987143</v>
+        <v>9.079424699361921</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>14.09319801574051</v>
+        <v>15.14079462570322</v>
       </c>
       <c r="D5" t="n">
-        <v>4.096616137196667</v>
+        <v>56.08735352805051</v>
       </c>
       <c r="E5" t="n">
-        <v>22.82047920872863</v>
+        <v>21.05876861818793</v>
       </c>
       <c r="F5" t="n">
-        <v>10.90972385411897</v>
+        <v>12.51191976064178</v>
       </c>
       <c r="G5" t="n">
-        <v>57.58336947490743</v>
+        <v>124.3346829513416</v>
       </c>
       <c r="H5" t="n">
-        <v>62.38293985011434</v>
+        <v>5.13101621668753</v>
       </c>
       <c r="I5" t="n">
-        <v>18.09908996731014</v>
+        <v>37.19573738537623</v>
       </c>
       <c r="J5" t="n">
-        <v>24.89989347902825</v>
+        <v>4.395092827596565</v>
       </c>
       <c r="K5" t="n">
-        <v>148.1105330914592</v>
+        <v>14.95125874394719</v>
       </c>
       <c r="L5" t="n">
-        <v>29.14826177519171</v>
+        <v>6.111024944712087</v>
       </c>
       <c r="M5" t="n">
-        <v>16.95234117463667</v>
+        <v>16.26893119697378</v>
       </c>
       <c r="N5" t="n">
-        <v>63.55439581902734</v>
+        <v>11.87303702784576</v>
       </c>
       <c r="O5" t="n">
-        <v>40.70346582187867</v>
+        <v>35.05590462501669</v>
       </c>
       <c r="P5" t="n">
-        <v>194.9303433982035</v>
+        <v>32.27706260254181</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.75445961626892</v>
+        <v>22.83118989809144</v>
       </c>
       <c r="R5" t="n">
-        <v>101.2210060821999</v>
+        <v>41.22972711743643</v>
       </c>
       <c r="S5" t="n">
-        <v>172.6699363885172</v>
+        <v>169.5271716260734</v>
       </c>
       <c r="T5" t="n">
-        <v>77.39987643230978</v>
+        <v>7.029980613632525</v>
       </c>
       <c r="U5" t="n">
-        <v>90.23020283291582</v>
+        <v>57.66491462602277</v>
       </c>
       <c r="V5" t="n">
-        <v>40.22582712959543</v>
+        <v>29.51459934665941</v>
       </c>
       <c r="W5" t="n">
-        <v>34.0890003833226</v>
+        <v>59.69452538002604</v>
       </c>
       <c r="X5" t="n">
-        <v>33.13135411121478</v>
+        <v>79.89356465268193</v>
       </c>
       <c r="Y5" t="n">
-        <v>28.89507704957603</v>
+        <v>24.58154569306008</v>
       </c>
       <c r="Z5" t="n">
-        <v>57.90014807550206</v>
+        <v>42.07124181157825</v>
       </c>
       <c r="AA5" t="n">
-        <v>80.07000481603951</v>
+        <v>21.36505860001918</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.70387434890087</v>
+        <v>8.384141058682204</v>
       </c>
       <c r="AC5" t="n">
-        <v>43.72472887234125</v>
+        <v>8.549326776291137</v>
       </c>
       <c r="AD5" t="n">
-        <v>79.43370801804478</v>
+        <v>17.11919073527257</v>
       </c>
       <c r="AE5" t="n">
-        <v>69.41741275496764</v>
+        <v>55.415146560437</v>
       </c>
       <c r="AF5" t="n">
-        <v>123.1520796592699</v>
+        <v>13.96895326783282</v>
       </c>
       <c r="AG5" t="n">
-        <v>35.31147893554318</v>
+        <v>38.35285383488267</v>
       </c>
       <c r="AH5" t="n">
-        <v>23.85273772590844</v>
+        <v>7.70780665729121</v>
       </c>
       <c r="AI5" t="n">
-        <v>5.436777044598214</v>
+        <v>30.39267578095647</v>
       </c>
       <c r="AJ5" t="n">
-        <v>27.45074230606633</v>
+        <v>41.41391653169016</v>
       </c>
       <c r="AK5" t="n">
-        <v>30.10715862544273</v>
+        <v>9.197586011345457</v>
       </c>
       <c r="AL5" t="n">
-        <v>61.47461137938348</v>
+        <v>25.51918975796303</v>
       </c>
       <c r="AM5" t="n">
-        <v>34.10395548231148</v>
+        <v>21.18424739216011</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.458747978141623</v>
+        <v>15.6533345332072</v>
       </c>
       <c r="AO5" t="n">
-        <v>31.00683881728898</v>
+        <v>11.60254908512678</v>
       </c>
       <c r="AP5" t="n">
-        <v>27.9517431665279</v>
+        <v>28.52328779635891</v>
       </c>
       <c r="AQ5" t="n">
-        <v>45.25491494305176</v>
+        <v>43.0224369092662</v>
       </c>
       <c r="AR5" t="n">
-        <v>39.61647522153005</v>
+        <v>5.930733197177691</v>
       </c>
       <c r="AS5" t="n">
-        <v>24.53919899064042</v>
+        <v>81.45607733961879</v>
       </c>
       <c r="AT5" t="n">
-        <v>29.74617187957825</v>
+        <v>114.8820045015152</v>
       </c>
       <c r="AU5" t="n">
-        <v>11.78631290103426</v>
+        <v>66.5495702866735</v>
       </c>
       <c r="AV5" t="n">
-        <v>19.36230054239464</v>
+        <v>17.93566855367267</v>
       </c>
       <c r="AW5" t="n">
-        <v>26.02962388576917</v>
+        <v>20.85606426948546</v>
       </c>
       <c r="AX5" t="n">
-        <v>13.00452412210289</v>
+        <v>9.670137388590359</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.082443919096401</v>
+        <v>1.714278184039962</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8997075548334693</v>
+        <v>0.7477470879291872</v>
       </c>
       <c r="E6" t="n">
-        <v>6.019415877876721</v>
+        <v>1.992629136663691</v>
       </c>
       <c r="F6" t="n">
-        <v>4.671696718811277</v>
+        <v>2.018653578123021</v>
       </c>
       <c r="G6" t="n">
-        <v>3.653864073639059</v>
+        <v>22.88914861823439</v>
       </c>
       <c r="H6" t="n">
-        <v>5.501241754211828</v>
+        <v>2.538098108466064</v>
       </c>
       <c r="I6" t="n">
-        <v>68.85633946707848</v>
+        <v>0.977999435834057</v>
       </c>
       <c r="J6" t="n">
-        <v>3.086856072253488</v>
+        <v>21.77767217002439</v>
       </c>
       <c r="K6" t="n">
-        <v>13.57247134631345</v>
+        <v>17.24471714250781</v>
       </c>
       <c r="L6" t="n">
-        <v>22.86032345338624</v>
+        <v>22.50824841626829</v>
       </c>
       <c r="M6" t="n">
-        <v>20.36286765977709</v>
+        <v>6.656150417579016</v>
       </c>
       <c r="N6" t="n">
-        <v>70.03288686857249</v>
+        <v>3.656168619127314</v>
       </c>
       <c r="O6" t="n">
-        <v>44.87142857142857</v>
+        <v>14.79454071459394</v>
       </c>
       <c r="P6" t="n">
-        <v>32.89015860803642</v>
+        <v>60.95662137980391</v>
       </c>
       <c r="Q6" t="n">
-        <v>15.91652792975789</v>
+        <v>32.46252471405128</v>
       </c>
       <c r="R6" t="n">
-        <v>21.50955531693296</v>
+        <v>15.79951129607053</v>
       </c>
       <c r="S6" t="n">
-        <v>15.80585370853485</v>
+        <v>12.97798697742718</v>
       </c>
       <c r="T6" t="n">
-        <v>17.348625</v>
+        <v>6.933403969683098</v>
       </c>
       <c r="U6" t="n">
-        <v>9.252288379241177</v>
+        <v>18.82718897991925</v>
       </c>
       <c r="V6" t="n">
-        <v>32.44944201865277</v>
+        <v>22.73785629086824</v>
       </c>
       <c r="W6" t="n">
-        <v>11.1021932804862</v>
+        <v>16.11170510169303</v>
       </c>
       <c r="X6" t="n">
-        <v>14.27614357395386</v>
+        <v>19.0281283656282</v>
       </c>
       <c r="Y6" t="n">
-        <v>30.08005030054312</v>
+        <v>16.9369864844751</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.48496844272381</v>
+        <v>22.98168671228454</v>
       </c>
       <c r="AA6" t="n">
-        <v>18.53590336171488</v>
+        <v>18.49275483925469</v>
       </c>
       <c r="AB6" t="n">
-        <v>27.0909307115346</v>
+        <v>26.22982035519679</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.48125316942469</v>
+        <v>18.68959311162203</v>
       </c>
       <c r="AD6" t="n">
-        <v>29.87418114915884</v>
+        <v>25.72352926508043</v>
       </c>
       <c r="AE6" t="n">
-        <v>16.51458669244035</v>
+        <v>22.89847914384124</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.86905295001451</v>
+        <v>14.50531929350465</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.274297914124197</v>
+        <v>4.621062083258224</v>
       </c>
       <c r="AH6" t="n">
-        <v>30.70250698487945</v>
+        <v>7.628046618881432</v>
       </c>
       <c r="AI6" t="n">
-        <v>6.551832831016379</v>
+        <v>20.36185311435005</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.6539456957554</v>
+        <v>29.63707023305351</v>
       </c>
       <c r="AK6" t="n">
-        <v>3.78838751915566</v>
+        <v>6.049288881767915</v>
       </c>
       <c r="AL6" t="n">
-        <v>4.941195655572918</v>
+        <v>5.546687179033886</v>
       </c>
       <c r="AM6" t="n">
-        <v>7.197017320620321</v>
+        <v>5.936223353734561</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.259469082230147</v>
+        <v>7.7259793653732</v>
       </c>
       <c r="AO6" t="n">
-        <v>2.159036038099863</v>
+        <v>2.092291169470075</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.734622725</v>
+        <v>8.129413595870862</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3.943337204976552</v>
+        <v>7.265341950209819</v>
       </c>
       <c r="AR6" t="n">
-        <v>4.020481293307475</v>
+        <v>6.501376057786231</v>
       </c>
       <c r="AS6" t="n">
-        <v>4.77214997887699</v>
+        <v>0.8348576342493639</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.240779475259251</v>
+        <v>2.896015414163728</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.632037482864749</v>
+        <v>3.332749610734715</v>
       </c>
       <c r="AV6" t="n">
-        <v>2.40816350070347</v>
+        <v>0.8567798602466355</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.846709865794145</v>
+        <v>2.570033821400748</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.930539094111506</v>
+        <v>3.610828664038174</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.63</v>
+        <v>12.20335358225435</v>
       </c>
       <c r="D7" t="n">
-        <v>14.18</v>
+        <v>10.86253767795128</v>
       </c>
       <c r="E7" t="n">
-        <v>21.38</v>
+        <v>33.66334618614854</v>
       </c>
       <c r="F7" t="n">
-        <v>13.15</v>
+        <v>9.279653950248006</v>
       </c>
       <c r="G7" t="n">
-        <v>1.74</v>
+        <v>27.84477183840866</v>
       </c>
       <c r="H7" t="n">
-        <v>1.78</v>
+        <v>14.07639798091542</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74</v>
+        <v>34.57236798564421</v>
       </c>
       <c r="J7" t="n">
-        <v>7.9</v>
+        <v>8.363848473052791</v>
       </c>
       <c r="K7" t="n">
-        <v>31.33</v>
+        <v>7.976274501503065</v>
       </c>
       <c r="L7" t="n">
-        <v>12.47</v>
+        <v>5.156898439774968</v>
       </c>
       <c r="M7" t="n">
-        <v>15.23</v>
+        <v>153.310695358814</v>
       </c>
       <c r="N7" t="n">
-        <v>18.92</v>
+        <v>52.78505438336128</v>
       </c>
       <c r="O7" t="n">
-        <v>21.74</v>
+        <v>82.74298461621279</v>
       </c>
       <c r="P7" t="n">
-        <v>42.87</v>
+        <v>24.44554454519166</v>
       </c>
       <c r="Q7" t="n">
-        <v>58.71</v>
+        <v>13.30384283461004</v>
       </c>
       <c r="R7" t="n">
-        <v>20.33852</v>
+        <v>5.750740021115186</v>
       </c>
       <c r="S7" t="n">
-        <v>10.83</v>
+        <v>12.77505238195899</v>
       </c>
       <c r="T7" t="n">
-        <v>32.45</v>
+        <v>3.047292049592162</v>
       </c>
       <c r="U7" t="n">
-        <v>10.83</v>
+        <v>56.06757811921884</v>
       </c>
       <c r="V7" t="n">
-        <v>40.97</v>
+        <v>2.070345300775838</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>10.14336037904159</v>
       </c>
       <c r="X7" t="n">
-        <v>20.97</v>
+        <v>48.09926793407342</v>
       </c>
       <c r="Y7" t="n">
-        <v>39.69</v>
+        <v>7.542997997837649</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.37</v>
+        <v>15.91428416681286</v>
       </c>
       <c r="AA7" t="n">
-        <v>10.94</v>
+        <v>2.357766323225317</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.32</v>
+        <v>4.354398883333997</v>
       </c>
       <c r="AC7" t="n">
-        <v>20.80125</v>
+        <v>9.5149694094628</v>
       </c>
       <c r="AD7" t="n">
-        <v>26.665</v>
+        <v>6.854252386886873</v>
       </c>
       <c r="AE7" t="n">
-        <v>9.029999999999999</v>
+        <v>2.422942376007887</v>
       </c>
       <c r="AF7" t="n">
-        <v>20.67</v>
+        <v>8.263455842978303</v>
       </c>
       <c r="AG7" t="n">
-        <v>4.320048457142858</v>
+        <v>5.660652115388593</v>
       </c>
       <c r="AH7" t="n">
-        <v>15.31</v>
+        <v>2.672810913626119</v>
       </c>
       <c r="AI7" t="n">
-        <v>16.81</v>
+        <v>4.60154078972051</v>
       </c>
       <c r="AJ7" t="n">
-        <v>2.1</v>
+        <v>33.2505329977356</v>
       </c>
       <c r="AK7" t="n">
-        <v>10.56</v>
+        <v>10.12139034324552</v>
       </c>
       <c r="AL7" t="n">
-        <v>5.54</v>
+        <v>10.27423001150067</v>
       </c>
       <c r="AM7" t="n">
-        <v>4.75</v>
+        <v>7.988082513090157</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.45</v>
+        <v>2.152683225980024</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.5050020016236233</v>
+        <v>31.96594467441062</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.6751824817518245</v>
+        <v>14.95464786038087</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.66</v>
+        <v>4.138949844224605</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.02</v>
+        <v>3.991698994621847</v>
       </c>
       <c r="AS7" t="n">
-        <v>9.52</v>
+        <v>5.181476036598421</v>
       </c>
       <c r="AT7" t="n">
-        <v>8.17</v>
+        <v>12.30964327263796</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.69</v>
+        <v>43.70924785914458</v>
       </c>
       <c r="AV7" t="n">
-        <v>3.77759680876609</v>
+        <v>14.32658199088637</v>
       </c>
       <c r="AW7" t="n">
-        <v>8.17</v>
+        <v>16.16033420550615</v>
       </c>
       <c r="AX7" t="n">
-        <v>14.81</v>
+        <v>18.25763968314345</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>9.754541195946429</v>
+        <v>12.00272884600133</v>
       </c>
       <c r="D8" t="n">
-        <v>13.14017105115382</v>
+        <v>30.38158039046856</v>
       </c>
       <c r="E8" t="n">
-        <v>17.44274839757905</v>
+        <v>21.47474260162457</v>
       </c>
       <c r="F8" t="n">
-        <v>18.97656772432044</v>
+        <v>18.93738375882913</v>
       </c>
       <c r="G8" t="n">
-        <v>31.19451818366601</v>
+        <v>23.24136532926864</v>
       </c>
       <c r="H8" t="n">
-        <v>30.77487756018069</v>
+        <v>14.91127081840674</v>
       </c>
       <c r="I8" t="n">
-        <v>201.5580644768212</v>
+        <v>24.67874375217749</v>
       </c>
       <c r="J8" t="n">
-        <v>36.73146943086953</v>
+        <v>58.30611429091244</v>
       </c>
       <c r="K8" t="n">
-        <v>43.80218032208891</v>
+        <v>69.69994593647054</v>
       </c>
       <c r="L8" t="n">
-        <v>16.79358691040834</v>
+        <v>43.05510622199217</v>
       </c>
       <c r="M8" t="n">
-        <v>26.09701315800906</v>
+        <v>74.13843001868266</v>
       </c>
       <c r="N8" t="n">
-        <v>87.52760886357068</v>
+        <v>82.86443898637624</v>
       </c>
       <c r="O8" t="n">
-        <v>53.14113293776057</v>
+        <v>55.80402532658384</v>
       </c>
       <c r="P8" t="n">
-        <v>29.42672800960614</v>
+        <v>17.26760043209647</v>
       </c>
       <c r="Q8" t="n">
-        <v>32.69182938313293</v>
+        <v>15.00839656250123</v>
       </c>
       <c r="R8" t="n">
-        <v>85.75590531768574</v>
+        <v>45.70087748730197</v>
       </c>
       <c r="S8" t="n">
-        <v>74.99230693262994</v>
+        <v>58.96252241579885</v>
       </c>
       <c r="T8" t="n">
-        <v>82.88016274171343</v>
+        <v>34.98321515043553</v>
       </c>
       <c r="U8" t="n">
-        <v>79.10857793056681</v>
+        <v>35.12363847417283</v>
       </c>
       <c r="V8" t="n">
-        <v>44.29701247067608</v>
+        <v>35.86946303143539</v>
       </c>
       <c r="W8" t="n">
-        <v>120.5073397342849</v>
+        <v>44.51057679844421</v>
       </c>
       <c r="X8" t="n">
-        <v>123.049569093454</v>
+        <v>69.67493064569693</v>
       </c>
       <c r="Y8" t="n">
-        <v>47.34907711440977</v>
+        <v>112.0882287881594</v>
       </c>
       <c r="Z8" t="n">
-        <v>93.52913050131066</v>
+        <v>54.30442123846807</v>
       </c>
       <c r="AA8" t="n">
-        <v>70.09772784592433</v>
+        <v>86.65381392388463</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.1375396288803</v>
+        <v>93.52083588816248</v>
       </c>
       <c r="AC8" t="n">
-        <v>37.23088204058305</v>
+        <v>98.52387647002897</v>
       </c>
       <c r="AD8" t="n">
-        <v>101.1286428873576</v>
+        <v>139.7759171124021</v>
       </c>
       <c r="AE8" t="n">
-        <v>124.7808974943988</v>
+        <v>62.45883337327314</v>
       </c>
       <c r="AF8" t="n">
-        <v>109.8982601945619</v>
+        <v>63.55123576942042</v>
       </c>
       <c r="AG8" t="n">
-        <v>65.5610109522861</v>
+        <v>225.4198182431209</v>
       </c>
       <c r="AH8" t="n">
-        <v>95.06398898044385</v>
+        <v>81.39048889619568</v>
       </c>
       <c r="AI8" t="n">
-        <v>21.56138023821787</v>
+        <v>96.66546748618795</v>
       </c>
       <c r="AJ8" t="n">
-        <v>51.07653049023843</v>
+        <v>67.65740182884811</v>
       </c>
       <c r="AK8" t="n">
-        <v>46.69826193789162</v>
+        <v>52.57951743749496</v>
       </c>
       <c r="AL8" t="n">
-        <v>54.57564145760074</v>
+        <v>19.54465358282486</v>
       </c>
       <c r="AM8" t="n">
-        <v>30.81133948667842</v>
+        <v>19.74479627914157</v>
       </c>
       <c r="AN8" t="n">
-        <v>36.97921604925681</v>
+        <v>31.61808497081419</v>
       </c>
       <c r="AO8" t="n">
-        <v>37.22636560346952</v>
+        <v>16.90301647919673</v>
       </c>
       <c r="AP8" t="n">
-        <v>26.53001462661316</v>
+        <v>38.62500818187105</v>
       </c>
       <c r="AQ8" t="n">
-        <v>38.83110209378101</v>
+        <v>14.90470737902058</v>
       </c>
       <c r="AR8" t="n">
-        <v>13.13887891050983</v>
+        <v>25.80162178893621</v>
       </c>
       <c r="AS8" t="n">
-        <v>38.28456258633115</v>
+        <v>33.44522267358105</v>
       </c>
       <c r="AT8" t="n">
-        <v>24.4718116357868</v>
+        <v>19.20678790785792</v>
       </c>
       <c r="AU8" t="n">
-        <v>17.12135587671467</v>
+        <v>16.26615641530304</v>
       </c>
       <c r="AV8" t="n">
-        <v>14.61769362239391</v>
+        <v>15.04488226193186</v>
       </c>
       <c r="AW8" t="n">
-        <v>11.94363125178445</v>
+        <v>18.76874832392291</v>
       </c>
       <c r="AX8" t="n">
-        <v>13.17787957825251</v>
+        <v>18.13652718527453</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>4.975453752123096</v>
+        <v>6.289059095072563</v>
       </c>
       <c r="D9" t="n">
-        <v>3.049915397631133</v>
+        <v>2.189574984241832</v>
       </c>
       <c r="E9" t="n">
-        <v>2.879192954756618</v>
+        <v>2.143439042185224</v>
       </c>
       <c r="F9" t="n">
-        <v>3.157789506680109</v>
+        <v>1.776572471487726</v>
       </c>
       <c r="G9" t="n">
-        <v>2.292539351212116</v>
+        <v>3.356745266301681</v>
       </c>
       <c r="H9" t="n">
-        <v>4.859816777373521</v>
+        <v>1.746620467032635</v>
       </c>
       <c r="I9" t="n">
-        <v>3.299218380371377</v>
+        <v>1.233854510231583</v>
       </c>
       <c r="J9" t="n">
-        <v>3.554413800000001</v>
+        <v>9.595814034754845</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9417574070509271</v>
+        <v>9.34191755925043</v>
       </c>
       <c r="L9" t="n">
-        <v>4.607525903972878</v>
+        <v>38.06937412079822</v>
       </c>
       <c r="M9" t="n">
-        <v>5.724881578265284</v>
+        <v>2.408227850668217</v>
       </c>
       <c r="N9" t="n">
-        <v>13.29080861908558</v>
+        <v>6.396363917016905</v>
       </c>
       <c r="O9" t="n">
-        <v>1.845668713905949</v>
+        <v>5.552923597688577</v>
       </c>
       <c r="P9" t="n">
-        <v>2.733352018813762</v>
+        <v>2.430033129082051</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.761331618902087</v>
+        <v>3.317812473936466</v>
       </c>
       <c r="R9" t="n">
-        <v>3.353976589371912</v>
+        <v>2.979260111117779</v>
       </c>
       <c r="S9" t="n">
-        <v>9.568787931529743</v>
+        <v>1.12490575778154</v>
       </c>
       <c r="T9" t="n">
-        <v>7.521859308067205</v>
+        <v>1.823791822825799</v>
       </c>
       <c r="U9" t="n">
-        <v>6.911227505886315</v>
+        <v>3.394645703930103</v>
       </c>
       <c r="V9" t="n">
-        <v>6.144039982963093</v>
+        <v>7.402487835934967</v>
       </c>
       <c r="W9" t="n">
-        <v>3.748256438042467</v>
+        <v>1.874210270407247</v>
       </c>
       <c r="X9" t="n">
-        <v>5.527680867471231</v>
+        <v>4.432085457046361</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.304374916876666</v>
+        <v>6.880742272035336</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.124473803865254</v>
+        <v>4.243861533254276</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.399949420944193</v>
+        <v>3.253569621706384</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.342595236341094</v>
+        <v>3.150878036044217</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.083931162079615</v>
+        <v>2.487706810796475</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.668738904272853</v>
+        <v>2.389996583179888</v>
       </c>
       <c r="AE9" t="n">
-        <v>4.688422548787361</v>
+        <v>3.817684545485213</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.568384041714079</v>
+        <v>6.166740434765529</v>
       </c>
       <c r="AG9" t="n">
-        <v>4.042467814746699</v>
+        <v>7.538759875706886</v>
       </c>
       <c r="AH9" t="n">
-        <v>4.089462669096902</v>
+        <v>5.216152140614578</v>
       </c>
       <c r="AI9" t="n">
-        <v>6.387403200000001</v>
+        <v>10.62754612544755</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6.946084012367342</v>
+        <v>2.700246410969566</v>
       </c>
       <c r="AK9" t="n">
-        <v>5.925040643751595</v>
+        <v>1.288595989269571</v>
       </c>
       <c r="AL9" t="n">
-        <v>6.683390536487038</v>
+        <v>2.981984969431211</v>
       </c>
       <c r="AM9" t="n">
-        <v>4.219333143390298</v>
+        <v>17.45866011999</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.826522637706111</v>
+        <v>6.205610281535336</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.611861340119505</v>
+        <v>3.130685448566828</v>
       </c>
       <c r="AP9" t="n">
-        <v>3.397137427869109</v>
+        <v>1.927466850778239</v>
       </c>
       <c r="AQ9" t="n">
-        <v>6.736520854526957</v>
+        <v>8.647306357314797</v>
       </c>
       <c r="AR9" t="n">
-        <v>4.066941722537391</v>
+        <v>5.969700982855576</v>
       </c>
       <c r="AS9" t="n">
-        <v>6.723459206702131</v>
+        <v>4.252208494325522</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.450257137790389</v>
+        <v>2.627758193420968</v>
       </c>
       <c r="AU9" t="n">
-        <v>2.83066595468762</v>
+        <v>2.371219984843162</v>
       </c>
       <c r="AV9" t="n">
-        <v>3.43121440500405</v>
+        <v>2.053543126321526</v>
       </c>
       <c r="AW9" t="n">
-        <v>2.160042701945859</v>
+        <v>3.467688710886123</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.216794108424246</v>
+        <v>14.22086629551196</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>13.30857789149974</v>
+        <v>12.44011641484773</v>
       </c>
       <c r="D10" t="n">
-        <v>5.798232948636744</v>
+        <v>32.50928371724248</v>
       </c>
       <c r="E10" t="n">
-        <v>6.998861464275683</v>
+        <v>16.20326342092917</v>
       </c>
       <c r="F10" t="n">
-        <v>11.94675936876964</v>
+        <v>24.94005488158225</v>
       </c>
       <c r="G10" t="n">
-        <v>5.749747450716939</v>
+        <v>38.68778548572961</v>
       </c>
       <c r="H10" t="n">
-        <v>24.30039414095868</v>
+        <v>69.03153095999987</v>
       </c>
       <c r="I10" t="n">
-        <v>19.99656311838017</v>
+        <v>10.0823102959181</v>
       </c>
       <c r="J10" t="n">
-        <v>457.0840199790462</v>
+        <v>76.56932224965195</v>
       </c>
       <c r="K10" t="n">
-        <v>14.07120737249916</v>
+        <v>26.90324925022248</v>
       </c>
       <c r="L10" t="n">
-        <v>70.78979807151852</v>
+        <v>102.3939275196241</v>
       </c>
       <c r="M10" t="n">
-        <v>188.2344007338378</v>
+        <v>157.4205728779239</v>
       </c>
       <c r="N10" t="n">
-        <v>103.4953055366212</v>
+        <v>44.43107329804346</v>
       </c>
       <c r="O10" t="n">
-        <v>27.8822801523005</v>
+        <v>68.40517416461377</v>
       </c>
       <c r="P10" t="n">
-        <v>192.869048350962</v>
+        <v>50.40912088778717</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.1272520181665</v>
+        <v>38.36994370059713</v>
       </c>
       <c r="R10" t="n">
-        <v>27.4029382075042</v>
+        <v>179.1322370338393</v>
       </c>
       <c r="S10" t="n">
-        <v>75.32641206888371</v>
+        <v>32.20965278740304</v>
       </c>
       <c r="T10" t="n">
-        <v>42.97170822283197</v>
+        <v>71.49343498360651</v>
       </c>
       <c r="U10" t="n">
-        <v>46.64431464468752</v>
+        <v>82.60626652910213</v>
       </c>
       <c r="V10" t="n">
-        <v>42.89662010942402</v>
+        <v>80.5320511707553</v>
       </c>
       <c r="W10" t="n">
-        <v>168.4535078397076</v>
+        <v>132.8722841220051</v>
       </c>
       <c r="X10" t="n">
-        <v>51.02844772050742</v>
+        <v>57.70896769015634</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.10283846909972</v>
+        <v>67.35770093777701</v>
       </c>
       <c r="Z10" t="n">
-        <v>63.38809613870798</v>
+        <v>28.09003204532814</v>
       </c>
       <c r="AA10" t="n">
-        <v>49.84726806660301</v>
+        <v>99.68141148504832</v>
       </c>
       <c r="AB10" t="n">
-        <v>55.22545993939014</v>
+        <v>59.62670223405947</v>
       </c>
       <c r="AC10" t="n">
-        <v>93.56867946283538</v>
+        <v>101.8292776154733</v>
       </c>
       <c r="AD10" t="n">
-        <v>58.66305788130893</v>
+        <v>94.16667373511041</v>
       </c>
       <c r="AE10" t="n">
-        <v>70.67879960814305</v>
+        <v>136.6707263240459</v>
       </c>
       <c r="AF10" t="n">
-        <v>92.54230960933607</v>
+        <v>72.53396482137752</v>
       </c>
       <c r="AG10" t="n">
-        <v>75.93778251379271</v>
+        <v>52.7338248988653</v>
       </c>
       <c r="AH10" t="n">
-        <v>31.7640774602978</v>
+        <v>53.72159400329114</v>
       </c>
       <c r="AI10" t="n">
-        <v>62.67038851722201</v>
+        <v>117.9410093006979</v>
       </c>
       <c r="AJ10" t="n">
-        <v>68.43666666666667</v>
+        <v>28.04882370476486</v>
       </c>
       <c r="AK10" t="n">
-        <v>25.7661703884475</v>
+        <v>22.64927536447426</v>
       </c>
       <c r="AL10" t="n">
-        <v>45.94524120567547</v>
+        <v>20.67568579891595</v>
       </c>
       <c r="AM10" t="n">
-        <v>28.08466950135291</v>
+        <v>37.96461185681272</v>
       </c>
       <c r="AN10" t="n">
-        <v>27.37115989323776</v>
+        <v>41.69961217167987</v>
       </c>
       <c r="AO10" t="n">
-        <v>47.58011697292384</v>
+        <v>9.704613731360952</v>
       </c>
       <c r="AP10" t="n">
-        <v>7.994703567088816</v>
+        <v>12.32375867250794</v>
       </c>
       <c r="AQ10" t="n">
-        <v>20.84667294116532</v>
+        <v>10.97019391700223</v>
       </c>
       <c r="AR10" t="n">
-        <v>12.22847956029042</v>
+        <v>8.771444392353439</v>
       </c>
       <c r="AS10" t="n">
-        <v>17.77421847131786</v>
+        <v>10.01051147899577</v>
       </c>
       <c r="AT10" t="n">
-        <v>15.7054212704353</v>
+        <v>17.94833149515866</v>
       </c>
       <c r="AU10" t="n">
-        <v>10.6270086254892</v>
+        <v>11.49378947025904</v>
       </c>
       <c r="AV10" t="n">
-        <v>8.87545082636502</v>
+        <v>9.687086037529589</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.526903577223452</v>
+        <v>6.568127081141634</v>
       </c>
       <c r="AX10" t="n">
-        <v>10.60212610603926</v>
+        <v>23.58064917212601</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>24.13696363587817</v>
+        <v>6.377745660054842</v>
       </c>
       <c r="D11" t="n">
-        <v>20.18695644082396</v>
+        <v>9.688589113306186</v>
       </c>
       <c r="E11" t="n">
-        <v>29.91042360737192</v>
+        <v>39.55561187223256</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9504350263874737</v>
+        <v>63.96683951500867</v>
       </c>
       <c r="G11" t="n">
-        <v>25.78814670446917</v>
+        <v>7.892375613176503</v>
       </c>
       <c r="H11" t="n">
-        <v>62.38293985011434</v>
+        <v>19.82367362229491</v>
       </c>
       <c r="I11" t="n">
-        <v>25.45213974507417</v>
+        <v>10.27986460839792</v>
       </c>
       <c r="J11" t="n">
-        <v>18.83537862533815</v>
+        <v>31.36226126767403</v>
       </c>
       <c r="K11" t="n">
-        <v>88.03994096231577</v>
+        <v>63.81914441953518</v>
       </c>
       <c r="L11" t="n">
-        <v>35.70280808595376</v>
+        <v>118.8594390462137</v>
       </c>
       <c r="M11" t="n">
-        <v>52.59504307978239</v>
+        <v>64.41619299566611</v>
       </c>
       <c r="N11" t="n">
-        <v>77.09366828129512</v>
+        <v>12.3926894508677</v>
       </c>
       <c r="O11" t="n">
-        <v>106.7478248250562</v>
+        <v>12.45596608030264</v>
       </c>
       <c r="P11" t="n">
-        <v>64.65524260820023</v>
+        <v>50.19026190010185</v>
       </c>
       <c r="Q11" t="n">
-        <v>30.87712874928799</v>
+        <v>110.7623446470077</v>
       </c>
       <c r="R11" t="n">
-        <v>29.89216595195505</v>
+        <v>38.01824320778594</v>
       </c>
       <c r="S11" t="n">
-        <v>87.92922115273888</v>
+        <v>41.16640579356116</v>
       </c>
       <c r="T11" t="n">
-        <v>51.66077170303834</v>
+        <v>111.403228972577</v>
       </c>
       <c r="U11" t="n">
-        <v>122.8501122553584</v>
+        <v>15.54279836620089</v>
       </c>
       <c r="V11" t="n">
-        <v>34.87885533544255</v>
+        <v>50.59706546366914</v>
       </c>
       <c r="W11" t="n">
-        <v>22.92775826567948</v>
+        <v>49.01129715100979</v>
       </c>
       <c r="X11" t="n">
-        <v>190.3960144107233</v>
+        <v>35.72672983852809</v>
       </c>
       <c r="Y11" t="n">
-        <v>36.04233541422242</v>
+        <v>22.32963905116747</v>
       </c>
       <c r="Z11" t="n">
-        <v>55.15401522813539</v>
+        <v>15.58795200854781</v>
       </c>
       <c r="AA11" t="n">
-        <v>47.43540979353997</v>
+        <v>213.1459418526134</v>
       </c>
       <c r="AB11" t="n">
-        <v>40.44474677529694</v>
+        <v>23.86525500989388</v>
       </c>
       <c r="AC11" t="n">
-        <v>35.41940840688756</v>
+        <v>120.998875702692</v>
       </c>
       <c r="AD11" t="n">
-        <v>13.84028428816124</v>
+        <v>15.10173979479705</v>
       </c>
       <c r="AE11" t="n">
-        <v>150.5071786901218</v>
+        <v>22.01948773411781</v>
       </c>
       <c r="AF11" t="n">
-        <v>27.76348349416674</v>
+        <v>6.531083499059354</v>
       </c>
       <c r="AG11" t="n">
-        <v>75.89976116876997</v>
+        <v>28.16315958468947</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>25.47835562865244</v>
       </c>
       <c r="AI11" t="n">
-        <v>23.35848144809343</v>
+        <v>63.20245740621116</v>
       </c>
       <c r="AJ11" t="n">
-        <v>31.30213260186696</v>
+        <v>65.71327073499367</v>
       </c>
       <c r="AK11" t="n">
-        <v>30.10715862544273</v>
+        <v>19.06128017869525</v>
       </c>
       <c r="AL11" t="n">
-        <v>30.03495235758115</v>
+        <v>19.73396756595633</v>
       </c>
       <c r="AM11" t="n">
-        <v>23.81361392576273</v>
+        <v>8.188325198283914</v>
       </c>
       <c r="AN11" t="n">
-        <v>13.03326566345492</v>
+        <v>6.383669171488717</v>
       </c>
       <c r="AO11" t="n">
-        <v>25.18513627194373</v>
+        <v>26.32581024945598</v>
       </c>
       <c r="AP11" t="n">
-        <v>26.14358600082975</v>
+        <v>6.940532232131182</v>
       </c>
       <c r="AQ11" t="n">
-        <v>17.649277749962</v>
+        <v>24.17541844703698</v>
       </c>
       <c r="AR11" t="n">
-        <v>32.95231252951729</v>
+        <v>18.75524804198321</v>
       </c>
       <c r="AS11" t="n">
-        <v>3.239379711098787</v>
+        <v>29.13297617407322</v>
       </c>
       <c r="AT11" t="n">
-        <v>30.09490462829974</v>
+        <v>39.63688470094181</v>
       </c>
       <c r="AU11" t="n">
-        <v>42.39395956590052</v>
+        <v>37.90254200275978</v>
       </c>
       <c r="AV11" t="n">
-        <v>33.30700396661699</v>
+        <v>23.49685528441982</v>
       </c>
       <c r="AW11" t="n">
-        <v>21.41354479832592</v>
+        <v>16.99096215993884</v>
       </c>
       <c r="AX11" t="n">
-        <v>24.42574121255294</v>
+        <v>19.67997288277893</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>1.162992593602577</v>
+        <v>8.305712999577922</v>
       </c>
       <c r="D12" t="n">
-        <v>1.749237766757721</v>
+        <v>3.466682135397168</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9750097106424719</v>
+        <v>15.47715433956534</v>
       </c>
       <c r="F12" t="n">
-        <v>3.418912680040339</v>
+        <v>2.799941328232155</v>
       </c>
       <c r="G12" t="n">
-        <v>6.036544553665324</v>
+        <v>35.59190487953506</v>
       </c>
       <c r="H12" t="n">
-        <v>7.285825910835603</v>
+        <v>10.88769598298505</v>
       </c>
       <c r="I12" t="n">
-        <v>16.51966848449882</v>
+        <v>5.010709048914991</v>
       </c>
       <c r="J12" t="n">
-        <v>23.24434610170702</v>
+        <v>9.098838340412099</v>
       </c>
       <c r="K12" t="n">
-        <v>5.627283009056542</v>
+        <v>63.27814867623206</v>
       </c>
       <c r="L12" t="n">
-        <v>18.23721484531161</v>
+        <v>31.26050329484366</v>
       </c>
       <c r="M12" t="n">
-        <v>2.253568065506653</v>
+        <v>16.16496521050146</v>
       </c>
       <c r="N12" t="n">
-        <v>19.49697982342214</v>
+        <v>53.6706222140762</v>
       </c>
       <c r="O12" t="n">
-        <v>9.644197204801747</v>
+        <v>7.873072497335921</v>
       </c>
       <c r="P12" t="n">
-        <v>36.94879040567019</v>
+        <v>7.907297682617304</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.40231781710033</v>
+        <v>11.45779163209868</v>
       </c>
       <c r="R12" t="n">
-        <v>12.26188054545545</v>
+        <v>13.03104501686122</v>
       </c>
       <c r="S12" t="n">
-        <v>34.21488413654502</v>
+        <v>13.72721625802755</v>
       </c>
       <c r="T12" t="n">
-        <v>15.70838594943351</v>
+        <v>4.126632302539504</v>
       </c>
       <c r="U12" t="n">
-        <v>11.40932880552927</v>
+        <v>30.06890093668576</v>
       </c>
       <c r="V12" t="n">
-        <v>20.14419476880567</v>
+        <v>15.04850355111903</v>
       </c>
       <c r="W12" t="n">
-        <v>17.23583994865378</v>
+        <v>31.04418843672311</v>
       </c>
       <c r="X12" t="n">
-        <v>42.51747067017145</v>
+        <v>33.70245059669105</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.187210006358011</v>
+        <v>14.6476497172244</v>
       </c>
       <c r="Z12" t="n">
-        <v>15.72224498828234</v>
+        <v>18.17674737450703</v>
       </c>
       <c r="AA12" t="n">
-        <v>8.772498959332085</v>
+        <v>9.548829242008791</v>
       </c>
       <c r="AB12" t="n">
-        <v>17.98828781486958</v>
+        <v>29.79801502790529</v>
       </c>
       <c r="AC12" t="n">
-        <v>18.73366712331995</v>
+        <v>20.24674347275412</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.13661507219779</v>
+        <v>21.50630215381115</v>
       </c>
       <c r="AE12" t="n">
-        <v>31.50282733160401</v>
+        <v>39.86923586922357</v>
       </c>
       <c r="AF12" t="n">
-        <v>17.5133890803928</v>
+        <v>8.015145660110123</v>
       </c>
       <c r="AG12" t="n">
-        <v>5.675070171428572</v>
+        <v>25.33174607432069</v>
       </c>
       <c r="AH12" t="n">
-        <v>11.29153423998829</v>
+        <v>11.92617258263398</v>
       </c>
       <c r="AI12" t="n">
-        <v>11.09040598653546</v>
+        <v>8.386350896583791</v>
       </c>
       <c r="AJ12" t="n">
-        <v>5.569521725607914</v>
+        <v>10.34114550208462</v>
       </c>
       <c r="AK12" t="n">
-        <v>8.750403649203143</v>
+        <v>9.664648067762313</v>
       </c>
       <c r="AL12" t="n">
-        <v>10.586883280188</v>
+        <v>11.80905510888427</v>
       </c>
       <c r="AM12" t="n">
-        <v>1.443568483873078</v>
+        <v>1.738291450169305</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.411694595330272</v>
+        <v>3.057081581628621</v>
       </c>
       <c r="AO12" t="n">
-        <v>4.278792084672803</v>
+        <v>2.648273762089112</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.897095449906911</v>
+        <v>4.071555536382227</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.700012364527343</v>
+        <v>2.370468894974903</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.67563750600964</v>
+        <v>0.9504619703161272</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.432457527333894</v>
+        <v>1.886216648710093</v>
       </c>
       <c r="AT12" t="n">
-        <v>4.403939537344069</v>
+        <v>4.653564215480604</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.6789590618450705</v>
+        <v>3.493254922099913</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.129012381624191</v>
+        <v>4.419456759197072</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.846709865794145</v>
+        <v>1.691431854390048</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.09807574879458</v>
+        <v>12.31798495827586</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>2.53</v>
+        <v>6.933504352258018</v>
       </c>
       <c r="D13" t="n">
-        <v>8.77</v>
+        <v>127.7325237394351</v>
       </c>
       <c r="E13" t="n">
-        <v>9.91</v>
+        <v>19.29484630641349</v>
       </c>
       <c r="F13" t="n">
-        <v>11.35</v>
+        <v>11.3377644054047</v>
       </c>
       <c r="G13" t="n">
-        <v>26.35</v>
+        <v>20.75961542408064</v>
       </c>
       <c r="H13" t="n">
-        <v>23.06</v>
+        <v>6.491419127725223</v>
       </c>
       <c r="I13" t="n">
-        <v>14.18</v>
+        <v>18.57156894159249</v>
       </c>
       <c r="J13" t="n">
-        <v>42.68725062123286</v>
+        <v>17.18959913508255</v>
       </c>
       <c r="K13" t="n">
-        <v>57.6</v>
+        <v>42.11089536377231</v>
       </c>
       <c r="L13" t="n">
-        <v>32.56</v>
+        <v>19.26830857673787</v>
       </c>
       <c r="M13" t="n">
-        <v>32.47</v>
+        <v>13.84973504974711</v>
       </c>
       <c r="N13" t="n">
-        <v>12.59329545</v>
+        <v>48.59819616279955</v>
       </c>
       <c r="O13" t="n">
-        <v>15.06</v>
+        <v>15.60570477762711</v>
       </c>
       <c r="P13" t="n">
-        <v>32.23</v>
+        <v>54.45431143142716</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.29000000000001</v>
+        <v>24.77106164160479</v>
       </c>
       <c r="R13" t="n">
-        <v>31.9</v>
+        <v>81.10741777443495</v>
       </c>
       <c r="S13" t="n">
-        <v>81.77</v>
+        <v>15.68177813374013</v>
       </c>
       <c r="T13" t="n">
-        <v>30.65</v>
+        <v>46.38485594428722</v>
       </c>
       <c r="U13" t="n">
-        <v>69.48999999999999</v>
+        <v>32.58575763385399</v>
       </c>
       <c r="V13" t="n">
-        <v>20.55</v>
+        <v>25.5584372886239</v>
       </c>
       <c r="W13" t="n">
-        <v>21.5</v>
+        <v>5.187875586034356</v>
       </c>
       <c r="X13" t="n">
-        <v>4.27</v>
+        <v>17.00443831403632</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.869999999999999</v>
+        <v>7.663604167287215</v>
       </c>
       <c r="Z13" t="n">
-        <v>39.69</v>
+        <v>7.240775130594984</v>
       </c>
       <c r="AA13" t="n">
-        <v>9.630000000000001</v>
+        <v>5.725262613215688</v>
       </c>
       <c r="AB13" t="n">
-        <v>5.2</v>
+        <v>145.6418393638202</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.07</v>
+        <v>16.09676259310055</v>
       </c>
       <c r="AD13" t="n">
-        <v>35.87</v>
+        <v>2.692159674596368</v>
       </c>
       <c r="AE13" t="n">
-        <v>9.369999999999999</v>
+        <v>5.007998222115583</v>
       </c>
       <c r="AF13" t="n">
-        <v>20.67</v>
+        <v>20.951521914007</v>
       </c>
       <c r="AG13" t="n">
-        <v>23.91</v>
+        <v>19.48966357131275</v>
       </c>
       <c r="AH13" t="n">
-        <v>15.69</v>
+        <v>5.353815264003236</v>
       </c>
       <c r="AI13" t="n">
-        <v>1</v>
+        <v>7.447354566808167</v>
       </c>
       <c r="AJ13" t="n">
-        <v>4.36</v>
+        <v>4.795012183977694</v>
       </c>
       <c r="AK13" t="n">
-        <v>8.92</v>
+        <v>2.041803261335184</v>
       </c>
       <c r="AL13" t="n">
-        <v>3.7813919</v>
+        <v>2.98318879000223</v>
       </c>
       <c r="AM13" t="n">
-        <v>2.12</v>
+        <v>4.806417727004814</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.82</v>
+        <v>3.573381884164857</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.77</v>
+        <v>36.51461869395497</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.6751824817518245</v>
+        <v>6.364726899875328</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.53</v>
+        <v>3.094469093636231</v>
       </c>
       <c r="AR13" t="n">
-        <v>1.53</v>
+        <v>3.752538109248212</v>
       </c>
       <c r="AS13" t="n">
-        <v>13.45</v>
+        <v>0.8177345561857422</v>
       </c>
       <c r="AT13" t="n">
-        <v>9.52</v>
+        <v>5.497248705094703</v>
       </c>
       <c r="AU13" t="n">
-        <v>3.770123179064641</v>
+        <v>4.102953589640776</v>
       </c>
       <c r="AV13" t="n">
-        <v>6.801330498371415</v>
+        <v>5.140494430849988</v>
       </c>
       <c r="AW13" t="n">
-        <v>11.99</v>
+        <v>1.229216555137893</v>
       </c>
       <c r="AX13" t="n">
-        <v>15.02</v>
+        <v>6.698806708804094</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>13.41429446078774</v>
+        <v>35.36500292777824</v>
       </c>
       <c r="D14" t="n">
-        <v>10.31015005180873</v>
+        <v>16.94843944253922</v>
       </c>
       <c r="E14" t="n">
-        <v>36.22247188812204</v>
+        <v>32.99124282165182</v>
       </c>
       <c r="F14" t="n">
-        <v>122.5873696413649</v>
+        <v>13.31399804279371</v>
       </c>
       <c r="G14" t="n">
-        <v>8.011076039769616</v>
+        <v>27.68135975216753</v>
       </c>
       <c r="H14" t="n">
-        <v>55.05065530728693</v>
+        <v>31.72658489810268</v>
       </c>
       <c r="I14" t="n">
-        <v>344.8507385517119</v>
+        <v>48.67918359791561</v>
       </c>
       <c r="J14" t="n">
-        <v>23.57487300035998</v>
+        <v>18.92350140775883</v>
       </c>
       <c r="K14" t="n">
-        <v>72.72420771318419</v>
+        <v>44.15547836716506</v>
       </c>
       <c r="L14" t="n">
-        <v>29.45317110613245</v>
+        <v>91.34571587708452</v>
       </c>
       <c r="M14" t="n">
-        <v>135.5837102907934</v>
+        <v>44.237080431251</v>
       </c>
       <c r="N14" t="n">
-        <v>39.5617033074962</v>
+        <v>106.4642847729385</v>
       </c>
       <c r="O14" t="n">
-        <v>62.92588486297506</v>
+        <v>71.15046726655237</v>
       </c>
       <c r="P14" t="n">
-        <v>82.03404482358739</v>
+        <v>32.75778975816091</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.49172814542955</v>
+        <v>26.55467644468844</v>
       </c>
       <c r="R14" t="n">
-        <v>41.37080070762141</v>
+        <v>200.5440131094039</v>
       </c>
       <c r="S14" t="n">
-        <v>46.13002642987048</v>
+        <v>40.94542247771108</v>
       </c>
       <c r="T14" t="n">
-        <v>83.54222132964703</v>
+        <v>61.91919336602967</v>
       </c>
       <c r="U14" t="n">
-        <v>49.76415868782099</v>
+        <v>26.10379146164638</v>
       </c>
       <c r="V14" t="n">
-        <v>66.65488187049505</v>
+        <v>48.18822935389792</v>
       </c>
       <c r="W14" t="n">
-        <v>55.74812254418435</v>
+        <v>114.1107031916935</v>
       </c>
       <c r="X14" t="n">
-        <v>91.03088659686165</v>
+        <v>113.6410916013489</v>
       </c>
       <c r="Y14" t="n">
-        <v>75.18843408508079</v>
+        <v>50.32110745152649</v>
       </c>
       <c r="Z14" t="n">
-        <v>47.7766847141317</v>
+        <v>61.79556997037345</v>
       </c>
       <c r="AA14" t="n">
-        <v>103.5980966393603</v>
+        <v>52.06443978358338</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.3578136001761</v>
+        <v>104.7024087084925</v>
       </c>
       <c r="AC14" t="n">
-        <v>121.9684093469651</v>
+        <v>97.41743543981278</v>
       </c>
       <c r="AD14" t="n">
-        <v>130.4635562142871</v>
+        <v>52.05393348260358</v>
       </c>
       <c r="AE14" t="n">
-        <v>142.2233042106196</v>
+        <v>62.98354730218026</v>
       </c>
       <c r="AF14" t="n">
-        <v>32.24196840067085</v>
+        <v>72.20846298454211</v>
       </c>
       <c r="AG14" t="n">
-        <v>42.72974404175727</v>
+        <v>68.68795961801119</v>
       </c>
       <c r="AH14" t="n">
-        <v>77.98728602567182</v>
+        <v>100.0284257578814</v>
       </c>
       <c r="AI14" t="n">
-        <v>154.8527223324941</v>
+        <v>94.35097531278873</v>
       </c>
       <c r="AJ14" t="n">
-        <v>88.90649897258355</v>
+        <v>36.28086784210129</v>
       </c>
       <c r="AK14" t="n">
-        <v>137.7661492232729</v>
+        <v>26.03793516599778</v>
       </c>
       <c r="AL14" t="n">
-        <v>54.08512490235171</v>
+        <v>66.3499910133455</v>
       </c>
       <c r="AM14" t="n">
-        <v>22.77890049976178</v>
+        <v>54.49070511706652</v>
       </c>
       <c r="AN14" t="n">
-        <v>30.90355310497397</v>
+        <v>32.34060020689241</v>
       </c>
       <c r="AO14" t="n">
-        <v>31.76926103062406</v>
+        <v>50.66880197191432</v>
       </c>
       <c r="AP14" t="n">
-        <v>13.78351186415485</v>
+        <v>49.60312202513136</v>
       </c>
       <c r="AQ14" t="n">
-        <v>30.37156188513497</v>
+        <v>33.27089026896093</v>
       </c>
       <c r="AR14" t="n">
-        <v>25.37232653306759</v>
+        <v>14.69335545543948</v>
       </c>
       <c r="AS14" t="n">
-        <v>17.00169237205202</v>
+        <v>30.36981496701791</v>
       </c>
       <c r="AT14" t="n">
-        <v>20.86769775581163</v>
+        <v>21.47465453314382</v>
       </c>
       <c r="AU14" t="n">
-        <v>21.089178490584</v>
+        <v>10.78640718776654</v>
       </c>
       <c r="AV14" t="n">
-        <v>15.36682396459591</v>
+        <v>16.81454914433387</v>
       </c>
       <c r="AW14" t="n">
-        <v>22.75653010582943</v>
+        <v>23.31698519834661</v>
       </c>
       <c r="AX14" t="n">
-        <v>24.75752192596079</v>
+        <v>20.32616167714618</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>1.649663833158898</v>
+        <v>14.56930927423415</v>
       </c>
       <c r="D15" t="n">
-        <v>5.188468798254879</v>
+        <v>2.487971132354215</v>
       </c>
       <c r="E15" t="n">
-        <v>2.437701508356497</v>
+        <v>1.638006471633426</v>
       </c>
       <c r="F15" t="n">
-        <v>1.757409276678033</v>
+        <v>2.966195115827963</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8570659088587375</v>
+        <v>3.008894536550869</v>
       </c>
       <c r="H15" t="n">
-        <v>2.134590937051466</v>
+        <v>19.94040912728276</v>
       </c>
       <c r="I15" t="n">
-        <v>4.012770601986695</v>
+        <v>12.15754850134332</v>
       </c>
       <c r="J15" t="n">
-        <v>2.29567249042505</v>
+        <v>0.7543833516602793</v>
       </c>
       <c r="K15" t="n">
-        <v>2.144293425245496</v>
+        <v>14.82228178710796</v>
       </c>
       <c r="L15" t="n">
-        <v>1.136027714824545</v>
+        <v>7.977817081172623</v>
       </c>
       <c r="M15" t="n">
-        <v>5.107019471628915</v>
+        <v>4.419132975066054</v>
       </c>
       <c r="N15" t="n">
-        <v>5.777554486319987</v>
+        <v>8.753807750542947</v>
       </c>
       <c r="O15" t="n">
-        <v>5.694326860633698</v>
+        <v>2.908747476613512</v>
       </c>
       <c r="P15" t="n">
-        <v>5.141222430962817</v>
+        <v>2.058848032990169</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.165705622128599</v>
+        <v>6.881395987954233</v>
       </c>
       <c r="R15" t="n">
-        <v>21.52612581148259</v>
+        <v>2.798321187412706</v>
       </c>
       <c r="S15" t="n">
-        <v>1.37793647227365</v>
+        <v>3.933541299265491</v>
       </c>
       <c r="T15" t="n">
-        <v>0.6535122170205097</v>
+        <v>1.568942120483966</v>
       </c>
       <c r="U15" t="n">
-        <v>4.059377255709768</v>
+        <v>3.213856384177971</v>
       </c>
       <c r="V15" t="n">
-        <v>4.150064268955134</v>
+        <v>2.875685209267351</v>
       </c>
       <c r="W15" t="n">
-        <v>5.604307305768312</v>
+        <v>3.163890077116213</v>
       </c>
       <c r="X15" t="n">
-        <v>9.134275500466748</v>
+        <v>8.011179175926554</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.268192436274694</v>
+        <v>2.875898378764554</v>
       </c>
       <c r="Z15" t="n">
-        <v>5.644595600000001</v>
+        <v>1.782167364020593</v>
       </c>
       <c r="AA15" t="n">
-        <v>3.382855816236586</v>
+        <v>3.697923414542704</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.905241001187739</v>
+        <v>5.981789277906735</v>
       </c>
       <c r="AC15" t="n">
-        <v>5.737945434786469</v>
+        <v>3.621747107620161</v>
       </c>
       <c r="AD15" t="n">
-        <v>4.991417827228437</v>
+        <v>7.909102213567169</v>
       </c>
       <c r="AE15" t="n">
-        <v>3.104958815805181</v>
+        <v>7.191595252345248</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.760823580854784</v>
+        <v>3.693544346407665</v>
       </c>
       <c r="AG15" t="n">
-        <v>5.727398318899962</v>
+        <v>11.66646341304301</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.109027574098107</v>
+        <v>2.204878819791028</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.103159879753676</v>
+        <v>1.630664408196779</v>
       </c>
       <c r="AJ15" t="n">
-        <v>4.075928147185971</v>
+        <v>3.861205152414402</v>
       </c>
       <c r="AK15" t="n">
-        <v>6.144313910689594</v>
+        <v>5.504157032532848</v>
       </c>
       <c r="AL15" t="n">
-        <v>2.853577155718122</v>
+        <v>4.614162122375724</v>
       </c>
       <c r="AM15" t="n">
-        <v>5.856058529042379</v>
+        <v>2.596425471854856</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.244192237713331</v>
+        <v>2.591476364307471</v>
       </c>
       <c r="AO15" t="n">
-        <v>4.164020659113811</v>
+        <v>2.453912279912599</v>
       </c>
       <c r="AP15" t="n">
-        <v>3.7457748712297</v>
+        <v>4.555316496525723</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.963350278382958</v>
+        <v>2.83783483592287</v>
       </c>
       <c r="AR15" t="n">
-        <v>3.330077115597446</v>
+        <v>3.305521916389556</v>
       </c>
       <c r="AS15" t="n">
-        <v>3.644559051057246</v>
+        <v>4.571843062326066</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.306326979153866</v>
+        <v>3.955514867110643</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.02640414446455495</v>
+        <v>0.2827647893080852</v>
       </c>
       <c r="AV15" t="n">
-        <v>3.235771077698181</v>
+        <v>2.810658662100118</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.305533136318156</v>
+        <v>3.380592427378209</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.9960216747489672</v>
+        <v>0.5294105759743118</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>13.7796207748956</v>
+        <v>12.44222980784719</v>
       </c>
       <c r="D16" t="n">
-        <v>66.07898971944019</v>
+        <v>15.45703292087616</v>
       </c>
       <c r="E16" t="n">
-        <v>15.53096247238173</v>
+        <v>12.38306152527338</v>
       </c>
       <c r="F16" t="n">
-        <v>11.94675936876964</v>
+        <v>15.26735733424744</v>
       </c>
       <c r="G16" t="n">
-        <v>22.04837005975252</v>
+        <v>27.84977022762974</v>
       </c>
       <c r="H16" t="n">
-        <v>6.512495754814605</v>
+        <v>9.847932024195302</v>
       </c>
       <c r="I16" t="n">
-        <v>42.71804508840248</v>
+        <v>50.1031955059189</v>
       </c>
       <c r="J16" t="n">
-        <v>16.98548683323098</v>
+        <v>100.2954146541816</v>
       </c>
       <c r="K16" t="n">
-        <v>9.286477290837878</v>
+        <v>201.5221849688767</v>
       </c>
       <c r="L16" t="n">
-        <v>26.43871512008815</v>
+        <v>63.4828566360818</v>
       </c>
       <c r="M16" t="n">
-        <v>132.1081413857805</v>
+        <v>70.14736561539185</v>
       </c>
       <c r="N16" t="n">
-        <v>28.46574952041656</v>
+        <v>173.6190308534778</v>
       </c>
       <c r="O16" t="n">
-        <v>47.75282392454715</v>
+        <v>32.19710265464295</v>
       </c>
       <c r="P16" t="n">
-        <v>78.82046333808846</v>
+        <v>164.2829686266096</v>
       </c>
       <c r="Q16" t="n">
-        <v>108.079597090145</v>
+        <v>342.2355859509731</v>
       </c>
       <c r="R16" t="n">
-        <v>18.95847613529369</v>
+        <v>64.6489210433807</v>
       </c>
       <c r="S16" t="n">
-        <v>65.8952119246669</v>
+        <v>25.23542671491636</v>
       </c>
       <c r="T16" t="n">
-        <v>32.01697556895935</v>
+        <v>38.46720389644494</v>
       </c>
       <c r="U16" t="n">
-        <v>47.28717234666685</v>
+        <v>55.29661133484263</v>
       </c>
       <c r="V16" t="n">
-        <v>44.59593784502148</v>
+        <v>38.67937658411364</v>
       </c>
       <c r="W16" t="n">
-        <v>80.91814263481655</v>
+        <v>32.83058508792928</v>
       </c>
       <c r="X16" t="n">
-        <v>29.86282442495921</v>
+        <v>79.74578428936083</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.87667250851909</v>
+        <v>99.52804115101412</v>
       </c>
       <c r="Z16" t="n">
-        <v>25.06538466912486</v>
+        <v>98.50193333390308</v>
       </c>
       <c r="AA16" t="n">
-        <v>57.52422237637498</v>
+        <v>66.52676327117618</v>
       </c>
       <c r="AB16" t="n">
-        <v>43.83203554329366</v>
+        <v>70.12365972285828</v>
       </c>
       <c r="AC16" t="n">
-        <v>77.74177689787702</v>
+        <v>64.58572959870342</v>
       </c>
       <c r="AD16" t="n">
-        <v>89.25042499506564</v>
+        <v>82.18371204227356</v>
       </c>
       <c r="AE16" t="n">
-        <v>56.20891280148423</v>
+        <v>16.6794447697127</v>
       </c>
       <c r="AF16" t="n">
-        <v>59.93879014392225</v>
+        <v>41.41539471261298</v>
       </c>
       <c r="AG16" t="n">
-        <v>65.51842267081756</v>
+        <v>113.0974040970749</v>
       </c>
       <c r="AH16" t="n">
-        <v>32.08570045650952</v>
+        <v>32.001829134963</v>
       </c>
       <c r="AI16" t="n">
-        <v>83.00861282541801</v>
+        <v>93.75752638143443</v>
       </c>
       <c r="AJ16" t="n">
-        <v>77.33643818862816</v>
+        <v>73.76089537944887</v>
       </c>
       <c r="AK16" t="n">
-        <v>20.66111304253973</v>
+        <v>14.14876112535138</v>
       </c>
       <c r="AL16" t="n">
-        <v>55.02538275235271</v>
+        <v>15.35612801177332</v>
       </c>
       <c r="AM16" t="n">
-        <v>66.77799649373416</v>
+        <v>15.40667655129636</v>
       </c>
       <c r="AN16" t="n">
-        <v>25.27257557623258</v>
+        <v>33.43185341253273</v>
       </c>
       <c r="AO16" t="n">
-        <v>12.47459126985983</v>
+        <v>27.68639452606522</v>
       </c>
       <c r="AP16" t="n">
-        <v>31.32308241287775</v>
+        <v>15.07693126292766</v>
       </c>
       <c r="AQ16" t="n">
-        <v>18.96072046109511</v>
+        <v>16.26992710397132</v>
       </c>
       <c r="AR16" t="n">
-        <v>9.038048018406673</v>
+        <v>21.08291057354215</v>
       </c>
       <c r="AS16" t="n">
-        <v>9.83725264169068</v>
+        <v>12.7009996607165</v>
       </c>
       <c r="AT16" t="n">
-        <v>15.10965597715017</v>
+        <v>20.3450794641848</v>
       </c>
       <c r="AU16" t="n">
-        <v>10.6270086254892</v>
+        <v>10.48523119927004</v>
       </c>
       <c r="AV16" t="n">
-        <v>6.601810920575437</v>
+        <v>17.99289367984553</v>
       </c>
       <c r="AW16" t="n">
-        <v>34.06168438962144</v>
+        <v>13.8328068458418</v>
       </c>
       <c r="AX16" t="n">
-        <v>11.15139441617695</v>
+        <v>9.104253076220621</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>26.43376738018885</v>
+        <v>7.82810609701659</v>
       </c>
       <c r="D17" t="n">
-        <v>25.78191087225131</v>
+        <v>15.01248959303788</v>
       </c>
       <c r="E17" t="n">
-        <v>20.50157160950653</v>
+        <v>6.19319234084865</v>
       </c>
       <c r="F17" t="n">
-        <v>14.28156002863329</v>
+        <v>7.141427579461454</v>
       </c>
       <c r="G17" t="n">
-        <v>42.33350383936461</v>
+        <v>31.1043936104458</v>
       </c>
       <c r="H17" t="n">
-        <v>3.072650955588811</v>
+        <v>23.39780351625089</v>
       </c>
       <c r="I17" t="n">
-        <v>17.79331317314417</v>
+        <v>38.33730082207486</v>
       </c>
       <c r="J17" t="n">
-        <v>17.73938384782133</v>
+        <v>30.71101882011958</v>
       </c>
       <c r="K17" t="n">
-        <v>10.09806168236616</v>
+        <v>14.74420810995461</v>
       </c>
       <c r="L17" t="n">
-        <v>29.55159064429476</v>
+        <v>63.11739174624561</v>
       </c>
       <c r="M17" t="n">
-        <v>55.93843687201966</v>
+        <v>8.112821831597991</v>
       </c>
       <c r="N17" t="n">
-        <v>45.62841552521198</v>
+        <v>73.21738094734289</v>
       </c>
       <c r="O17" t="n">
-        <v>160.3638598555828</v>
+        <v>115.7724559916337</v>
       </c>
       <c r="P17" t="n">
-        <v>40.83306614513021</v>
+        <v>60.89585919277231</v>
       </c>
       <c r="Q17" t="n">
-        <v>25.30688296319846</v>
+        <v>23.69273519692971</v>
       </c>
       <c r="R17" t="n">
-        <v>36.75645754137209</v>
+        <v>41.63779447110777</v>
       </c>
       <c r="S17" t="n">
-        <v>75.44292642857144</v>
+        <v>37.97347621103648</v>
       </c>
       <c r="T17" t="n">
-        <v>36.93398557178844</v>
+        <v>7.733771295313901</v>
       </c>
       <c r="U17" t="n">
-        <v>28.90767982532695</v>
+        <v>30.3818525409802</v>
       </c>
       <c r="V17" t="n">
-        <v>43.2372079800719</v>
+        <v>157.9494210803224</v>
       </c>
       <c r="W17" t="n">
-        <v>50.90497314241186</v>
+        <v>30.84388081919696</v>
       </c>
       <c r="X17" t="n">
-        <v>48.19110315567472</v>
+        <v>11.96241880133365</v>
       </c>
       <c r="Y17" t="n">
-        <v>42.38237022256725</v>
+        <v>8.342414521146098</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.75797003051748</v>
+        <v>12.08001942419549</v>
       </c>
       <c r="AA17" t="n">
-        <v>50.47428210535098</v>
+        <v>63.73246799124608</v>
       </c>
       <c r="AB17" t="n">
-        <v>63.86424630320776</v>
+        <v>15.64941577323394</v>
       </c>
       <c r="AC17" t="n">
-        <v>30.13872339042234</v>
+        <v>52.9502846926831</v>
       </c>
       <c r="AD17" t="n">
-        <v>19.76235961892641</v>
+        <v>15.4979034628179</v>
       </c>
       <c r="AE17" t="n">
-        <v>7.044864216355929</v>
+        <v>40.48429615795119</v>
       </c>
       <c r="AF17" t="n">
-        <v>25.22461427375798</v>
+        <v>7.178434589756814</v>
       </c>
       <c r="AG17" t="n">
-        <v>29.11270629514017</v>
+        <v>49.4840162705947</v>
       </c>
       <c r="AH17" t="n">
-        <v>25.82179550536056</v>
+        <v>25.25215145504109</v>
       </c>
       <c r="AI17" t="n">
-        <v>14.59068790193681</v>
+        <v>6.742244029787233</v>
       </c>
       <c r="AJ17" t="n">
-        <v>14.13154461450381</v>
+        <v>21.70833761688169</v>
       </c>
       <c r="AK17" t="n">
-        <v>17.23182879368231</v>
+        <v>20.92690365034147</v>
       </c>
       <c r="AL17" t="n">
-        <v>30.03495235758115</v>
+        <v>13.88068530272542</v>
       </c>
       <c r="AM17" t="n">
-        <v>6.850399145366508</v>
+        <v>6.158282958394405</v>
       </c>
       <c r="AN17" t="n">
-        <v>25.91440926402704</v>
+        <v>27.81410157198296</v>
       </c>
       <c r="AO17" t="n">
-        <v>30.29934055952982</v>
+        <v>18.13465460222972</v>
       </c>
       <c r="AP17" t="n">
-        <v>4.845639788663425</v>
+        <v>13.01472268661203</v>
       </c>
       <c r="AQ17" t="n">
-        <v>9.426309682899323</v>
+        <v>16.9840998707806</v>
       </c>
       <c r="AR17" t="n">
-        <v>31.83249482693018</v>
+        <v>23.17114246013555</v>
       </c>
       <c r="AS17" t="n">
-        <v>28.00311860438944</v>
+        <v>5.914676453536814</v>
       </c>
       <c r="AT17" t="n">
-        <v>4.999486920771727</v>
+        <v>46.05302000064408</v>
       </c>
       <c r="AU17" t="n">
-        <v>23.60273805826514</v>
+        <v>52.19571119582071</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.9404892333392403</v>
+        <v>21.79972868963624</v>
       </c>
       <c r="AW17" t="n">
-        <v>14.75615210956654</v>
+        <v>16.40431367098847</v>
       </c>
       <c r="AX17" t="n">
-        <v>25.55060612429203</v>
+        <v>23.77258523455636</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>2.280449236120791</v>
+        <v>4.168842530128607</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6472902403138793</v>
+        <v>4.644611951366485</v>
       </c>
       <c r="E18" t="n">
-        <v>9.591923448914075</v>
+        <v>4.171837290429088</v>
       </c>
       <c r="F18" t="n">
-        <v>8.594782936403734</v>
+        <v>14.56754737300881</v>
       </c>
       <c r="G18" t="n">
-        <v>32.25650871685682</v>
+        <v>1.710169870676331</v>
       </c>
       <c r="H18" t="n">
-        <v>3.893324722460657</v>
+        <v>6.663015618650799</v>
       </c>
       <c r="I18" t="n">
-        <v>4.869443868443625</v>
+        <v>8.622674978887821</v>
       </c>
       <c r="J18" t="n">
-        <v>2.045726205276465</v>
+        <v>12.71440370115482</v>
       </c>
       <c r="K18" t="n">
-        <v>22.68493661132864</v>
+        <v>23.77728757077727</v>
       </c>
       <c r="L18" t="n">
-        <v>10.16591630600403</v>
+        <v>14.10891759811155</v>
       </c>
       <c r="M18" t="n">
-        <v>17.56139170626299</v>
+        <v>19.42254511811536</v>
       </c>
       <c r="N18" t="n">
-        <v>9.79766197395047</v>
+        <v>4.621952906944896</v>
       </c>
       <c r="O18" t="n">
-        <v>43.79186017600966</v>
+        <v>7.279088144383962</v>
       </c>
       <c r="P18" t="n">
-        <v>12.15502739712861</v>
+        <v>29.48315412848215</v>
       </c>
       <c r="Q18" t="n">
-        <v>20.03875</v>
+        <v>66.26614001691976</v>
       </c>
       <c r="R18" t="n">
-        <v>61.79255837882785</v>
+        <v>16.83019356432836</v>
       </c>
       <c r="S18" t="n">
-        <v>14.30156493176477</v>
+        <v>8.345572063219613</v>
       </c>
       <c r="T18" t="n">
-        <v>38.39228108288463</v>
+        <v>13.3397768411693</v>
       </c>
       <c r="U18" t="n">
-        <v>12.99932984727214</v>
+        <v>27.91184274658587</v>
       </c>
       <c r="V18" t="n">
-        <v>38.33735109208019</v>
+        <v>53.09746268739465</v>
       </c>
       <c r="W18" t="n">
-        <v>11.1021932804862</v>
+        <v>33.46536401707365</v>
       </c>
       <c r="X18" t="n">
-        <v>16.97729251826405</v>
+        <v>24.5773251475822</v>
       </c>
       <c r="Y18" t="n">
-        <v>16.13425844913255</v>
+        <v>22.4015672561622</v>
       </c>
       <c r="Z18" t="n">
-        <v>25.95450291427428</v>
+        <v>14.65606340320996</v>
       </c>
       <c r="AA18" t="n">
-        <v>12.51440464834774</v>
+        <v>8.099860064734518</v>
       </c>
       <c r="AB18" t="n">
-        <v>14.95077959897396</v>
+        <v>10.97440698497248</v>
       </c>
       <c r="AC18" t="n">
-        <v>19.9431904113521</v>
+        <v>23.69990509620185</v>
       </c>
       <c r="AD18" t="n">
-        <v>31.505</v>
+        <v>47.02761520605718</v>
       </c>
       <c r="AE18" t="n">
-        <v>16.3551830502874</v>
+        <v>21.18082455738105</v>
       </c>
       <c r="AF18" t="n">
-        <v>16.04596317070863</v>
+        <v>18.20549738382124</v>
       </c>
       <c r="AG18" t="n">
-        <v>19.65847143964344</v>
+        <v>6.607826386451251</v>
       </c>
       <c r="AH18" t="n">
-        <v>19.61353000110955</v>
+        <v>10.25712008916244</v>
       </c>
       <c r="AI18" t="n">
-        <v>22.80287668553267</v>
+        <v>8.907795007669003</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2.258867765331798</v>
+        <v>11.6600614521612</v>
       </c>
       <c r="AK18" t="n">
-        <v>10.86210743591048</v>
+        <v>10.14027074204996</v>
       </c>
       <c r="AL18" t="n">
-        <v>4.158684843629247</v>
+        <v>60.79087593160588</v>
       </c>
       <c r="AM18" t="n">
-        <v>6.400539766872755</v>
+        <v>1.680998830504435</v>
       </c>
       <c r="AN18" t="n">
-        <v>2.480416005640754</v>
+        <v>1.709971527955876</v>
       </c>
       <c r="AO18" t="n">
-        <v>2.579797242274176</v>
+        <v>2.717013493358454</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.923690751269344</v>
+        <v>4.743586658141653</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.876412893569343</v>
+        <v>2.780510266004458</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.4575169875423843</v>
+        <v>3.3397420568215</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.724410664330593</v>
+        <v>1.191632472540204</v>
       </c>
       <c r="AT18" t="n">
-        <v>10.60312831467819</v>
+        <v>1.580348959683196</v>
       </c>
       <c r="AU18" t="n">
-        <v>4.562057414726702</v>
+        <v>3.303947477186267</v>
       </c>
       <c r="AV18" t="n">
-        <v>3.310719747479363</v>
+        <v>2.70341624645635</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.9755290887803305</v>
+        <v>4.461357695338036</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.5858166677417965</v>
+        <v>2.824475341362864</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>1.57</v>
+        <v>39.25585584625832</v>
       </c>
       <c r="D19" t="n">
-        <v>21.38</v>
+        <v>3.100633011248593</v>
       </c>
       <c r="E19" t="n">
-        <v>2.53</v>
+        <v>4.319064511495327</v>
       </c>
       <c r="F19" t="n">
-        <v>8.68</v>
+        <v>6.663546870488788</v>
       </c>
       <c r="G19" t="n">
-        <v>65.59</v>
+        <v>28.41146587288092</v>
       </c>
       <c r="H19" t="n">
-        <v>14.18</v>
+        <v>84.02898908548384</v>
       </c>
       <c r="I19" t="n">
-        <v>40.81</v>
+        <v>16.42766670205607</v>
       </c>
       <c r="J19" t="n">
-        <v>43.25</v>
+        <v>4.19788837348945</v>
       </c>
       <c r="K19" t="n">
-        <v>86.43000000000001</v>
+        <v>11.94123141767876</v>
       </c>
       <c r="L19" t="n">
-        <v>29.07</v>
+        <v>32.35443203309833</v>
       </c>
       <c r="M19" t="n">
-        <v>11.81</v>
+        <v>5.635684876792984</v>
       </c>
       <c r="N19" t="n">
-        <v>36.1</v>
+        <v>24.86856019196144</v>
       </c>
       <c r="O19" t="n">
-        <v>112.61</v>
+        <v>186.0740804196647</v>
       </c>
       <c r="P19" t="n">
-        <v>81.89</v>
+        <v>131.4628919581714</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.299999999999999</v>
+        <v>9.973955196921812</v>
       </c>
       <c r="R19" t="n">
-        <v>31.9</v>
+        <v>55.5431398628293</v>
       </c>
       <c r="S19" t="n">
-        <v>22.81</v>
+        <v>34.59844847936613</v>
       </c>
       <c r="T19" t="n">
-        <v>2.608125000000001</v>
+        <v>75.01929640496979</v>
       </c>
       <c r="U19" t="n">
-        <v>40.1</v>
+        <v>8.941974876935118</v>
       </c>
       <c r="V19" t="n">
-        <v>82.29000000000001</v>
+        <v>6.887528848349779</v>
       </c>
       <c r="W19" t="n">
-        <v>4.06</v>
+        <v>16.85738710670315</v>
       </c>
       <c r="X19" t="n">
-        <v>14.77</v>
+        <v>20.24240165932592</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.93</v>
+        <v>95.05455826796745</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.91</v>
+        <v>9.03272466251282</v>
       </c>
       <c r="AA19" t="n">
-        <v>1</v>
+        <v>1.286906191300483</v>
       </c>
       <c r="AB19" t="n">
-        <v>15.21456384710123</v>
+        <v>0.6065464588793603</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.05</v>
+        <v>6.6986758179635</v>
       </c>
       <c r="AD19" t="n">
-        <v>32.06</v>
+        <v>5.210986353553407</v>
       </c>
       <c r="AE19" t="n">
-        <v>29.03</v>
+        <v>6.730556731236955</v>
       </c>
       <c r="AF19" t="n">
-        <v>7.107315761161916</v>
+        <v>20.70345094457812</v>
       </c>
       <c r="AG19" t="n">
-        <v>4.79</v>
+        <v>13.20003586947861</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.21</v>
+        <v>1.44743925322727</v>
       </c>
       <c r="AI19" t="n">
-        <v>8.48</v>
+        <v>0.7669089179160469</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>7.597387735829882</v>
       </c>
       <c r="AK19" t="n">
-        <v>9.1</v>
+        <v>10.46243070509543</v>
       </c>
       <c r="AL19" t="n">
-        <v>20.9</v>
+        <v>4.276257977844089</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.8777372262773725</v>
+        <v>11.52530608563668</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.114324324324324</v>
+        <v>1.450194410673744</v>
       </c>
       <c r="AO19" t="n">
-        <v>7.43</v>
+        <v>2.046817086227444</v>
       </c>
       <c r="AP19" t="n">
-        <v>6.83</v>
+        <v>0.8518632406660095</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.02</v>
+        <v>4.697304315560404</v>
       </c>
       <c r="AR19" t="n">
-        <v>5.94</v>
+        <v>20.92264043060829</v>
       </c>
       <c r="AS19" t="n">
-        <v>14.22</v>
+        <v>49.11214455792616</v>
       </c>
       <c r="AT19" t="n">
-        <v>6.69</v>
+        <v>9.115539885213455</v>
       </c>
       <c r="AU19" t="n">
-        <v>11.97</v>
+        <v>6.256145432690659</v>
       </c>
       <c r="AV19" t="n">
-        <v>5.62</v>
+        <v>168.5415698650066</v>
       </c>
       <c r="AW19" t="n">
-        <v>11.99</v>
+        <v>6.860923482712646</v>
       </c>
       <c r="AX19" t="n">
-        <v>10.96</v>
+        <v>2.881009887237238</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>13.11577095839642</v>
+        <v>22.81867647375396</v>
       </c>
       <c r="D20" t="n">
-        <v>20.04139777391745</v>
+        <v>10.50969409082573</v>
       </c>
       <c r="E20" t="n">
-        <v>37.24201605474816</v>
+        <v>16.38743833054276</v>
       </c>
       <c r="F20" t="n">
-        <v>25.32310464804015</v>
+        <v>15.12314364604514</v>
       </c>
       <c r="G20" t="n">
-        <v>25.80592766830814</v>
+        <v>27.6545199730383</v>
       </c>
       <c r="H20" t="n">
-        <v>20.87759811722354</v>
+        <v>8.942680057505962</v>
       </c>
       <c r="I20" t="n">
-        <v>31.47676212323852</v>
+        <v>44.46013314382514</v>
       </c>
       <c r="J20" t="n">
-        <v>36.08763637296257</v>
+        <v>50.54437809985524</v>
       </c>
       <c r="K20" t="n">
-        <v>60.584976524196</v>
+        <v>84.89130171347639</v>
       </c>
       <c r="L20" t="n">
-        <v>18.89617985491179</v>
+        <v>80.16455179717101</v>
       </c>
       <c r="M20" t="n">
-        <v>123.3386003006531</v>
+        <v>50.36179077220535</v>
       </c>
       <c r="N20" t="n">
-        <v>28.17929364979274</v>
+        <v>37.87828317003304</v>
       </c>
       <c r="O20" t="n">
-        <v>67.39598936394665</v>
+        <v>82.92582282470637</v>
       </c>
       <c r="P20" t="n">
-        <v>38.83577454536119</v>
+        <v>152.9327334801356</v>
       </c>
       <c r="Q20" t="n">
-        <v>61.41953496209345</v>
+        <v>100.7398559316882</v>
       </c>
       <c r="R20" t="n">
-        <v>41.37080070762141</v>
+        <v>56.04927004688287</v>
       </c>
       <c r="S20" t="n">
-        <v>116.0802093853677</v>
+        <v>62.96808259358965</v>
       </c>
       <c r="T20" t="n">
-        <v>32.06139391356029</v>
+        <v>40.79950713347488</v>
       </c>
       <c r="U20" t="n">
-        <v>41.31453830488172</v>
+        <v>149.5045640934185</v>
       </c>
       <c r="V20" t="n">
-        <v>23.44825952318683</v>
+        <v>74.49784657722927</v>
       </c>
       <c r="W20" t="n">
-        <v>78.32277562745034</v>
+        <v>70.8989133576646</v>
       </c>
       <c r="X20" t="n">
-        <v>69.39382825371534</v>
+        <v>43.48859757711539</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.2106898832681</v>
+        <v>46.31435293843784</v>
       </c>
       <c r="Z20" t="n">
-        <v>56.37870274452149</v>
+        <v>46.46384804989165</v>
       </c>
       <c r="AA20" t="n">
-        <v>46.61962061862658</v>
+        <v>114.9533340828018</v>
       </c>
       <c r="AB20" t="n">
-        <v>111.1972879567138</v>
+        <v>93.31966724985064</v>
       </c>
       <c r="AC20" t="n">
-        <v>104.7820392355988</v>
+        <v>119.7072285904866</v>
       </c>
       <c r="AD20" t="n">
-        <v>129.8259350572564</v>
+        <v>123.0060925600898</v>
       </c>
       <c r="AE20" t="n">
-        <v>140.248756583984</v>
+        <v>274.3437134204947</v>
       </c>
       <c r="AF20" t="n">
-        <v>32.24196840067085</v>
+        <v>122.71653868635</v>
       </c>
       <c r="AG20" t="n">
-        <v>118.9434063542356</v>
+        <v>40.6506875296278</v>
       </c>
       <c r="AH20" t="n">
-        <v>38.7066971170104</v>
+        <v>95.74368215308873</v>
       </c>
       <c r="AI20" t="n">
-        <v>37.32308361888582</v>
+        <v>23.83768582445995</v>
       </c>
       <c r="AJ20" t="n">
-        <v>68.06519719852099</v>
+        <v>140.2815243585516</v>
       </c>
       <c r="AK20" t="n">
-        <v>41.12110229320348</v>
+        <v>163.2492886666201</v>
       </c>
       <c r="AL20" t="n">
-        <v>72.41503759488472</v>
+        <v>74.09270334866089</v>
       </c>
       <c r="AM20" t="n">
-        <v>46.16160719915096</v>
+        <v>19.59777472035035</v>
       </c>
       <c r="AN20" t="n">
-        <v>52.39389666826459</v>
+        <v>12.55536526058634</v>
       </c>
       <c r="AO20" t="n">
-        <v>15.33642067593312</v>
+        <v>23.21852189807236</v>
       </c>
       <c r="AP20" t="n">
-        <v>28.7709837024262</v>
+        <v>42.10097751951801</v>
       </c>
       <c r="AQ20" t="n">
-        <v>26.60827347285454</v>
+        <v>20.6916566981632</v>
       </c>
       <c r="AR20" t="n">
-        <v>16.58754711896889</v>
+        <v>39.57207087870201</v>
       </c>
       <c r="AS20" t="n">
-        <v>19.95987693698427</v>
+        <v>18.16057780851851</v>
       </c>
       <c r="AT20" t="n">
-        <v>19.49831190596988</v>
+        <v>40.14266418301349</v>
       </c>
       <c r="AU20" t="n">
-        <v>29.90470910311335</v>
+        <v>31.5133171320422</v>
       </c>
       <c r="AV20" t="n">
-        <v>21.8072494244633</v>
+        <v>23.5387878365593</v>
       </c>
       <c r="AW20" t="n">
-        <v>22.73384655467717</v>
+        <v>36.97091201406885</v>
       </c>
       <c r="AX20" t="n">
-        <v>20.21064772502355</v>
+        <v>29.62788000275158</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>2.35092496631704</v>
+        <v>0.2844611041562678</v>
       </c>
       <c r="D21" t="n">
-        <v>3.169507866177554</v>
+        <v>2.260043314256977</v>
       </c>
       <c r="E21" t="n">
-        <v>5.248895148299705</v>
+        <v>0.3021582684310012</v>
       </c>
       <c r="F21" t="n">
-        <v>2.28663133989402</v>
+        <v>0.5520668120925331</v>
       </c>
       <c r="G21" t="n">
-        <v>3.960156927826502</v>
+        <v>2.369325027647397</v>
       </c>
       <c r="H21" t="n">
-        <v>1.041394931729409</v>
+        <v>21.66954214110993</v>
       </c>
       <c r="I21" t="n">
-        <v>2.210838958534233</v>
+        <v>0.8409770715749827</v>
       </c>
       <c r="J21" t="n">
-        <v>4.887372528321803</v>
+        <v>6.146066012118705</v>
       </c>
       <c r="K21" t="n">
-        <v>1.004148248894934</v>
+        <v>3.035770196221857</v>
       </c>
       <c r="L21" t="n">
-        <v>1.377140335392762</v>
+        <v>1.577366221790825</v>
       </c>
       <c r="M21" t="n">
-        <v>3.582703947526984</v>
+        <v>3.656543323019859</v>
       </c>
       <c r="N21" t="n">
-        <v>3.443962797911798</v>
+        <v>0.8178169932036616</v>
       </c>
       <c r="O21" t="n">
-        <v>2.134896944997061</v>
+        <v>3.797251922499857</v>
       </c>
       <c r="P21" t="n">
-        <v>8.124848465475475</v>
+        <v>4.085778906960284</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.89654523068009</v>
+        <v>2.890318811745364</v>
       </c>
       <c r="R21" t="n">
-        <v>2.803591633462394</v>
+        <v>5.803791602096756</v>
       </c>
       <c r="S21" t="n">
-        <v>0.7891413277459695</v>
+        <v>2.504431236537995</v>
       </c>
       <c r="T21" t="n">
-        <v>2.878345272546136</v>
+        <v>7.411498032765381</v>
       </c>
       <c r="U21" t="n">
-        <v>2.524715593718867</v>
+        <v>2.354230296401162</v>
       </c>
       <c r="V21" t="n">
-        <v>4.62754450876044</v>
+        <v>8.937096603357361</v>
       </c>
       <c r="W21" t="n">
-        <v>4.762781225385051</v>
+        <v>2.302077600755271</v>
       </c>
       <c r="X21" t="n">
-        <v>2.22760197960408</v>
+        <v>1.925280834038131</v>
       </c>
       <c r="Y21" t="n">
-        <v>7.539016357509518</v>
+        <v>9.164839339458602</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.560202088717883</v>
+        <v>3.193130305527141</v>
       </c>
       <c r="AA21" t="n">
-        <v>4.893770249446615</v>
+        <v>4.304670916831268</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.849714888467211</v>
+        <v>6.152576146128109</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.237842447957147</v>
+        <v>4.375242787313678</v>
       </c>
       <c r="AD21" t="n">
-        <v>8.478886965287098</v>
+        <v>3.49007081144917</v>
       </c>
       <c r="AE21" t="n">
-        <v>4.789374948579917</v>
+        <v>2.749981124393568</v>
       </c>
       <c r="AF21" t="n">
-        <v>4.916114318843475</v>
+        <v>6.167308132534752</v>
       </c>
       <c r="AG21" t="n">
-        <v>2.697945881470528</v>
+        <v>4.465830454166191</v>
       </c>
       <c r="AH21" t="n">
-        <v>4.040198476394726</v>
+        <v>3.138474700101712</v>
       </c>
       <c r="AI21" t="n">
-        <v>2.103159879753676</v>
+        <v>6.185170008141725</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3.292860419457238</v>
+        <v>9.035653008025038</v>
       </c>
       <c r="AK21" t="n">
-        <v>5.681340542021342</v>
+        <v>4.411923325430543</v>
       </c>
       <c r="AL21" t="n">
-        <v>5.373182255778545</v>
+        <v>2.681885162569745</v>
       </c>
       <c r="AM21" t="n">
-        <v>5.065707849268447</v>
+        <v>9.144450851084059</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.244192237713331</v>
+        <v>2.218787109553819</v>
       </c>
       <c r="AO21" t="n">
-        <v>4.611861340119505</v>
+        <v>2.514032761962886</v>
       </c>
       <c r="AP21" t="n">
-        <v>7.008937237757994</v>
+        <v>4.45859362594435</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.32772382484729</v>
+        <v>2.039134910394587</v>
       </c>
       <c r="AR21" t="n">
-        <v>5.248217486445384</v>
+        <v>1.125902050685483</v>
       </c>
       <c r="AS21" t="n">
-        <v>5.53872147668234</v>
+        <v>1.940837239580848</v>
       </c>
       <c r="AT21" t="n">
-        <v>5.399413662790598</v>
+        <v>9.943058953668817</v>
       </c>
       <c r="AU21" t="n">
-        <v>2.809536146905752</v>
+        <v>7.233314742344223</v>
       </c>
       <c r="AV21" t="n">
-        <v>3.686018989045849</v>
+        <v>1.306345954875693</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.001418360593078892</v>
+        <v>4.379446448280185</v>
       </c>
       <c r="AX21" t="n">
-        <v>3.093395323110526</v>
+        <v>0.6881735318596301</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>6.418155717478463</v>
+        <v>11.6384388596775</v>
       </c>
       <c r="D22" t="n">
-        <v>66.07898971944019</v>
+        <v>11.17427005282824</v>
       </c>
       <c r="E22" t="n">
-        <v>7.528599055543063</v>
+        <v>6.222678336972941</v>
       </c>
       <c r="F22" t="n">
-        <v>21.01057696094519</v>
+        <v>16.10425980989659</v>
       </c>
       <c r="G22" t="n">
-        <v>28.79166068968419</v>
+        <v>7.706357389130475</v>
       </c>
       <c r="H22" t="n">
-        <v>5.031029019377323</v>
+        <v>9.30280671491307</v>
       </c>
       <c r="I22" t="n">
-        <v>33.30622388258699</v>
+        <v>25.75921225992926</v>
       </c>
       <c r="J22" t="n">
-        <v>8.490874288625193</v>
+        <v>49.96528936690696</v>
       </c>
       <c r="K22" t="n">
-        <v>9.286477290837878</v>
+        <v>75.62349526024012</v>
       </c>
       <c r="L22" t="n">
-        <v>108.6510772770538</v>
+        <v>113.4478352984953</v>
       </c>
       <c r="M22" t="n">
-        <v>116.53644333771</v>
+        <v>128.3429804218455</v>
       </c>
       <c r="N22" t="n">
-        <v>11.09230845873651</v>
+        <v>168.7217920423372</v>
       </c>
       <c r="O22" t="n">
-        <v>60.90983149960389</v>
+        <v>63.76640175042257</v>
       </c>
       <c r="P22" t="n">
-        <v>29.75795243275218</v>
+        <v>64.13767703648921</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.02588106793814</v>
+        <v>78.77893094514586</v>
       </c>
       <c r="R22" t="n">
-        <v>40.13626351477022</v>
+        <v>44.08272551829614</v>
       </c>
       <c r="S22" t="n">
-        <v>98.55037020001443</v>
+        <v>45.17366736860305</v>
       </c>
       <c r="T22" t="n">
-        <v>78.60005471956224</v>
+        <v>84.21643432965649</v>
       </c>
       <c r="U22" t="n">
-        <v>32.81244665634863</v>
+        <v>89.20716718167652</v>
       </c>
       <c r="V22" t="n">
-        <v>30.13170833729722</v>
+        <v>46.8199605331585</v>
       </c>
       <c r="W22" t="n">
-        <v>105.6360086066457</v>
+        <v>52.15672816348832</v>
       </c>
       <c r="X22" t="n">
-        <v>50.02352962587087</v>
+        <v>34.04780414549857</v>
       </c>
       <c r="Y22" t="n">
-        <v>101.8673159435432</v>
+        <v>59.87698457683358</v>
       </c>
       <c r="Z22" t="n">
-        <v>78.94549953822739</v>
+        <v>81.94074659091815</v>
       </c>
       <c r="AA22" t="n">
-        <v>56.80915294082953</v>
+        <v>57.21051617103717</v>
       </c>
       <c r="AB22" t="n">
-        <v>91.09187511858748</v>
+        <v>53.17678133624463</v>
       </c>
       <c r="AC22" t="n">
-        <v>26.24437200263298</v>
+        <v>111.0755600260807</v>
       </c>
       <c r="AD22" t="n">
-        <v>61.8705345979868</v>
+        <v>46.96839764112518</v>
       </c>
       <c r="AE22" t="n">
-        <v>43.48365009900119</v>
+        <v>97.60978909511509</v>
       </c>
       <c r="AF22" t="n">
-        <v>103.8175881764604</v>
+        <v>77.82886398197522</v>
       </c>
       <c r="AG22" t="n">
-        <v>119.504291416643</v>
+        <v>39.44013902356208</v>
       </c>
       <c r="AH22" t="n">
-        <v>116.2624274659456</v>
+        <v>20.72161506498568</v>
       </c>
       <c r="AI22" t="n">
-        <v>27.76956155010512</v>
+        <v>51.28716248745515</v>
       </c>
       <c r="AJ22" t="n">
-        <v>42.25447025581222</v>
+        <v>20.25563380548326</v>
       </c>
       <c r="AK22" t="n">
-        <v>75.50940348583472</v>
+        <v>30.70325886108159</v>
       </c>
       <c r="AL22" t="n">
-        <v>16.2759944752106</v>
+        <v>38.44182627113076</v>
       </c>
       <c r="AM22" t="n">
-        <v>37.34509212142481</v>
+        <v>20.28967117441587</v>
       </c>
       <c r="AN22" t="n">
-        <v>27.37115989323776</v>
+        <v>33.05379168747851</v>
       </c>
       <c r="AO22" t="n">
-        <v>31.69085101759027</v>
+        <v>17.86261379077578</v>
       </c>
       <c r="AP22" t="n">
-        <v>9.819989466940818</v>
+        <v>12.98135130098074</v>
       </c>
       <c r="AQ22" t="n">
-        <v>8.958310751465014</v>
+        <v>7.214369362141561</v>
       </c>
       <c r="AR22" t="n">
-        <v>11.54305466253317</v>
+        <v>7.341770172675956</v>
       </c>
       <c r="AS22" t="n">
-        <v>10.95798501373392</v>
+        <v>15.64199664306089</v>
       </c>
       <c r="AT22" t="n">
-        <v>10.09416090949075</v>
+        <v>21.33806611471831</v>
       </c>
       <c r="AU22" t="n">
-        <v>9.700125960878648</v>
+        <v>22.10517018381186</v>
       </c>
       <c r="AV22" t="n">
-        <v>18.886331125</v>
+        <v>15.5263344338374</v>
       </c>
       <c r="AW22" t="n">
-        <v>26.58838603917685</v>
+        <v>16.28595502339016</v>
       </c>
       <c r="AX22" t="n">
-        <v>12.49364675984752</v>
+        <v>8.660110047850958</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>27.59696348652982</v>
+        <v>7.362985555882079</v>
       </c>
       <c r="D23" t="n">
-        <v>40.97186757581886</v>
+        <v>8.652503064404847</v>
       </c>
       <c r="E23" t="n">
-        <v>20.50157160950653</v>
+        <v>15.71370634938551</v>
       </c>
       <c r="F23" t="n">
-        <v>0.003452031706557612</v>
+        <v>8.465057706378312</v>
       </c>
       <c r="G23" t="n">
-        <v>8.332312228024403</v>
+        <v>5.453069297796655</v>
       </c>
       <c r="H23" t="n">
-        <v>24.70767191658154</v>
+        <v>15.66162971001697</v>
       </c>
       <c r="I23" t="n">
-        <v>32.89887056088912</v>
+        <v>28.49158395587046</v>
       </c>
       <c r="J23" t="n">
-        <v>11.61159754408999</v>
+        <v>17.07054047795822</v>
       </c>
       <c r="K23" t="n">
-        <v>44.75815635349109</v>
+        <v>119.3553844763751</v>
       </c>
       <c r="L23" t="n">
-        <v>93.53043282031872</v>
+        <v>37.57190485159634</v>
       </c>
       <c r="M23" t="n">
-        <v>126.7681718332455</v>
+        <v>19.46815658469006</v>
       </c>
       <c r="N23" t="n">
-        <v>10.22929661018557</v>
+        <v>34.8198146661071</v>
       </c>
       <c r="O23" t="n">
-        <v>31.19367160796456</v>
+        <v>14.97035224107693</v>
       </c>
       <c r="P23" t="n">
-        <v>54.98566011878172</v>
+        <v>101.7645190207753</v>
       </c>
       <c r="Q23" t="n">
-        <v>20.06100782297175</v>
+        <v>46.12277457669957</v>
       </c>
       <c r="R23" t="n">
-        <v>106.5335248942628</v>
+        <v>151.4251838575015</v>
       </c>
       <c r="S23" t="n">
-        <v>56.0513552391992</v>
+        <v>27.28725896025668</v>
       </c>
       <c r="T23" t="n">
-        <v>40.26278917982734</v>
+        <v>41.56145032473683</v>
       </c>
       <c r="U23" t="n">
-        <v>44.14751035330609</v>
+        <v>64.00010435956423</v>
       </c>
       <c r="V23" t="n">
-        <v>39.31279788584367</v>
+        <v>101.171658171768</v>
       </c>
       <c r="W23" t="n">
-        <v>56.15031792062566</v>
+        <v>45.81965822206605</v>
       </c>
       <c r="X23" t="n">
-        <v>51.33717375193699</v>
+        <v>72.14155590033003</v>
       </c>
       <c r="Y23" t="n">
-        <v>55.51194896618198</v>
+        <v>97.95823758474108</v>
       </c>
       <c r="Z23" t="n">
-        <v>24.01697785670792</v>
+        <v>103.6743087312155</v>
       </c>
       <c r="AA23" t="n">
-        <v>39.37117656924555</v>
+        <v>21.7579558598905</v>
       </c>
       <c r="AB23" t="n">
-        <v>20.39145512115714</v>
+        <v>43.48613347828995</v>
       </c>
       <c r="AC23" t="n">
-        <v>65.70101737341238</v>
+        <v>14.35824353899338</v>
       </c>
       <c r="AD23" t="n">
-        <v>65.88795030813429</v>
+        <v>6.901216703976879</v>
       </c>
       <c r="AE23" t="n">
-        <v>17.48812299861374</v>
+        <v>72.19922497492206</v>
       </c>
       <c r="AF23" t="n">
-        <v>27.76348349416674</v>
+        <v>88.01512240800653</v>
       </c>
       <c r="AG23" t="n">
-        <v>26.61997010230279</v>
+        <v>27.64882184731657</v>
       </c>
       <c r="AH23" t="n">
-        <v>14.47888449290481</v>
+        <v>11.80302063783119</v>
       </c>
       <c r="AI23" t="n">
-        <v>23.35848144809343</v>
+        <v>22.31640123731859</v>
       </c>
       <c r="AJ23" t="n">
-        <v>33.55834549579144</v>
+        <v>40.52475215176621</v>
       </c>
       <c r="AK23" t="n">
-        <v>22.3613684428528</v>
+        <v>18.88140377867734</v>
       </c>
       <c r="AL23" t="n">
-        <v>25.637359814813</v>
+        <v>34.06703912499093</v>
       </c>
       <c r="AM23" t="n">
-        <v>22.95778343660101</v>
+        <v>33.93011502554241</v>
       </c>
       <c r="AN23" t="n">
-        <v>60.02100286530819</v>
+        <v>8.055711239447119</v>
       </c>
       <c r="AO23" t="n">
-        <v>8.108026687203711</v>
+        <v>14.24759250045978</v>
       </c>
       <c r="AP23" t="n">
-        <v>10.97936098271596</v>
+        <v>6.993807920273317</v>
       </c>
       <c r="AQ23" t="n">
-        <v>20.77436843009319</v>
+        <v>14.26693207998414</v>
       </c>
       <c r="AR23" t="n">
-        <v>29.4659426194107</v>
+        <v>8.065415821530324</v>
       </c>
       <c r="AS23" t="n">
-        <v>5.941135263926229</v>
+        <v>11.69430634153493</v>
       </c>
       <c r="AT23" t="n">
-        <v>42.26212490646358</v>
+        <v>27.39953795949755</v>
       </c>
       <c r="AU23" t="n">
-        <v>10.22894282712983</v>
+        <v>72.13031738746612</v>
       </c>
       <c r="AV23" t="n">
-        <v>21.99024669692058</v>
+        <v>43.31088363102679</v>
       </c>
       <c r="AW23" t="n">
-        <v>18.91257079372536</v>
+        <v>23.69039039478997</v>
       </c>
       <c r="AX23" t="n">
-        <v>22.42762908215334</v>
+        <v>58.99861626591849</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>14.12298014519999</v>
+        <v>2.192652637457313</v>
       </c>
       <c r="D24" t="n">
-        <v>1.490166857017587</v>
+        <v>5.95618982723285</v>
       </c>
       <c r="E24" t="n">
-        <v>19.97670871031493</v>
+        <v>4.718753365706175</v>
       </c>
       <c r="F24" t="n">
-        <v>6.811136019841864</v>
+        <v>2.660395678833698</v>
       </c>
       <c r="G24" t="n">
-        <v>3.404495145683027</v>
+        <v>0.9816261576721665</v>
       </c>
       <c r="H24" t="n">
-        <v>2.983163786635964</v>
+        <v>5.934560014460422</v>
       </c>
       <c r="I24" t="n">
-        <v>29.29563623006832</v>
+        <v>29.88453735066143</v>
       </c>
       <c r="J24" t="n">
-        <v>19.5199789828312</v>
+        <v>9.456376342866216</v>
       </c>
       <c r="K24" t="n">
-        <v>1.544057323249529</v>
+        <v>13.20975990325039</v>
       </c>
       <c r="L24" t="n">
-        <v>61.66325854410834</v>
+        <v>28.93406790550156</v>
       </c>
       <c r="M24" t="n">
-        <v>11.56000696541357</v>
+        <v>17.0114296616124</v>
       </c>
       <c r="N24" t="n">
-        <v>13.36098330755164</v>
+        <v>111.319989828886</v>
       </c>
       <c r="O24" t="n">
-        <v>39.35024637921845</v>
+        <v>12.60304119160141</v>
       </c>
       <c r="P24" t="n">
-        <v>33.33091270026652</v>
+        <v>6.422038129004759</v>
       </c>
       <c r="Q24" t="n">
-        <v>23.03843463009224</v>
+        <v>38.5925813868005</v>
       </c>
       <c r="R24" t="n">
-        <v>20.59424848143342</v>
+        <v>26.16618544948945</v>
       </c>
       <c r="S24" t="n">
-        <v>29.295376</v>
+        <v>84.81709770250968</v>
       </c>
       <c r="T24" t="n">
-        <v>13.23863186399459</v>
+        <v>26.75928373711258</v>
       </c>
       <c r="U24" t="n">
-        <v>36.69659833248708</v>
+        <v>13.1149437044304</v>
       </c>
       <c r="V24" t="n">
-        <v>12.55162974734186</v>
+        <v>13.41112298761697</v>
       </c>
       <c r="W24" t="n">
-        <v>23.84402897648042</v>
+        <v>37.84760669235981</v>
       </c>
       <c r="X24" t="n">
-        <v>9.99844124835429</v>
+        <v>18.78465850169837</v>
       </c>
       <c r="Y24" t="n">
-        <v>14.30074156927002</v>
+        <v>16.61084980394972</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.01676529643155</v>
+        <v>11.82739882444524</v>
       </c>
       <c r="AA24" t="n">
-        <v>14.63299444738958</v>
+        <v>15.66817618717136</v>
       </c>
       <c r="AB24" t="n">
-        <v>20.04682311803916</v>
+        <v>8.144591351499734</v>
       </c>
       <c r="AC24" t="n">
-        <v>13.64728518825117</v>
+        <v>14.37865018319915</v>
       </c>
       <c r="AD24" t="n">
-        <v>13.74873119587484</v>
+        <v>19.96173206574727</v>
       </c>
       <c r="AE24" t="n">
-        <v>4.812017069701279</v>
+        <v>13.25159481733355</v>
       </c>
       <c r="AF24" t="n">
-        <v>19.98888661760824</v>
+        <v>15.45816926685891</v>
       </c>
       <c r="AG24" t="n">
-        <v>7.581381039133549</v>
+        <v>6.130475239255772</v>
       </c>
       <c r="AH24" t="n">
-        <v>9.058176072796497</v>
+        <v>16.41925042705622</v>
       </c>
       <c r="AI24" t="n">
-        <v>8.418322285714286</v>
+        <v>8.950939183367261</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6.47697519394749</v>
+        <v>12.96687219874883</v>
       </c>
       <c r="AK24" t="n">
-        <v>7.361830827554761</v>
+        <v>2.610478371698622</v>
       </c>
       <c r="AL24" t="n">
-        <v>12.26035856741646</v>
+        <v>4.640176423452871</v>
       </c>
       <c r="AM24" t="n">
-        <v>2.586097890592867</v>
+        <v>4.274508595057177</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.701463131122378</v>
+        <v>2.046177575100946</v>
       </c>
       <c r="AO24" t="n">
-        <v>4.726845407542704</v>
+        <v>2.289653734213199</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.663853900495592</v>
+        <v>1.724553587155905</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3.847330445391338</v>
+        <v>4.759057084715187</v>
       </c>
       <c r="AR24" t="n">
-        <v>3.431428571428571</v>
+        <v>1.595554838646619</v>
       </c>
       <c r="AS24" t="n">
-        <v>4.462346702315267</v>
+        <v>2.050208024677115</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.124007791093663</v>
+        <v>0.6133870068952223</v>
       </c>
       <c r="AU24" t="n">
-        <v>2.297440100086939</v>
+        <v>2.485136092697366</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.01529595048557246</v>
+        <v>2.095193681151736</v>
       </c>
       <c r="AW24" t="n">
-        <v>1.539786920994732</v>
+        <v>1.341848300445838</v>
       </c>
       <c r="AX24" t="n">
-        <v>1.177384134087472</v>
+        <v>2.052703876906088</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>14.18</v>
+        <v>4.008350206783788</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>2.521739426570535</v>
       </c>
       <c r="E25" t="n">
-        <v>9.460000000000001</v>
+        <v>2.74946377194494</v>
       </c>
       <c r="F25" t="n">
-        <v>1.57</v>
+        <v>6.507003516966804</v>
       </c>
       <c r="G25" t="n">
-        <v>15.03</v>
+        <v>20.60463436399199</v>
       </c>
       <c r="H25" t="n">
-        <v>61.16</v>
+        <v>3.773692197522977</v>
       </c>
       <c r="I25" t="n">
-        <v>16.04</v>
+        <v>22.27059490457327</v>
       </c>
       <c r="J25" t="n">
-        <v>26.17</v>
+        <v>77.83779359428408</v>
       </c>
       <c r="K25" t="n">
-        <v>12</v>
+        <v>97.32870429718569</v>
       </c>
       <c r="L25" t="n">
-        <v>15.78038919471566</v>
+        <v>13.19306922016606</v>
       </c>
       <c r="M25" t="n">
-        <v>56.47</v>
+        <v>22.00250441437356</v>
       </c>
       <c r="N25" t="n">
-        <v>30.07</v>
+        <v>42.82012374733551</v>
       </c>
       <c r="O25" t="n">
-        <v>67.03</v>
+        <v>20.43224215185369</v>
       </c>
       <c r="P25" t="n">
-        <v>112.61</v>
+        <v>43.11658736694604</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.52</v>
+        <v>18.32236748575065</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>18.6324141410581</v>
       </c>
       <c r="S25" t="n">
-        <v>16.23</v>
+        <v>19.63333925796139</v>
       </c>
       <c r="T25" t="n">
-        <v>22.81</v>
+        <v>56.92117426844909</v>
       </c>
       <c r="U25" t="n">
-        <v>17.71</v>
+        <v>15.67164882512992</v>
       </c>
       <c r="V25" t="n">
-        <v>14.06</v>
+        <v>7.365411861184624</v>
       </c>
       <c r="W25" t="n">
-        <v>9.33</v>
+        <v>5.995994632454367</v>
       </c>
       <c r="X25" t="n">
-        <v>14.77</v>
+        <v>71.75940869074772</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.03</v>
+        <v>13.06606689792005</v>
       </c>
       <c r="Z25" t="n">
-        <v>9.33</v>
+        <v>75.64948425379777</v>
       </c>
       <c r="AA25" t="n">
-        <v>32.06</v>
+        <v>4.088308530553004</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.68</v>
+        <v>5.828810034736668</v>
       </c>
       <c r="AC25" t="n">
-        <v>17.68857464934679</v>
+        <v>33.13983774978134</v>
       </c>
       <c r="AD25" t="n">
-        <v>5.2</v>
+        <v>6.715679749720523</v>
       </c>
       <c r="AE25" t="n">
-        <v>3.5</v>
+        <v>7.601901426895654</v>
       </c>
       <c r="AF25" t="n">
-        <v>18.13</v>
+        <v>4.962640879735059</v>
       </c>
       <c r="AG25" t="n">
-        <v>45.35</v>
+        <v>2.072491865650883</v>
       </c>
       <c r="AH25" t="n">
-        <v>2</v>
+        <v>5.200045058529109</v>
       </c>
       <c r="AI25" t="n">
-        <v>1</v>
+        <v>14.51013620133848</v>
       </c>
       <c r="AJ25" t="n">
-        <v>2.23</v>
+        <v>20.91177324257333</v>
       </c>
       <c r="AK25" t="n">
-        <v>3.776809016999999</v>
+        <v>8.895686822506232</v>
       </c>
       <c r="AL25" t="n">
-        <v>38.05</v>
+        <v>15.26601044698385</v>
       </c>
       <c r="AM25" t="n">
-        <v>1</v>
+        <v>3.134638256635521</v>
       </c>
       <c r="AN25" t="n">
-        <v>1.12</v>
+        <v>4.232547651758899</v>
       </c>
       <c r="AO25" t="n">
-        <v>3.06</v>
+        <v>143.7569430946966</v>
       </c>
       <c r="AP25" t="n">
-        <v>4.22</v>
+        <v>2.407035029186129</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2.33</v>
+        <v>7.971341336885363</v>
       </c>
       <c r="AR25" t="n">
-        <v>3.77</v>
+        <v>3.299025956108671</v>
       </c>
       <c r="AS25" t="n">
-        <v>3.56</v>
+        <v>16.94073579199548</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.32</v>
+        <v>3.275928661717915</v>
       </c>
       <c r="AU25" t="n">
-        <v>3.777217896571428</v>
+        <v>8.698552877683781</v>
       </c>
       <c r="AV25" t="n">
-        <v>3.47</v>
+        <v>0.901083275223963</v>
       </c>
       <c r="AW25" t="n">
-        <v>1</v>
+        <v>4.101591221819203</v>
       </c>
       <c r="AX25" t="n">
-        <v>3.91</v>
+        <v>15.23352915606825</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>20.22171076881259</v>
+        <v>15.73747671525536</v>
       </c>
       <c r="D26" t="n">
-        <v>10.31015005180873</v>
+        <v>25.16676964822866</v>
       </c>
       <c r="E26" t="n">
-        <v>16.09156448017306</v>
+        <v>23.82344988551476</v>
       </c>
       <c r="F26" t="n">
-        <v>13.80028620786185</v>
+        <v>15.52709909073983</v>
       </c>
       <c r="G26" t="n">
-        <v>15.58916960669116</v>
+        <v>23.74103105136904</v>
       </c>
       <c r="H26" t="n">
-        <v>11.1627249169225</v>
+        <v>13.33683370342959</v>
       </c>
       <c r="I26" t="n">
-        <v>36.01110193552638</v>
+        <v>48.06749370506098</v>
       </c>
       <c r="J26" t="n">
-        <v>21.11629254885083</v>
+        <v>20.29636310168156</v>
       </c>
       <c r="K26" t="n">
-        <v>105.7935000741623</v>
+        <v>50.93076856085217</v>
       </c>
       <c r="L26" t="n">
-        <v>40.73249641439549</v>
+        <v>26.26463779969043</v>
       </c>
       <c r="M26" t="n">
-        <v>33.26651815690624</v>
+        <v>76.38196025189752</v>
       </c>
       <c r="N26" t="n">
-        <v>53.58273729361937</v>
+        <v>29.97332582999097</v>
       </c>
       <c r="O26" t="n">
-        <v>78.15839591144318</v>
+        <v>106.2799924284088</v>
       </c>
       <c r="P26" t="n">
-        <v>61.08874178045991</v>
+        <v>71.10570071315624</v>
       </c>
       <c r="Q26" t="n">
-        <v>68.21022962496281</v>
+        <v>44.03289417517333</v>
       </c>
       <c r="R26" t="n">
-        <v>38.20404926186634</v>
+        <v>24.48840765371604</v>
       </c>
       <c r="S26" t="n">
-        <v>22.99135547561376</v>
+        <v>97.9762981736978</v>
       </c>
       <c r="T26" t="n">
-        <v>39.77047877312653</v>
+        <v>65.70445097088279</v>
       </c>
       <c r="U26" t="n">
-        <v>40.16198119796541</v>
+        <v>60.13535571077831</v>
       </c>
       <c r="V26" t="n">
-        <v>62.52701941898756</v>
+        <v>16.21966324214511</v>
       </c>
       <c r="W26" t="n">
-        <v>46.92627174375601</v>
+        <v>88.38923974684374</v>
       </c>
       <c r="X26" t="n">
-        <v>33.30035292706251</v>
+        <v>75.82163626874893</v>
       </c>
       <c r="Y26" t="n">
-        <v>64.23576949552148</v>
+        <v>104.5873844729056</v>
       </c>
       <c r="Z26" t="n">
-        <v>93.52913050131066</v>
+        <v>71.78012972413124</v>
       </c>
       <c r="AA26" t="n">
-        <v>153.6368251086776</v>
+        <v>65.89872343722648</v>
       </c>
       <c r="AB26" t="n">
-        <v>62.57070276391228</v>
+        <v>54.78986026121798</v>
       </c>
       <c r="AC26" t="n">
-        <v>107.4351257569969</v>
+        <v>80.21206743035698</v>
       </c>
       <c r="AD26" t="n">
-        <v>132.1242166635033</v>
+        <v>69.14206975184004</v>
       </c>
       <c r="AE26" t="n">
-        <v>114.781056550035</v>
+        <v>180.7516814719749</v>
       </c>
       <c r="AF26" t="n">
-        <v>136.4778094375968</v>
+        <v>118.9373050764281</v>
       </c>
       <c r="AG26" t="n">
-        <v>126.4721469572554</v>
+        <v>354.6501534069472</v>
       </c>
       <c r="AH26" t="n">
-        <v>77.73662393114864</v>
+        <v>40.14222746272556</v>
       </c>
       <c r="AI26" t="n">
-        <v>89.38831272435789</v>
+        <v>85.62454046821044</v>
       </c>
       <c r="AJ26" t="n">
-        <v>64.68571488722333</v>
+        <v>68.2822999220711</v>
       </c>
       <c r="AK26" t="n">
-        <v>121.8412465259834</v>
+        <v>104.8218235146902</v>
       </c>
       <c r="AL26" t="n">
-        <v>36.53404477196508</v>
+        <v>52.70685011184742</v>
       </c>
       <c r="AM26" t="n">
-        <v>71.15766277987991</v>
+        <v>47.15071477285787</v>
       </c>
       <c r="AN26" t="n">
-        <v>28.35027797646095</v>
+        <v>24.41707336098101</v>
       </c>
       <c r="AO26" t="n">
-        <v>18.20160157560657</v>
+        <v>26.12844252668643</v>
       </c>
       <c r="AP26" t="n">
-        <v>25.32314219842482</v>
+        <v>34.55336667927819</v>
       </c>
       <c r="AQ26" t="n">
-        <v>21.61935595259801</v>
+        <v>10.94127732177141</v>
       </c>
       <c r="AR26" t="n">
-        <v>23.05229035210215</v>
+        <v>17.21245248365324</v>
       </c>
       <c r="AS26" t="n">
-        <v>19.14988534354293</v>
+        <v>23.27262628423218</v>
       </c>
       <c r="AT26" t="n">
-        <v>29.91878798456741</v>
+        <v>16.54930543246328</v>
       </c>
       <c r="AU26" t="n">
-        <v>20.81983430253671</v>
+        <v>24.12020805725921</v>
       </c>
       <c r="AV26" t="n">
-        <v>25.39390644338883</v>
+        <v>26.68491117832023</v>
       </c>
       <c r="AW26" t="n">
-        <v>15.02748856652352</v>
+        <v>16.96152649627125</v>
       </c>
       <c r="AX26" t="n">
-        <v>43.23633865702723</v>
+        <v>15.70351896979199</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>4.379463081268099</v>
+        <v>1.255667917886609</v>
       </c>
       <c r="D27" t="n">
-        <v>2.579764631100608</v>
+        <v>0.7663028296193084</v>
       </c>
       <c r="E27" t="n">
-        <v>2.434769520225776</v>
+        <v>0.8960402146797067</v>
       </c>
       <c r="F27" t="n">
-        <v>2.873546827418413</v>
+        <v>5.111013473633588</v>
       </c>
       <c r="G27" t="n">
-        <v>1.55013012422024</v>
+        <v>0.7366475773068335</v>
       </c>
       <c r="H27" t="n">
-        <v>3.41724877145337</v>
+        <v>1.008560833988635</v>
       </c>
       <c r="I27" t="n">
-        <v>2.530976319283829</v>
+        <v>3.623600579785279</v>
       </c>
       <c r="J27" t="n">
-        <v>5.28538358417292</v>
+        <v>4.364102381571881</v>
       </c>
       <c r="K27" t="n">
-        <v>1.338900418301415</v>
+        <v>2.491230318737722</v>
       </c>
       <c r="L27" t="n">
-        <v>3.560305767226336</v>
+        <v>0.6678739240450449</v>
       </c>
       <c r="M27" t="n">
-        <v>5.294446262424637</v>
+        <v>9.826839304418908</v>
       </c>
       <c r="N27" t="n">
-        <v>4.645250169748682</v>
+        <v>1.854711093387115</v>
       </c>
       <c r="O27" t="n">
-        <v>5.694326860633698</v>
+        <v>2.234940823198306</v>
       </c>
       <c r="P27" t="n">
-        <v>5.402168669946061</v>
+        <v>6.649326442778271</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.22403703210647</v>
+        <v>3.615567044862688</v>
       </c>
       <c r="R27" t="n">
-        <v>2.607976867056926</v>
+        <v>2.158445805560398</v>
       </c>
       <c r="S27" t="n">
-        <v>2.761747870442492</v>
+        <v>4.638277216610888</v>
       </c>
       <c r="T27" t="n">
-        <v>2.475579041246287</v>
+        <v>3.20302313453017</v>
       </c>
       <c r="U27" t="n">
-        <v>6.911227505886315</v>
+        <v>3.439898226555153</v>
       </c>
       <c r="V27" t="n">
-        <v>2.354345022657794</v>
+        <v>6.047959965379573</v>
       </c>
       <c r="W27" t="n">
-        <v>4.101519821428258</v>
+        <v>2.292231478566787</v>
       </c>
       <c r="X27" t="n">
-        <v>4.960887049415702</v>
+        <v>1.201694278067978</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.126463061362672</v>
+        <v>3.017477506050206</v>
       </c>
       <c r="Z27" t="n">
-        <v>5.531648479853871</v>
+        <v>5.324695280982436</v>
       </c>
       <c r="AA27" t="n">
-        <v>4.355578330967677</v>
+        <v>1.097435199811003</v>
       </c>
       <c r="AB27" t="n">
-        <v>4.328492000000001</v>
+        <v>4.786067676973063</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.137018741670428</v>
+        <v>4.754352952476381</v>
       </c>
       <c r="AD27" t="n">
-        <v>9.231835837004327</v>
+        <v>2.097722620452105</v>
       </c>
       <c r="AE27" t="n">
-        <v>7.165779389408102</v>
+        <v>4.664066206184774</v>
       </c>
       <c r="AF27" t="n">
-        <v>4.916751182006407</v>
+        <v>4.451178529090494</v>
       </c>
       <c r="AG27" t="n">
-        <v>4.171434087456625</v>
+        <v>3.770552426617023</v>
       </c>
       <c r="AH27" t="n">
-        <v>4.910802223165216</v>
+        <v>2.511916677937246</v>
       </c>
       <c r="AI27" t="n">
-        <v>5.189543853508227</v>
+        <v>4.261894618019066</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1.939823656152086</v>
+        <v>3.872493530839598</v>
       </c>
       <c r="AK27" t="n">
-        <v>5.087920249347619</v>
+        <v>2.284125552730299</v>
       </c>
       <c r="AL27" t="n">
-        <v>5.413933415693696</v>
+        <v>3.316297799883467</v>
       </c>
       <c r="AM27" t="n">
-        <v>3.618999135355858</v>
+        <v>9.643181764280044</v>
       </c>
       <c r="AN27" t="n">
-        <v>1.269465624934841</v>
+        <v>2.977104958282896</v>
       </c>
       <c r="AO27" t="n">
-        <v>7.2029418348254</v>
+        <v>3.126024802672192</v>
       </c>
       <c r="AP27" t="n">
-        <v>5.225427586206914</v>
+        <v>2.578220422542471</v>
       </c>
       <c r="AQ27" t="n">
-        <v>4.130900854488096</v>
+        <v>1.772559825038607</v>
       </c>
       <c r="AR27" t="n">
-        <v>3.400346020761246</v>
+        <v>8.249294424059441</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.184438040345821</v>
+        <v>1.532041866925442</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.711815561959654</v>
+        <v>5.326087700671414</v>
       </c>
       <c r="AU27" t="n">
-        <v>2.790096610752687</v>
+        <v>2.262847832873441</v>
       </c>
       <c r="AV27" t="n">
-        <v>3.183246011529704</v>
+        <v>2.87548426195336</v>
       </c>
       <c r="AW27" t="n">
-        <v>3.315731802765459</v>
+        <v>2.13357014592601</v>
       </c>
       <c r="AX27" t="n">
-        <v>5.10914061179093</v>
+        <v>2.017704173403504</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>9.283932501834187</v>
+        <v>5.525279042406096</v>
       </c>
       <c r="D28" t="n">
-        <v>22.19424369656672</v>
+        <v>16.35774522906637</v>
       </c>
       <c r="E28" t="n">
-        <v>8.563554706163401</v>
+        <v>14.5832182341795</v>
       </c>
       <c r="F28" t="n">
-        <v>12.95510311309602</v>
+        <v>15.44149214349126</v>
       </c>
       <c r="G28" t="n">
-        <v>13.15177399241581</v>
+        <v>14.48393618832016</v>
       </c>
       <c r="H28" t="n">
-        <v>25.06687398568986</v>
+        <v>92.95246371035695</v>
       </c>
       <c r="I28" t="n">
-        <v>10.56440263405456</v>
+        <v>10.65839913246828</v>
       </c>
       <c r="J28" t="n">
-        <v>9.307403685848042</v>
+        <v>103.0992244625729</v>
       </c>
       <c r="K28" t="n">
-        <v>15.21367149340291</v>
+        <v>150.7534685014145</v>
       </c>
       <c r="L28" t="n">
-        <v>74.09335544910522</v>
+        <v>35.71224742493269</v>
       </c>
       <c r="M28" t="n">
-        <v>71.61156778053365</v>
+        <v>18.16295482070337</v>
       </c>
       <c r="N28" t="n">
-        <v>170.3506195939983</v>
+        <v>70.16640809457313</v>
       </c>
       <c r="O28" t="n">
-        <v>72.57364339841843</v>
+        <v>34.21572489109867</v>
       </c>
       <c r="P28" t="n">
-        <v>103.9756737034561</v>
+        <v>44.92513192974442</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.52900583023859</v>
+        <v>11.61728727871543</v>
       </c>
       <c r="R28" t="n">
-        <v>33.55949186220446</v>
+        <v>75.77030456729297</v>
       </c>
       <c r="S28" t="n">
-        <v>17.85742600598603</v>
+        <v>136.7160899918663</v>
       </c>
       <c r="T28" t="n">
-        <v>42.14743067142586</v>
+        <v>36.10961585374944</v>
       </c>
       <c r="U28" t="n">
-        <v>45.23835730641598</v>
+        <v>52.21453313847513</v>
       </c>
       <c r="V28" t="n">
-        <v>93.26253665230672</v>
+        <v>56.09679172234121</v>
       </c>
       <c r="W28" t="n">
-        <v>60.52839108405562</v>
+        <v>102.7598961286008</v>
       </c>
       <c r="X28" t="n">
-        <v>88.77761217207929</v>
+        <v>80.89351814977942</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.55745290547689</v>
+        <v>62.84028079354417</v>
       </c>
       <c r="Z28" t="n">
-        <v>60.58923949308065</v>
+        <v>80.18095551820055</v>
       </c>
       <c r="AA28" t="n">
-        <v>118.8628397651875</v>
+        <v>33.45368711995989</v>
       </c>
       <c r="AB28" t="n">
-        <v>86.61082206804768</v>
+        <v>61.44528316135715</v>
       </c>
       <c r="AC28" t="n">
-        <v>124.2659767507797</v>
+        <v>65.13090376635677</v>
       </c>
       <c r="AD28" t="n">
-        <v>40.3074611997249</v>
+        <v>65.80660800421073</v>
       </c>
       <c r="AE28" t="n">
-        <v>84.5578164186591</v>
+        <v>71.70801369802012</v>
       </c>
       <c r="AF28" t="n">
-        <v>60.43215448739296</v>
+        <v>63.66798938545175</v>
       </c>
       <c r="AG28" t="n">
-        <v>45.50200344717732</v>
+        <v>45.97560212572763</v>
       </c>
       <c r="AH28" t="n">
-        <v>54.9349276597507</v>
+        <v>67.64052131105349</v>
       </c>
       <c r="AI28" t="n">
-        <v>31.44871861440102</v>
+        <v>35.17070384498295</v>
       </c>
       <c r="AJ28" t="n">
-        <v>28.05413892839893</v>
+        <v>133.8338816055715</v>
       </c>
       <c r="AK28" t="n">
-        <v>80.79447421437089</v>
+        <v>47.09372006060934</v>
       </c>
       <c r="AL28" t="n">
-        <v>31.11883990323875</v>
+        <v>47.92709713495489</v>
       </c>
       <c r="AM28" t="n">
-        <v>34.89446248984427</v>
+        <v>24.89376664749589</v>
       </c>
       <c r="AN28" t="n">
-        <v>21.8797537105981</v>
+        <v>16.09880553552489</v>
       </c>
       <c r="AO28" t="n">
-        <v>23.35809224821764</v>
+        <v>47.89435690721455</v>
       </c>
       <c r="AP28" t="n">
-        <v>17.99227134357979</v>
+        <v>13.25347124773195</v>
       </c>
       <c r="AQ28" t="n">
-        <v>28.99041350047831</v>
+        <v>17.85401023922704</v>
       </c>
       <c r="AR28" t="n">
-        <v>12.57553209341715</v>
+        <v>20.21574705502519</v>
       </c>
       <c r="AS28" t="n">
-        <v>22.07703589063987</v>
+        <v>15.43998961559594</v>
       </c>
       <c r="AT28" t="n">
-        <v>19.5332820731881</v>
+        <v>13.89937213075527</v>
       </c>
       <c r="AU28" t="n">
-        <v>5.958476555685106</v>
+        <v>8.813674031624329</v>
       </c>
       <c r="AV28" t="n">
-        <v>8.661619433295755</v>
+        <v>11.51329809834872</v>
       </c>
       <c r="AW28" t="n">
-        <v>51.20315244068587</v>
+        <v>19.35055615178738</v>
       </c>
       <c r="AX28" t="n">
-        <v>8.63465234067006</v>
+        <v>9.637790551902713</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>20.16921628481221</v>
+        <v>19.75861550777155</v>
       </c>
       <c r="D29" t="n">
-        <v>7.01166393912771</v>
+        <v>28.4633951536836</v>
       </c>
       <c r="E29" t="n">
-        <v>31.22006179524342</v>
+        <v>13.00804819514004</v>
       </c>
       <c r="F29" t="n">
-        <v>22.47381288299894</v>
+        <v>5.242261954009146</v>
       </c>
       <c r="G29" t="n">
-        <v>8.212106390349671</v>
+        <v>27.67779895912557</v>
       </c>
       <c r="H29" t="n">
-        <v>17.40173899256347</v>
+        <v>35.27096021132943</v>
       </c>
       <c r="I29" t="n">
-        <v>49.7017151869143</v>
+        <v>64.54026417347038</v>
       </c>
       <c r="J29" t="n">
-        <v>44.70095920652794</v>
+        <v>103.0642375713169</v>
       </c>
       <c r="K29" t="n">
-        <v>23.89408716542725</v>
+        <v>46.67264477242316</v>
       </c>
       <c r="L29" t="n">
-        <v>33.30530644832229</v>
+        <v>16.79081667710029</v>
       </c>
       <c r="M29" t="n">
-        <v>10.4782918304891</v>
+        <v>78.26865590693021</v>
       </c>
       <c r="N29" t="n">
-        <v>10.3060498468065</v>
+        <v>215.376641699087</v>
       </c>
       <c r="O29" t="n">
-        <v>8.604909867293348</v>
+        <v>19.52362803576726</v>
       </c>
       <c r="P29" t="n">
-        <v>103.1267046231351</v>
+        <v>4.439679188563923</v>
       </c>
       <c r="Q29" t="n">
-        <v>39.40158332650678</v>
+        <v>139.1346757732382</v>
       </c>
       <c r="R29" t="n">
-        <v>208.4532297005649</v>
+        <v>11.50363850713386</v>
       </c>
       <c r="S29" t="n">
-        <v>65.14845801366351</v>
+        <v>21.7357715827832</v>
       </c>
       <c r="T29" t="n">
-        <v>25.29989071329677</v>
+        <v>30.68006006050847</v>
       </c>
       <c r="U29" t="n">
-        <v>47.12402770313643</v>
+        <v>54.19464879768727</v>
       </c>
       <c r="V29" t="n">
-        <v>32.6502942421196</v>
+        <v>93.17155721976047</v>
       </c>
       <c r="W29" t="n">
-        <v>55.95294280630235</v>
+        <v>127.4688799851515</v>
       </c>
       <c r="X29" t="n">
-        <v>96.05463515292971</v>
+        <v>80.73958131108286</v>
       </c>
       <c r="Y29" t="n">
-        <v>55.51194896618198</v>
+        <v>27.12173977041111</v>
       </c>
       <c r="Z29" t="n">
-        <v>14.77361838268192</v>
+        <v>26.16857501428071</v>
       </c>
       <c r="AA29" t="n">
-        <v>42.94594754637924</v>
+        <v>54.51427370942696</v>
       </c>
       <c r="AB29" t="n">
-        <v>25.5991208181616</v>
+        <v>119.064411638256</v>
       </c>
       <c r="AC29" t="n">
-        <v>73.03063471378897</v>
+        <v>14.56374228937466</v>
       </c>
       <c r="AD29" t="n">
-        <v>33.3180665014729</v>
+        <v>26.29449923281695</v>
       </c>
       <c r="AE29" t="n">
-        <v>22.54916197203418</v>
+        <v>11.56969336301942</v>
       </c>
       <c r="AF29" t="n">
-        <v>20.9234211904756</v>
+        <v>16.19847797760626</v>
       </c>
       <c r="AG29" t="n">
-        <v>17.92028228046355</v>
+        <v>26.5013749490658</v>
       </c>
       <c r="AH29" t="n">
-        <v>30.6266586180495</v>
+        <v>4.858297476357942</v>
       </c>
       <c r="AI29" t="n">
-        <v>22.42117673829648</v>
+        <v>4.766260744874221</v>
       </c>
       <c r="AJ29" t="n">
-        <v>5.949280481831149</v>
+        <v>24.95321993196075</v>
       </c>
       <c r="AK29" t="n">
-        <v>26.23717935741955</v>
+        <v>29.62254407562757</v>
       </c>
       <c r="AL29" t="n">
-        <v>24.70655947586634</v>
+        <v>32.25499966941712</v>
       </c>
       <c r="AM29" t="n">
-        <v>30.73603143355355</v>
+        <v>7.719995242969437</v>
       </c>
       <c r="AN29" t="n">
-        <v>41.29558060249211</v>
+        <v>7.754878044736879</v>
       </c>
       <c r="AO29" t="n">
-        <v>23.27827482186657</v>
+        <v>53.37943381723026</v>
       </c>
       <c r="AP29" t="n">
-        <v>28.28108884709693</v>
+        <v>16.25448702013986</v>
       </c>
       <c r="AQ29" t="n">
-        <v>30.98935323414176</v>
+        <v>25.46871333960078</v>
       </c>
       <c r="AR29" t="n">
-        <v>46.20937239602796</v>
+        <v>10.69888155594362</v>
       </c>
       <c r="AS29" t="n">
-        <v>27.50835767479528</v>
+        <v>19.57486956918399</v>
       </c>
       <c r="AT29" t="n">
-        <v>41.02590239412488</v>
+        <v>9.711305657872144</v>
       </c>
       <c r="AU29" t="n">
-        <v>17.21431020762788</v>
+        <v>64.59073522702562</v>
       </c>
       <c r="AV29" t="n">
-        <v>33.30700396661699</v>
+        <v>24.82145010952766</v>
       </c>
       <c r="AW29" t="n">
-        <v>33.83106230265686</v>
+        <v>53.54053079918067</v>
       </c>
       <c r="AX29" t="n">
-        <v>7.20844840748782</v>
+        <v>13.86618547330023</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>4.701356017075927</v>
+        <v>6.073423039058533</v>
       </c>
       <c r="D30" t="n">
-        <v>2.315135263165778</v>
+        <v>1.80979195178842</v>
       </c>
       <c r="E30" t="n">
-        <v>4.699641029595497</v>
+        <v>2.19872711764198</v>
       </c>
       <c r="F30" t="n">
-        <v>9.846565222739583</v>
+        <v>3.816138808620493</v>
       </c>
       <c r="G30" t="n">
-        <v>6.051370044858343</v>
+        <v>3.228005435071428</v>
       </c>
       <c r="H30" t="n">
-        <v>5.452432171018202</v>
+        <v>16.25093000936347</v>
       </c>
       <c r="I30" t="n">
-        <v>48.08331068827936</v>
+        <v>9.179777922230052</v>
       </c>
       <c r="J30" t="n">
-        <v>4.296042557843407</v>
+        <v>10.18900203708067</v>
       </c>
       <c r="K30" t="n">
-        <v>13.57247134631345</v>
+        <v>26.90216634905543</v>
       </c>
       <c r="L30" t="n">
-        <v>18.71769513501042</v>
+        <v>29.36254902421607</v>
       </c>
       <c r="M30" t="n">
-        <v>16.8102560345256</v>
+        <v>9.306638895032277</v>
       </c>
       <c r="N30" t="n">
-        <v>6.842560013037252</v>
+        <v>20.33182441438932</v>
       </c>
       <c r="O30" t="n">
-        <v>22.30447661844807</v>
+        <v>27.31430156162403</v>
       </c>
       <c r="P30" t="n">
-        <v>28.29115411026791</v>
+        <v>12.32265427371921</v>
       </c>
       <c r="Q30" t="n">
-        <v>69.38516491964978</v>
+        <v>32.31111206460294</v>
       </c>
       <c r="R30" t="n">
-        <v>24.2409250098347</v>
+        <v>26.15725434044779</v>
       </c>
       <c r="S30" t="n">
-        <v>23.0479650910612</v>
+        <v>12.37355461283808</v>
       </c>
       <c r="T30" t="n">
-        <v>12.14255612110043</v>
+        <v>19.23753947124686</v>
       </c>
       <c r="U30" t="n">
-        <v>21.85082726346682</v>
+        <v>23.67585196030016</v>
       </c>
       <c r="V30" t="n">
-        <v>14.87481959964764</v>
+        <v>15.19627628866855</v>
       </c>
       <c r="W30" t="n">
-        <v>45.14214354060201</v>
+        <v>28.90859504801149</v>
       </c>
       <c r="X30" t="n">
-        <v>7.921990170682331</v>
+        <v>15.63852512085379</v>
       </c>
       <c r="Y30" t="n">
-        <v>15.05080651841219</v>
+        <v>23.19609524123848</v>
       </c>
       <c r="Z30" t="n">
-        <v>10.80675</v>
+        <v>17.21868922487631</v>
       </c>
       <c r="AA30" t="n">
-        <v>13.31327371139133</v>
+        <v>11.51491890246645</v>
       </c>
       <c r="AB30" t="n">
-        <v>18.6045019886513</v>
+        <v>21.7569263318722</v>
       </c>
       <c r="AC30" t="n">
-        <v>19.89607236166309</v>
+        <v>15.78488338209718</v>
       </c>
       <c r="AD30" t="n">
-        <v>13.52973879174568</v>
+        <v>19.60448696338581</v>
       </c>
       <c r="AE30" t="n">
-        <v>7.736054725873197</v>
+        <v>11.12263898792984</v>
       </c>
       <c r="AF30" t="n">
-        <v>16.01253220749082</v>
+        <v>17.1469703537073</v>
       </c>
       <c r="AG30" t="n">
-        <v>2.691176431307194</v>
+        <v>4.05517080214269</v>
       </c>
       <c r="AH30" t="n">
-        <v>13.41577477120645</v>
+        <v>23.10800909461036</v>
       </c>
       <c r="AI30" t="n">
-        <v>17.77913501066921</v>
+        <v>7.694235649553099</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14.07384259976392</v>
+        <v>18.00298368894405</v>
       </c>
       <c r="AK30" t="n">
-        <v>4.761822167487287</v>
+        <v>5.139016433638204</v>
       </c>
       <c r="AL30" t="n">
-        <v>24.3716160416801</v>
+        <v>4.513674905763207</v>
       </c>
       <c r="AM30" t="n">
-        <v>4.171379566407334</v>
+        <v>3.399554926921964</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.241588716090297</v>
+        <v>8.076761625069667</v>
       </c>
       <c r="AO30" t="n">
-        <v>2.151701901265018</v>
+        <v>3.94156412887734</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.91103119892413</v>
+        <v>3.676454161325232</v>
       </c>
       <c r="AQ30" t="n">
-        <v>4.859520302983938</v>
+        <v>8.136462209126757</v>
       </c>
       <c r="AR30" t="n">
-        <v>1.717663838680855</v>
+        <v>1.994869253755885</v>
       </c>
       <c r="AS30" t="n">
-        <v>3.81893977291928</v>
+        <v>3.4250194452108</v>
       </c>
       <c r="AT30" t="n">
-        <v>10.60312831467819</v>
+        <v>8.14697201067516</v>
       </c>
       <c r="AU30" t="n">
-        <v>1.37997982957452</v>
+        <v>5.220840956691523</v>
       </c>
       <c r="AV30" t="n">
-        <v>1.169544429205383</v>
+        <v>1.034412367780316</v>
       </c>
       <c r="AW30" t="n">
-        <v>3.198860586858269</v>
+        <v>0.7994517609487043</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.1029224622951599</v>
+        <v>9.558872787522548</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>7.37</v>
+        <v>5.838103954208499</v>
       </c>
       <c r="D31" t="n">
-        <v>21.38</v>
+        <v>9.713743710736436</v>
       </c>
       <c r="E31" t="n">
-        <v>19.81</v>
+        <v>4.392554465610329</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>6.457783549182558</v>
       </c>
       <c r="G31" t="n">
-        <v>7.62</v>
+        <v>1.63096590421882</v>
       </c>
       <c r="H31" t="n">
-        <v>49.95</v>
+        <v>1.580518629047881</v>
       </c>
       <c r="I31" t="n">
-        <v>1.77</v>
+        <v>12.63478466394727</v>
       </c>
       <c r="J31" t="n">
-        <v>8.65</v>
+        <v>6.711913647763841</v>
       </c>
       <c r="K31" t="n">
-        <v>30.63</v>
+        <v>3.552469552463004</v>
       </c>
       <c r="L31" t="n">
-        <v>18.03</v>
+        <v>21.49431651142967</v>
       </c>
       <c r="M31" t="n">
-        <v>24.82</v>
+        <v>9.039454577610599</v>
       </c>
       <c r="N31" t="n">
-        <v>52.6</v>
+        <v>9.198222337989277</v>
       </c>
       <c r="O31" t="n">
-        <v>18</v>
+        <v>17.7522289375985</v>
       </c>
       <c r="P31" t="n">
-        <v>32.23</v>
+        <v>266.6613862959329</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.94</v>
+        <v>15.65606434072898</v>
       </c>
       <c r="R31" t="n">
-        <v>27.74</v>
+        <v>41.22711397444797</v>
       </c>
       <c r="S31" t="n">
-        <v>18.48</v>
+        <v>20.36671839644178</v>
       </c>
       <c r="T31" t="n">
-        <v>20.55</v>
+        <v>12.03262404644803</v>
       </c>
       <c r="U31" t="n">
-        <v>40.1</v>
+        <v>19.17176441125085</v>
       </c>
       <c r="V31" t="n">
-        <v>1</v>
+        <v>24.59662361258365</v>
       </c>
       <c r="W31" t="n">
-        <v>4.43</v>
+        <v>5.979879929485207</v>
       </c>
       <c r="X31" t="n">
-        <v>14.5</v>
+        <v>11.37730713940875</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.67</v>
+        <v>5.574394120677842</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.1</v>
+        <v>15.79625480191265</v>
       </c>
       <c r="AA31" t="n">
-        <v>5.63</v>
+        <v>26.34825133015337</v>
       </c>
       <c r="AB31" t="n">
-        <v>7.81</v>
+        <v>10.41226213689452</v>
       </c>
       <c r="AC31" t="n">
-        <v>14.32</v>
+        <v>2.465362882397524</v>
       </c>
       <c r="AD31" t="n">
-        <v>27.52</v>
+        <v>17.08311027012804</v>
       </c>
       <c r="AE31" t="n">
-        <v>53.99</v>
+        <v>2.199648358421763</v>
       </c>
       <c r="AF31" t="n">
-        <v>1.87</v>
+        <v>10.98842304919903</v>
       </c>
       <c r="AG31" t="n">
-        <v>4.37</v>
+        <v>5.713350247986908</v>
       </c>
       <c r="AH31" t="n">
-        <v>1.975598492500574</v>
+        <v>4.976503723367682</v>
       </c>
       <c r="AI31" t="n">
-        <v>2.47</v>
+        <v>15.63612220164667</v>
       </c>
       <c r="AJ31" t="n">
-        <v>19.68</v>
+        <v>2.197912685451833</v>
       </c>
       <c r="AK31" t="n">
-        <v>6.15</v>
+        <v>1.659634482626973</v>
       </c>
       <c r="AL31" t="n">
-        <v>11.22</v>
+        <v>21.49844289695264</v>
       </c>
       <c r="AM31" t="n">
-        <v>22.74</v>
+        <v>14.65609198414277</v>
       </c>
       <c r="AN31" t="n">
-        <v>20.96</v>
+        <v>32.17431080285104</v>
       </c>
       <c r="AO31" t="n">
-        <v>2.85</v>
+        <v>20.7492259473994</v>
       </c>
       <c r="AP31" t="n">
-        <v>12.89</v>
+        <v>3.0356094310958</v>
       </c>
       <c r="AQ31" t="n">
-        <v>6.31</v>
+        <v>5.23367297576864</v>
       </c>
       <c r="AR31" t="n">
-        <v>9.52</v>
+        <v>10.87781568871382</v>
       </c>
       <c r="AS31" t="n">
-        <v>1</v>
+        <v>46.48817277318492</v>
       </c>
       <c r="AT31" t="n">
-        <v>6.31</v>
+        <v>2.277096058616089</v>
       </c>
       <c r="AU31" t="n">
-        <v>3.68</v>
+        <v>4.315444542943805</v>
       </c>
       <c r="AV31" t="n">
-        <v>5.62</v>
+        <v>2.972031298272859</v>
       </c>
       <c r="AW31" t="n">
-        <v>12.94</v>
+        <v>5.057050369909529</v>
       </c>
       <c r="AX31" t="n">
-        <v>3.12</v>
+        <v>7.275538572517186</v>
       </c>
     </row>
   </sheetData>

--- a/escenarios_montecarlo/escenario_002.xlsx
+++ b/escenarios_montecarlo/escenario_002.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>20.35029966916715</v>
+        <v>25.11168210079282</v>
       </c>
       <c r="D2" t="n">
-        <v>17.3893875716687</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>42.43735815500553</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.73007518507478</v>
+        <v>30.68434811768251</v>
       </c>
       <c r="G2" t="n">
-        <v>19.01547357974119</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>27.94323833362787</v>
+        <v>27.16691788140198</v>
       </c>
       <c r="I2" t="n">
-        <v>17.03483486505606</v>
+        <v>36.91844770865868</v>
       </c>
       <c r="J2" t="n">
-        <v>105.7638866373267</v>
+        <v>175.3727433196163</v>
       </c>
       <c r="K2" t="n">
-        <v>38.63645363235085</v>
+        <v>30.72589016456526</v>
       </c>
       <c r="L2" t="n">
-        <v>19.01068332974292</v>
+        <v>22.08821067730296</v>
       </c>
       <c r="M2" t="n">
-        <v>46.218333727767</v>
+        <v>71.55680335913328</v>
       </c>
       <c r="N2" t="n">
-        <v>224.3101889091588</v>
+        <v>39.06310265700135</v>
       </c>
       <c r="O2" t="n">
-        <v>36.5676291697567</v>
+        <v>22.39994385523207</v>
       </c>
       <c r="P2" t="n">
-        <v>120.7314445889799</v>
+        <v>16.4667035744877</v>
       </c>
       <c r="Q2" t="n">
-        <v>54.9337200060311</v>
+        <v>41.94833208529566</v>
       </c>
       <c r="R2" t="n">
-        <v>78.52741396515843</v>
+        <v>55.92214120099939</v>
       </c>
       <c r="S2" t="n">
-        <v>76.80352425392098</v>
+        <v>34.96035656905149</v>
       </c>
       <c r="T2" t="n">
-        <v>49.72276674935855</v>
+        <v>19.52887601213939</v>
       </c>
       <c r="U2" t="n">
-        <v>97.01231996552237</v>
+        <v>60.43279735870169</v>
       </c>
       <c r="V2" t="n">
-        <v>31.262754002593</v>
+        <v>38.21992008118647</v>
       </c>
       <c r="W2" t="n">
-        <v>81.19602387382044</v>
+        <v>51.20963373061804</v>
       </c>
       <c r="X2" t="n">
-        <v>56.71051137627388</v>
+        <v>52.21703459542429</v>
       </c>
       <c r="Y2" t="n">
-        <v>80.54969891210739</v>
+        <v>54.21341279286106</v>
       </c>
       <c r="Z2" t="n">
-        <v>67.3863345972992</v>
+        <v>69.09865779587481</v>
       </c>
       <c r="AA2" t="n">
-        <v>35.69736411517463</v>
+        <v>74.79135068168272</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.70099986139476</v>
+        <v>96.1690639901029</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.4234408021947</v>
+        <v>127.9394744761058</v>
       </c>
       <c r="AD2" t="n">
-        <v>71.29350538856278</v>
+        <v>87.29220083765716</v>
       </c>
       <c r="AE2" t="n">
-        <v>190.9041498547837</v>
+        <v>86.86349490948385</v>
       </c>
       <c r="AF2" t="n">
-        <v>75.85402369425287</v>
+        <v>135.7029800713889</v>
       </c>
       <c r="AG2" t="n">
-        <v>82.55699548298867</v>
+        <v>29.74144880161307</v>
       </c>
       <c r="AH2" t="n">
-        <v>142.2429563400165</v>
+        <v>124.8145481959571</v>
       </c>
       <c r="AI2" t="n">
-        <v>77.33054644522447</v>
+        <v>181.2399038119883</v>
       </c>
       <c r="AJ2" t="n">
-        <v>89.16416336019452</v>
+        <v>53.56416608321415</v>
       </c>
       <c r="AK2" t="n">
-        <v>50.96912157428895</v>
+        <v>102.2866093765043</v>
       </c>
       <c r="AL2" t="n">
-        <v>36.16048381253257</v>
+        <v>116.1896220577505</v>
       </c>
       <c r="AM2" t="n">
-        <v>35.84076642983823</v>
+        <v>33.80635533057495</v>
       </c>
       <c r="AN2" t="n">
-        <v>48.68280314064418</v>
+        <v>53.5522445404582</v>
       </c>
       <c r="AO2" t="n">
-        <v>25.99640683547162</v>
+        <v>33.76456069081905</v>
       </c>
       <c r="AP2" t="n">
-        <v>50.02968681308872</v>
+        <v>17.24314448746593</v>
       </c>
       <c r="AQ2" t="n">
-        <v>18.89451461970155</v>
+        <v>20.21112147313335</v>
       </c>
       <c r="AR2" t="n">
-        <v>27.82100987802951</v>
+        <v>27.2427001080533</v>
       </c>
       <c r="AS2" t="n">
-        <v>44.71503224028032</v>
+        <v>21.52114396826281</v>
       </c>
       <c r="AT2" t="n">
-        <v>23.54206312853793</v>
+        <v>18.48125482739549</v>
       </c>
       <c r="AU2" t="n">
-        <v>24.64360363384084</v>
+        <v>13.99783528053125</v>
       </c>
       <c r="AV2" t="n">
-        <v>28.61466685346462</v>
+        <v>16.62529817178637</v>
       </c>
       <c r="AW2" t="n">
-        <v>29.86725881786431</v>
+        <v>32.26050515318543</v>
       </c>
       <c r="AX2" t="n">
-        <v>20.7960013298093</v>
+        <v>9.574271123646929</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6433747792498491</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.151922735016503</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07283759482500281</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>7.608701253047518</v>
+        <v>3.92225170656962</v>
       </c>
       <c r="G3" t="n">
-        <v>29.67941967618926</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>7.278525755368568</v>
+        <v>3.586362926607411</v>
       </c>
       <c r="I3" t="n">
-        <v>7.236005770856456</v>
+        <v>3.938012516905474</v>
       </c>
       <c r="J3" t="n">
-        <v>6.719650050925916</v>
+        <v>5.111407672396338</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8921856776283175</v>
+        <v>9.108928773159622</v>
       </c>
       <c r="L3" t="n">
-        <v>2.217710026408601</v>
+        <v>2.07401959327282</v>
       </c>
       <c r="M3" t="n">
-        <v>2.393972683765154</v>
+        <v>10.06372480141852</v>
       </c>
       <c r="N3" t="n">
-        <v>0.366362990867367</v>
+        <v>1.371446650082352</v>
       </c>
       <c r="O3" t="n">
-        <v>2.768344601759644</v>
+        <v>4.188788561954903</v>
       </c>
       <c r="P3" t="n">
-        <v>3.879580648439513</v>
+        <v>2.522264979745824</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.425729849614596</v>
+        <v>3.639889671086198</v>
       </c>
       <c r="R3" t="n">
-        <v>7.393980804174477</v>
+        <v>8.530346310117194</v>
       </c>
       <c r="S3" t="n">
-        <v>7.929127123765491</v>
+        <v>9.286089023533188</v>
       </c>
       <c r="T3" t="n">
-        <v>8.969106815983736</v>
+        <v>4.630178397489766</v>
       </c>
       <c r="U3" t="n">
-        <v>3.765741805697789</v>
+        <v>2.741897200464801</v>
       </c>
       <c r="V3" t="n">
-        <v>2.410788670473589</v>
+        <v>4.701394531755485</v>
       </c>
       <c r="W3" t="n">
-        <v>1.94702480109408</v>
+        <v>3.540792071267883</v>
       </c>
       <c r="X3" t="n">
-        <v>6.290350725077851</v>
+        <v>3.944098106979966</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.727431100636411</v>
+        <v>6.390758391360711</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.579611571584791</v>
+        <v>2.803761055816253</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.918088126648767</v>
+        <v>3.724745735956246</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.50728076860075</v>
+        <v>4.660193762242526</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.128659766147022</v>
+        <v>5.137263173031704</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.294875025984462</v>
+        <v>2.862360389332292</v>
       </c>
       <c r="AE3" t="n">
-        <v>7.455613558621382</v>
+        <v>12.6927017826202</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.586637253742654</v>
+        <v>6.581345636978952</v>
       </c>
       <c r="AG3" t="n">
-        <v>3.956069571820545</v>
+        <v>4.311282084437023</v>
       </c>
       <c r="AH3" t="n">
-        <v>4.665242759882768</v>
+        <v>7.058660571667914</v>
       </c>
       <c r="AI3" t="n">
-        <v>2.879802907525542</v>
+        <v>4.043453408959447</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5.508239897286098</v>
+        <v>2.665269467639693</v>
       </c>
       <c r="AK3" t="n">
-        <v>8.10789882800205</v>
+        <v>5.554253833633484</v>
       </c>
       <c r="AL3" t="n">
-        <v>6.259203386818935</v>
+        <v>3.66682081119952</v>
       </c>
       <c r="AM3" t="n">
-        <v>6.647354005662891</v>
+        <v>3.476465363191874</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.747106113899762</v>
+        <v>5.78566704142142</v>
       </c>
       <c r="AO3" t="n">
-        <v>4.27049487212738</v>
+        <v>3.227195154239691</v>
       </c>
       <c r="AP3" t="n">
-        <v>5.312515641422761</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4.483773708639442</v>
+        <v>6.527531274435352</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.908576927417547</v>
+        <v>4.263576203498303</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.866649373761218</v>
+        <v>4.183087174157661</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.595490102829387</v>
+        <v>0.9667143609638078</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.385734372703332</v>
+        <v>2.159624272713829</v>
       </c>
       <c r="AV3" t="n">
-        <v>2.69909549125986</v>
+        <v>3.111098487639949</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.7391920745001959</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>6.616911936005776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>8.74542837367359</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>12.93396620597864</v>
+        <v>35.37677406953014</v>
       </c>
       <c r="E4" t="n">
-        <v>7.382755839990415</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>14.30902393888279</v>
+        <v>6.192387162894273</v>
       </c>
       <c r="G4" t="n">
-        <v>17.7152727122844</v>
+        <v>15.09777038640089</v>
       </c>
       <c r="H4" t="n">
-        <v>5.227270479726201</v>
+        <v>20.84177606601166</v>
       </c>
       <c r="I4" t="n">
-        <v>14.34588882523189</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.92171461803844</v>
+        <v>108.7559154986137</v>
       </c>
       <c r="K4" t="n">
-        <v>90.67393431231582</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>45.0986505431527</v>
+        <v>32.80804732455285</v>
       </c>
       <c r="M4" t="n">
-        <v>36.52996664082414</v>
+        <v>129.2594852337095</v>
       </c>
       <c r="N4" t="n">
-        <v>35.95361316836429</v>
+        <v>104.5471705009044</v>
       </c>
       <c r="O4" t="n">
-        <v>83.73176621308852</v>
+        <v>92.25769277069693</v>
       </c>
       <c r="P4" t="n">
-        <v>45.6764218369797</v>
+        <v>51.0387858362345</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.9185748970111</v>
+        <v>163.8176415737177</v>
       </c>
       <c r="R4" t="n">
-        <v>35.94104113557353</v>
+        <v>164.436976106903</v>
       </c>
       <c r="S4" t="n">
-        <v>22.78882860282264</v>
+        <v>48.27710439477266</v>
       </c>
       <c r="T4" t="n">
-        <v>76.264215397665</v>
+        <v>44.77659841156976</v>
       </c>
       <c r="U4" t="n">
-        <v>52.11611823243938</v>
+        <v>54.52114497171232</v>
       </c>
       <c r="V4" t="n">
-        <v>136.928498633501</v>
+        <v>43.67629035822149</v>
       </c>
       <c r="W4" t="n">
-        <v>91.76532900382306</v>
+        <v>45.72837431708083</v>
       </c>
       <c r="X4" t="n">
-        <v>60.318492054053</v>
+        <v>94.56207615630284</v>
       </c>
       <c r="Y4" t="n">
-        <v>70.68086555961162</v>
+        <v>194.7576892006834</v>
       </c>
       <c r="Z4" t="n">
-        <v>69.30859362410617</v>
+        <v>50.70823338811636</v>
       </c>
       <c r="AA4" t="n">
-        <v>69.58647014637887</v>
+        <v>84.80132046783233</v>
       </c>
       <c r="AB4" t="n">
-        <v>40.49726336917569</v>
+        <v>90.31051965464017</v>
       </c>
       <c r="AC4" t="n">
-        <v>51.34023090427299</v>
+        <v>44.32510867067263</v>
       </c>
       <c r="AD4" t="n">
-        <v>89.84886313715477</v>
+        <v>77.31505511602565</v>
       </c>
       <c r="AE4" t="n">
-        <v>28.61261122295456</v>
+        <v>41.51635864001397</v>
       </c>
       <c r="AF4" t="n">
-        <v>31.99016723911111</v>
+        <v>59.19849191094825</v>
       </c>
       <c r="AG4" t="n">
-        <v>68.99672272289212</v>
+        <v>98.63337982920766</v>
       </c>
       <c r="AH4" t="n">
-        <v>51.88901823648197</v>
+        <v>102.790846201243</v>
       </c>
       <c r="AI4" t="n">
-        <v>58.58198017139022</v>
+        <v>24.02304669548644</v>
       </c>
       <c r="AJ4" t="n">
-        <v>84.06508701329705</v>
+        <v>24.19617793755338</v>
       </c>
       <c r="AK4" t="n">
-        <v>21.75782567782663</v>
+        <v>67.57652619911123</v>
       </c>
       <c r="AL4" t="n">
-        <v>24.12769700708651</v>
+        <v>52.6092245695538</v>
       </c>
       <c r="AM4" t="n">
-        <v>29.56800597114943</v>
+        <v>43.09629696852945</v>
       </c>
       <c r="AN4" t="n">
-        <v>41.81145902167398</v>
+        <v>18.26794998751182</v>
       </c>
       <c r="AO4" t="n">
-        <v>20.79193353231693</v>
+        <v>18.48972421492862</v>
       </c>
       <c r="AP4" t="n">
-        <v>18.85918601275462</v>
+        <v>14.94491093204992</v>
       </c>
       <c r="AQ4" t="n">
-        <v>16.52008541307852</v>
+        <v>27.05861849020179</v>
       </c>
       <c r="AR4" t="n">
-        <v>11.25388350850249</v>
+        <v>12.55705954584055</v>
       </c>
       <c r="AS4" t="n">
-        <v>16.91714978100092</v>
+        <v>17.44221451113869</v>
       </c>
       <c r="AT4" t="n">
-        <v>19.35042549515725</v>
+        <v>4.694795977782553</v>
       </c>
       <c r="AU4" t="n">
-        <v>10.70966567880574</v>
+        <v>7.841284596547851</v>
       </c>
       <c r="AV4" t="n">
-        <v>18.20139360695701</v>
+        <v>7.694118408270659</v>
       </c>
       <c r="AW4" t="n">
-        <v>12.01917377614818</v>
+        <v>10.14626937702383</v>
       </c>
       <c r="AX4" t="n">
-        <v>9.079424699361921</v>
+        <v>10.00627984967124</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>15.14079462570322</v>
+        <v>24.51067476399549</v>
       </c>
       <c r="D5" t="n">
-        <v>56.08735352805051</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>21.05876861818793</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.51191976064178</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>124.3346829513416</v>
+        <v>30.08276196792695</v>
       </c>
       <c r="H5" t="n">
-        <v>5.13101621668753</v>
+        <v>32.46550047400106</v>
       </c>
       <c r="I5" t="n">
-        <v>37.19573738537623</v>
+        <v>32.15947393214388</v>
       </c>
       <c r="J5" t="n">
-        <v>4.395092827596565</v>
+        <v>7.090867088198326</v>
       </c>
       <c r="K5" t="n">
-        <v>14.95125874394719</v>
+        <v>4.240195693563228</v>
       </c>
       <c r="L5" t="n">
-        <v>6.111024944712087</v>
+        <v>29.69275693693471</v>
       </c>
       <c r="M5" t="n">
-        <v>16.26893119697378</v>
+        <v>41.79469933849927</v>
       </c>
       <c r="N5" t="n">
-        <v>11.87303702784576</v>
+        <v>54.12803179727854</v>
       </c>
       <c r="O5" t="n">
-        <v>35.05590462501669</v>
+        <v>38.11497466369261</v>
       </c>
       <c r="P5" t="n">
-        <v>32.27706260254181</v>
+        <v>66.21616502535315</v>
       </c>
       <c r="Q5" t="n">
-        <v>22.83118989809144</v>
+        <v>20.41428995235981</v>
       </c>
       <c r="R5" t="n">
-        <v>41.22972711743643</v>
+        <v>47.98710293608991</v>
       </c>
       <c r="S5" t="n">
-        <v>169.5271716260734</v>
+        <v>148.2719032159371</v>
       </c>
       <c r="T5" t="n">
-        <v>7.029980613632525</v>
+        <v>37.18910482869964</v>
       </c>
       <c r="U5" t="n">
-        <v>57.66491462602277</v>
+        <v>24.95978501938447</v>
       </c>
       <c r="V5" t="n">
-        <v>29.51459934665941</v>
+        <v>35.93797988089126</v>
       </c>
       <c r="W5" t="n">
-        <v>59.69452538002604</v>
+        <v>31.47821489424455</v>
       </c>
       <c r="X5" t="n">
-        <v>79.89356465268193</v>
+        <v>38.77940179122454</v>
       </c>
       <c r="Y5" t="n">
-        <v>24.58154569306008</v>
+        <v>71.95744361167176</v>
       </c>
       <c r="Z5" t="n">
-        <v>42.07124181157825</v>
+        <v>60.26125645785493</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.36505860001918</v>
+        <v>84.46529509985896</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.384141058682204</v>
+        <v>10.98368380531293</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.549326776291137</v>
+        <v>13.0539699625747</v>
       </c>
       <c r="AD5" t="n">
-        <v>17.11919073527257</v>
+        <v>162.1010191607921</v>
       </c>
       <c r="AE5" t="n">
-        <v>55.415146560437</v>
+        <v>32.16278247358246</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.96895326783282</v>
+        <v>13.78361293632697</v>
       </c>
       <c r="AG5" t="n">
-        <v>38.35285383488267</v>
+        <v>115.2631139910709</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.70780665729121</v>
+        <v>22.89531055513728</v>
       </c>
       <c r="AI5" t="n">
-        <v>30.39267578095647</v>
+        <v>2.70206842062863</v>
       </c>
       <c r="AJ5" t="n">
-        <v>41.41391653169016</v>
+        <v>63.08002599924438</v>
       </c>
       <c r="AK5" t="n">
-        <v>9.197586011345457</v>
+        <v>7.916018580127767</v>
       </c>
       <c r="AL5" t="n">
-        <v>25.51918975796303</v>
+        <v>32.41923865473245</v>
       </c>
       <c r="AM5" t="n">
-        <v>21.18424739216011</v>
+        <v>34.66307451309599</v>
       </c>
       <c r="AN5" t="n">
-        <v>15.6533345332072</v>
+        <v>26.65476959511867</v>
       </c>
       <c r="AO5" t="n">
-        <v>11.60254908512678</v>
+        <v>25.40759931029295</v>
       </c>
       <c r="AP5" t="n">
-        <v>28.52328779635891</v>
+        <v>39.59712815638419</v>
       </c>
       <c r="AQ5" t="n">
-        <v>43.0224369092662</v>
+        <v>31.21985312136497</v>
       </c>
       <c r="AR5" t="n">
-        <v>5.930733197177691</v>
+        <v>20.25415756325385</v>
       </c>
       <c r="AS5" t="n">
-        <v>81.45607733961879</v>
+        <v>37.57028665027276</v>
       </c>
       <c r="AT5" t="n">
-        <v>114.8820045015152</v>
+        <v>28.22934422089898</v>
       </c>
       <c r="AU5" t="n">
-        <v>66.5495702866735</v>
+        <v>12.12701978218652</v>
       </c>
       <c r="AV5" t="n">
-        <v>17.93566855367267</v>
+        <v>23.54636906421769</v>
       </c>
       <c r="AW5" t="n">
-        <v>20.85606426948546</v>
+        <v>25.26518571936898</v>
       </c>
       <c r="AX5" t="n">
-        <v>9.670137388590359</v>
+        <v>5.513305526457818</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.714278184039962</v>
+        <v>3.621182786628731</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7477470879291872</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.992629136663691</v>
+        <v>36.19773704007518</v>
       </c>
       <c r="F6" t="n">
-        <v>2.018653578123021</v>
+        <v>2.185409642154589</v>
       </c>
       <c r="G6" t="n">
-        <v>22.88914861823439</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2.538098108466064</v>
+        <v>5.862684284952923</v>
       </c>
       <c r="I6" t="n">
-        <v>0.977999435834057</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>21.77767217002439</v>
+        <v>6.332686352737507</v>
       </c>
       <c r="K6" t="n">
-        <v>17.24471714250781</v>
+        <v>12.50789222926592</v>
       </c>
       <c r="L6" t="n">
-        <v>22.50824841626829</v>
+        <v>12.90472620019911</v>
       </c>
       <c r="M6" t="n">
-        <v>6.656150417579016</v>
+        <v>12.36813761592124</v>
       </c>
       <c r="N6" t="n">
-        <v>3.656168619127314</v>
+        <v>48.78390292857902</v>
       </c>
       <c r="O6" t="n">
-        <v>14.79454071459394</v>
+        <v>34.47543883256296</v>
       </c>
       <c r="P6" t="n">
-        <v>60.95662137980391</v>
+        <v>14.97089477908561</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.46252471405128</v>
+        <v>54.15214157405002</v>
       </c>
       <c r="R6" t="n">
-        <v>15.79951129607053</v>
+        <v>49.313369919522</v>
       </c>
       <c r="S6" t="n">
-        <v>12.97798697742718</v>
+        <v>29.39707010690388</v>
       </c>
       <c r="T6" t="n">
-        <v>6.933403969683098</v>
+        <v>20.53059217201825</v>
       </c>
       <c r="U6" t="n">
-        <v>18.82718897991925</v>
+        <v>19.35742471214386</v>
       </c>
       <c r="V6" t="n">
-        <v>22.73785629086824</v>
+        <v>28.82432797299919</v>
       </c>
       <c r="W6" t="n">
-        <v>16.11170510169303</v>
+        <v>13.544603020683</v>
       </c>
       <c r="X6" t="n">
-        <v>19.0281283656282</v>
+        <v>45.11625344207732</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.9369864844751</v>
+        <v>17.51731850605377</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.98168671228454</v>
+        <v>6.3272948713402</v>
       </c>
       <c r="AA6" t="n">
-        <v>18.49275483925469</v>
+        <v>13.12940289739414</v>
       </c>
       <c r="AB6" t="n">
-        <v>26.22982035519679</v>
+        <v>6.498206039471857</v>
       </c>
       <c r="AC6" t="n">
-        <v>18.68959311162203</v>
+        <v>14.5557683122396</v>
       </c>
       <c r="AD6" t="n">
-        <v>25.72352926508043</v>
+        <v>17.53772422721137</v>
       </c>
       <c r="AE6" t="n">
-        <v>22.89847914384124</v>
+        <v>30.87418512217469</v>
       </c>
       <c r="AF6" t="n">
-        <v>14.50531929350465</v>
+        <v>9.343660467962115</v>
       </c>
       <c r="AG6" t="n">
-        <v>4.621062083258224</v>
+        <v>5.29659479232314</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.628046618881432</v>
+        <v>8.083318074181022</v>
       </c>
       <c r="AI6" t="n">
-        <v>20.36185311435005</v>
+        <v>9.220184445518038</v>
       </c>
       <c r="AJ6" t="n">
-        <v>29.63707023305351</v>
+        <v>1.403857264635588</v>
       </c>
       <c r="AK6" t="n">
-        <v>6.049288881767915</v>
+        <v>11.03765617027897</v>
       </c>
       <c r="AL6" t="n">
-        <v>5.546687179033886</v>
+        <v>6.292890295531523</v>
       </c>
       <c r="AM6" t="n">
-        <v>5.936223353734561</v>
+        <v>4.670583733765153</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.7259793653732</v>
+        <v>3.160489941647687</v>
       </c>
       <c r="AO6" t="n">
-        <v>2.092291169470075</v>
+        <v>6.808741808456654</v>
       </c>
       <c r="AP6" t="n">
-        <v>8.129413595870862</v>
+        <v>1.786529560818937</v>
       </c>
       <c r="AQ6" t="n">
-        <v>7.265341950209819</v>
+        <v>6.958719897755749</v>
       </c>
       <c r="AR6" t="n">
-        <v>6.501376057786231</v>
+        <v>1.516763884422335</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.8348576342493639</v>
+        <v>3.544426091783074</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.896015414163728</v>
+        <v>0.3786589047961998</v>
       </c>
       <c r="AU6" t="n">
-        <v>3.332749610734715</v>
+        <v>0.2386576681355707</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.8567798602466355</v>
+        <v>2.118791767172218</v>
       </c>
       <c r="AW6" t="n">
-        <v>2.570033821400748</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>3.610828664038174</v>
+        <v>4.399057962365832</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>12.20335358225435</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>10.86253767795128</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>33.66334618614854</v>
+        <v>12.92988812583527</v>
       </c>
       <c r="F7" t="n">
-        <v>9.279653950248006</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>27.84477183840866</v>
+        <v>15.39366193075949</v>
       </c>
       <c r="H7" t="n">
-        <v>14.07639798091542</v>
+        <v>41.26740273822769</v>
       </c>
       <c r="I7" t="n">
-        <v>34.57236798564421</v>
+        <v>61.13883744640278</v>
       </c>
       <c r="J7" t="n">
-        <v>8.363848473052791</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>7.976274501503065</v>
+        <v>28.07839383578079</v>
       </c>
       <c r="L7" t="n">
-        <v>5.156898439774968</v>
+        <v>52.74914639192404</v>
       </c>
       <c r="M7" t="n">
-        <v>153.310695358814</v>
+        <v>63.51346635668163</v>
       </c>
       <c r="N7" t="n">
-        <v>52.78505438336128</v>
+        <v>78.31950716688114</v>
       </c>
       <c r="O7" t="n">
-        <v>82.74298461621279</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>24.44554454519166</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.30384283461004</v>
+        <v>25.0353999494552</v>
       </c>
       <c r="R7" t="n">
-        <v>5.750740021115186</v>
+        <v>39.94344306925513</v>
       </c>
       <c r="S7" t="n">
-        <v>12.77505238195899</v>
+        <v>49.88257777687585</v>
       </c>
       <c r="T7" t="n">
-        <v>3.047292049592162</v>
+        <v>61.47749177369049</v>
       </c>
       <c r="U7" t="n">
-        <v>56.06757811921884</v>
+        <v>74.76430092750213</v>
       </c>
       <c r="V7" t="n">
-        <v>2.070345300775838</v>
+        <v>36.06579771161736</v>
       </c>
       <c r="W7" t="n">
-        <v>10.14336037904159</v>
+        <v>14.7427270727146</v>
       </c>
       <c r="X7" t="n">
-        <v>48.09926793407342</v>
+        <v>20.8398506676732</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.542997997837649</v>
+        <v>19.51473457235036</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.91428416681286</v>
+        <v>19.3047029704183</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.357766323225317</v>
+        <v>7.699007565426654</v>
       </c>
       <c r="AB7" t="n">
-        <v>4.354398883333997</v>
+        <v>4.723463993077865</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.5149694094628</v>
+        <v>12.8489603304464</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.854252386886873</v>
+        <v>12.49375454727007</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.422942376007887</v>
+        <v>2.521569141026731</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.263455842978303</v>
+        <v>5.269538743116069</v>
       </c>
       <c r="AG7" t="n">
-        <v>5.660652115388593</v>
+        <v>8.507069108561506</v>
       </c>
       <c r="AH7" t="n">
-        <v>2.672810913626119</v>
+        <v>7.102984025977195</v>
       </c>
       <c r="AI7" t="n">
-        <v>4.60154078972051</v>
+        <v>3.202226281523807</v>
       </c>
       <c r="AJ7" t="n">
-        <v>33.2505329977356</v>
+        <v>20.86467777961356</v>
       </c>
       <c r="AK7" t="n">
-        <v>10.12139034324552</v>
+        <v>2.167144045633289</v>
       </c>
       <c r="AL7" t="n">
-        <v>10.27423001150067</v>
+        <v>21.42781129974233</v>
       </c>
       <c r="AM7" t="n">
-        <v>7.988082513090157</v>
+        <v>69.0230543242577</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.152683225980024</v>
+        <v>16.75530338787233</v>
       </c>
       <c r="AO7" t="n">
-        <v>31.96594467441062</v>
+        <v>3.122785435161227</v>
       </c>
       <c r="AP7" t="n">
-        <v>14.95464786038087</v>
+        <v>4.468704547538477</v>
       </c>
       <c r="AQ7" t="n">
-        <v>4.138949844224605</v>
+        <v>2.536895143234338</v>
       </c>
       <c r="AR7" t="n">
-        <v>3.991698994621847</v>
+        <v>10.39003611538776</v>
       </c>
       <c r="AS7" t="n">
-        <v>5.181476036598421</v>
+        <v>16.1802421258546</v>
       </c>
       <c r="AT7" t="n">
-        <v>12.30964327263796</v>
+        <v>4.307133203622943</v>
       </c>
       <c r="AU7" t="n">
-        <v>43.70924785914458</v>
+        <v>3.783056447328498</v>
       </c>
       <c r="AV7" t="n">
-        <v>14.32658199088637</v>
+        <v>14.33346451813145</v>
       </c>
       <c r="AW7" t="n">
-        <v>16.16033420550615</v>
+        <v>3.181892652230055</v>
       </c>
       <c r="AX7" t="n">
-        <v>18.25763968314345</v>
+        <v>17.19192006598519</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.00272884600133</v>
+        <v>19.57963962939395</v>
       </c>
       <c r="D8" t="n">
-        <v>30.38158039046856</v>
+        <v>76.39512533100236</v>
       </c>
       <c r="E8" t="n">
-        <v>21.47474260162457</v>
+        <v>123.0307475503317</v>
       </c>
       <c r="F8" t="n">
-        <v>18.93738375882913</v>
+        <v>53.81339056890418</v>
       </c>
       <c r="G8" t="n">
-        <v>23.24136532926864</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>14.91127081840674</v>
+        <v>62.90687946524496</v>
       </c>
       <c r="I8" t="n">
-        <v>24.67874375217749</v>
+        <v>32.39511139751311</v>
       </c>
       <c r="J8" t="n">
-        <v>58.30611429091244</v>
+        <v>56.04709097237382</v>
       </c>
       <c r="K8" t="n">
-        <v>69.69994593647054</v>
+        <v>26.76828643769727</v>
       </c>
       <c r="L8" t="n">
-        <v>43.05510622199217</v>
+        <v>22.35833332034199</v>
       </c>
       <c r="M8" t="n">
-        <v>74.13843001868266</v>
+        <v>26.30323759944297</v>
       </c>
       <c r="N8" t="n">
-        <v>82.86443898637624</v>
+        <v>165.7200531778177</v>
       </c>
       <c r="O8" t="n">
-        <v>55.80402532658384</v>
+        <v>75.85605852653349</v>
       </c>
       <c r="P8" t="n">
-        <v>17.26760043209647</v>
+        <v>201.3647784303041</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.00839656250123</v>
+        <v>39.4847740218221</v>
       </c>
       <c r="R8" t="n">
-        <v>45.70087748730197</v>
+        <v>57.68388698630696</v>
       </c>
       <c r="S8" t="n">
-        <v>58.96252241579885</v>
+        <v>96.69400728866957</v>
       </c>
       <c r="T8" t="n">
-        <v>34.98321515043553</v>
+        <v>66.0808977980618</v>
       </c>
       <c r="U8" t="n">
-        <v>35.12363847417283</v>
+        <v>99.71691782703455</v>
       </c>
       <c r="V8" t="n">
-        <v>35.86946303143539</v>
+        <v>67.85787002803823</v>
       </c>
       <c r="W8" t="n">
-        <v>44.51057679844421</v>
+        <v>40.91138689828333</v>
       </c>
       <c r="X8" t="n">
-        <v>69.67493064569693</v>
+        <v>116.1972678489444</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.0882287881594</v>
+        <v>49.54862894148178</v>
       </c>
       <c r="Z8" t="n">
-        <v>54.30442123846807</v>
+        <v>66.33230758507264</v>
       </c>
       <c r="AA8" t="n">
-        <v>86.65381392388463</v>
+        <v>72.66731576808135</v>
       </c>
       <c r="AB8" t="n">
-        <v>93.52083588816248</v>
+        <v>66.54299621205782</v>
       </c>
       <c r="AC8" t="n">
-        <v>98.52387647002897</v>
+        <v>77.51994426761144</v>
       </c>
       <c r="AD8" t="n">
-        <v>139.7759171124021</v>
+        <v>85.50344044000052</v>
       </c>
       <c r="AE8" t="n">
-        <v>62.45883337327314</v>
+        <v>100.937577796674</v>
       </c>
       <c r="AF8" t="n">
-        <v>63.55123576942042</v>
+        <v>74.12721194961068</v>
       </c>
       <c r="AG8" t="n">
-        <v>225.4198182431209</v>
+        <v>112.9068674478687</v>
       </c>
       <c r="AH8" t="n">
-        <v>81.39048889619568</v>
+        <v>36.55467873825744</v>
       </c>
       <c r="AI8" t="n">
-        <v>96.66546748618795</v>
+        <v>99.86969873442331</v>
       </c>
       <c r="AJ8" t="n">
-        <v>67.65740182884811</v>
+        <v>156.55407110857</v>
       </c>
       <c r="AK8" t="n">
-        <v>52.57951743749496</v>
+        <v>30.49402770140547</v>
       </c>
       <c r="AL8" t="n">
-        <v>19.54465358282486</v>
+        <v>26.77761408195542</v>
       </c>
       <c r="AM8" t="n">
-        <v>19.74479627914157</v>
+        <v>42.36147245763972</v>
       </c>
       <c r="AN8" t="n">
-        <v>31.61808497081419</v>
+        <v>12.30317854519853</v>
       </c>
       <c r="AO8" t="n">
-        <v>16.90301647919673</v>
+        <v>45.66841251398596</v>
       </c>
       <c r="AP8" t="n">
-        <v>38.62500818187105</v>
+        <v>35.59168627973548</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14.90470737902058</v>
+        <v>37.81012507955531</v>
       </c>
       <c r="AR8" t="n">
-        <v>25.80162178893621</v>
+        <v>19.37857598635595</v>
       </c>
       <c r="AS8" t="n">
-        <v>33.44522267358105</v>
+        <v>22.66685254478361</v>
       </c>
       <c r="AT8" t="n">
-        <v>19.20678790785792</v>
+        <v>18.24275495386333</v>
       </c>
       <c r="AU8" t="n">
-        <v>16.26615641530304</v>
+        <v>19.87542833378413</v>
       </c>
       <c r="AV8" t="n">
-        <v>15.04488226193186</v>
+        <v>12.70070224078977</v>
       </c>
       <c r="AW8" t="n">
-        <v>18.76874832392291</v>
+        <v>29.02003206209326</v>
       </c>
       <c r="AX8" t="n">
-        <v>18.13652718527453</v>
+        <v>20.51326333525434</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>6.289059095072563</v>
+        <v>2.967948977545795</v>
       </c>
       <c r="D9" t="n">
-        <v>2.189574984241832</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2.143439042185224</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.776572471487726</v>
+        <v>4.397296643918036</v>
       </c>
       <c r="G9" t="n">
-        <v>3.356745266301681</v>
+        <v>1.32123577511589</v>
       </c>
       <c r="H9" t="n">
-        <v>1.746620467032635</v>
+        <v>2.06546134306943</v>
       </c>
       <c r="I9" t="n">
-        <v>1.233854510231583</v>
+        <v>1.474229548971556</v>
       </c>
       <c r="J9" t="n">
-        <v>9.595814034754845</v>
+        <v>5.086468380371412</v>
       </c>
       <c r="K9" t="n">
-        <v>9.34191755925043</v>
+        <v>4.108711901499524</v>
       </c>
       <c r="L9" t="n">
-        <v>38.06937412079822</v>
+        <v>0.9289820112805098</v>
       </c>
       <c r="M9" t="n">
-        <v>2.408227850668217</v>
+        <v>4.622471580629674</v>
       </c>
       <c r="N9" t="n">
-        <v>6.396363917016905</v>
+        <v>8.326130357240576</v>
       </c>
       <c r="O9" t="n">
-        <v>5.552923597688577</v>
+        <v>11.21759404185886</v>
       </c>
       <c r="P9" t="n">
-        <v>2.430033129082051</v>
+        <v>1.37328713977222</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.317812473936466</v>
+        <v>4.018308802674453</v>
       </c>
       <c r="R9" t="n">
-        <v>2.979260111117779</v>
+        <v>6.144023712485849</v>
       </c>
       <c r="S9" t="n">
-        <v>1.12490575778154</v>
+        <v>4.819938874785287</v>
       </c>
       <c r="T9" t="n">
-        <v>1.823791822825799</v>
+        <v>2.428933261507811</v>
       </c>
       <c r="U9" t="n">
-        <v>3.394645703930103</v>
+        <v>4.87611460550785</v>
       </c>
       <c r="V9" t="n">
-        <v>7.402487835934967</v>
+        <v>6.901250750817624</v>
       </c>
       <c r="W9" t="n">
-        <v>1.874210270407247</v>
+        <v>2.65213954491069</v>
       </c>
       <c r="X9" t="n">
-        <v>4.432085457046361</v>
+        <v>7.023327936316259</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.880742272035336</v>
+        <v>9.895615982222415</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.243861533254276</v>
+        <v>9.475979679882432</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.253569621706384</v>
+        <v>2.779204913034919</v>
       </c>
       <c r="AB9" t="n">
-        <v>3.150878036044217</v>
+        <v>3.358476674992072</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.487706810796475</v>
+        <v>5.862386026023725</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.389996583179888</v>
+        <v>6.028662944884124</v>
       </c>
       <c r="AE9" t="n">
-        <v>3.817684545485213</v>
+        <v>5.671427577260072</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.166740434765529</v>
+        <v>1.713790512049173</v>
       </c>
       <c r="AG9" t="n">
-        <v>7.538759875706886</v>
+        <v>10.66432534400358</v>
       </c>
       <c r="AH9" t="n">
-        <v>5.216152140614578</v>
+        <v>8.733423079223456</v>
       </c>
       <c r="AI9" t="n">
-        <v>10.62754612544755</v>
+        <v>4.866221835935065</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2.700246410969566</v>
+        <v>2.1278346437506</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.288595989269571</v>
+        <v>3.978341579412034</v>
       </c>
       <c r="AL9" t="n">
-        <v>2.981984969431211</v>
+        <v>6.034868971418996</v>
       </c>
       <c r="AM9" t="n">
-        <v>17.45866011999</v>
+        <v>4.385872614029426</v>
       </c>
       <c r="AN9" t="n">
-        <v>6.205610281535336</v>
+        <v>5.028211406745988</v>
       </c>
       <c r="AO9" t="n">
-        <v>3.130685448566828</v>
+        <v>4.238845794824881</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.927466850778239</v>
+        <v>2.701072606310872</v>
       </c>
       <c r="AQ9" t="n">
-        <v>8.647306357314797</v>
+        <v>4.479286067526544</v>
       </c>
       <c r="AR9" t="n">
-        <v>5.969700982855576</v>
+        <v>4.382167711567492</v>
       </c>
       <c r="AS9" t="n">
-        <v>4.252208494325522</v>
+        <v>4.68883310430386</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.627758193420968</v>
+        <v>3.622494048284127</v>
       </c>
       <c r="AU9" t="n">
-        <v>2.371219984843162</v>
+        <v>3.424960210359885</v>
       </c>
       <c r="AV9" t="n">
-        <v>2.053543126321526</v>
+        <v>2.884862353105017</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.467688710886123</v>
+        <v>2.326515336342198</v>
       </c>
       <c r="AX9" t="n">
-        <v>14.22086629551196</v>
+        <v>3.581461700786062</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>12.44011641484773</v>
+        <v>13.89984694816113</v>
       </c>
       <c r="D10" t="n">
-        <v>32.50928371724248</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>16.20326342092917</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.94005488158225</v>
+        <v>0.1736378569691333</v>
       </c>
       <c r="G10" t="n">
-        <v>38.68778548572961</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>69.03153095999987</v>
+        <v>19.77787764461923</v>
       </c>
       <c r="I10" t="n">
-        <v>10.0823102959181</v>
+        <v>38.4474686659438</v>
       </c>
       <c r="J10" t="n">
-        <v>76.56932224965195</v>
+        <v>59.33142854179048</v>
       </c>
       <c r="K10" t="n">
-        <v>26.90324925022248</v>
+        <v>3.849137676021758</v>
       </c>
       <c r="L10" t="n">
-        <v>102.3939275196241</v>
+        <v>89.22352962178849</v>
       </c>
       <c r="M10" t="n">
-        <v>157.4205728779239</v>
+        <v>327.1096991733716</v>
       </c>
       <c r="N10" t="n">
-        <v>44.43107329804346</v>
+        <v>47.35429763551016</v>
       </c>
       <c r="O10" t="n">
-        <v>68.40517416461377</v>
+        <v>81.42936429897871</v>
       </c>
       <c r="P10" t="n">
-        <v>50.40912088778717</v>
+        <v>38.44612620815449</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.36994370059713</v>
+        <v>229.8316122048236</v>
       </c>
       <c r="R10" t="n">
-        <v>179.1322370338393</v>
+        <v>135.2010559971214</v>
       </c>
       <c r="S10" t="n">
-        <v>32.20965278740304</v>
+        <v>70.27315311837025</v>
       </c>
       <c r="T10" t="n">
-        <v>71.49343498360651</v>
+        <v>45.75469675860289</v>
       </c>
       <c r="U10" t="n">
-        <v>82.60626652910213</v>
+        <v>36.97147883224922</v>
       </c>
       <c r="V10" t="n">
-        <v>80.5320511707553</v>
+        <v>32.94744018537462</v>
       </c>
       <c r="W10" t="n">
-        <v>132.8722841220051</v>
+        <v>45.47545899966544</v>
       </c>
       <c r="X10" t="n">
-        <v>57.70896769015634</v>
+        <v>48.8783577499757</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.35770093777701</v>
+        <v>46.89600899141999</v>
       </c>
       <c r="Z10" t="n">
-        <v>28.09003204532814</v>
+        <v>102.5592599356407</v>
       </c>
       <c r="AA10" t="n">
-        <v>99.68141148504832</v>
+        <v>48.82894114191402</v>
       </c>
       <c r="AB10" t="n">
-        <v>59.62670223405947</v>
+        <v>60.40416784378635</v>
       </c>
       <c r="AC10" t="n">
-        <v>101.8292776154733</v>
+        <v>61.697089444946</v>
       </c>
       <c r="AD10" t="n">
-        <v>94.16667373511041</v>
+        <v>88.13365504847673</v>
       </c>
       <c r="AE10" t="n">
-        <v>136.6707263240459</v>
+        <v>95.91310856956568</v>
       </c>
       <c r="AF10" t="n">
-        <v>72.53396482137752</v>
+        <v>28.82238027121032</v>
       </c>
       <c r="AG10" t="n">
-        <v>52.7338248988653</v>
+        <v>75.81851110385976</v>
       </c>
       <c r="AH10" t="n">
-        <v>53.72159400329114</v>
+        <v>6.476400552432409</v>
       </c>
       <c r="AI10" t="n">
-        <v>117.9410093006979</v>
+        <v>48.39734209614183</v>
       </c>
       <c r="AJ10" t="n">
-        <v>28.04882370476486</v>
+        <v>21.77832624030617</v>
       </c>
       <c r="AK10" t="n">
-        <v>22.64927536447426</v>
+        <v>20.01941634104779</v>
       </c>
       <c r="AL10" t="n">
-        <v>20.67568579891595</v>
+        <v>17.51670524577866</v>
       </c>
       <c r="AM10" t="n">
-        <v>37.96461185681272</v>
+        <v>18.06754954676662</v>
       </c>
       <c r="AN10" t="n">
-        <v>41.69961217167987</v>
+        <v>30.7334017556606</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.704613731360952</v>
+        <v>29.02065724350334</v>
       </c>
       <c r="AP10" t="n">
-        <v>12.32375867250794</v>
+        <v>23.92612533654066</v>
       </c>
       <c r="AQ10" t="n">
-        <v>10.97019391700223</v>
+        <v>15.77401332455743</v>
       </c>
       <c r="AR10" t="n">
-        <v>8.771444392353439</v>
+        <v>7.705496364112502</v>
       </c>
       <c r="AS10" t="n">
-        <v>10.01051147899577</v>
+        <v>25.2069631436193</v>
       </c>
       <c r="AT10" t="n">
-        <v>17.94833149515866</v>
+        <v>33.38230692960531</v>
       </c>
       <c r="AU10" t="n">
-        <v>11.49378947025904</v>
+        <v>10.5696584949212</v>
       </c>
       <c r="AV10" t="n">
-        <v>9.687086037529589</v>
+        <v>11.82323694679223</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.568127081141634</v>
+        <v>11.65418336316346</v>
       </c>
       <c r="AX10" t="n">
-        <v>23.58064917212601</v>
+        <v>8.977704571704722</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>6.377745660054842</v>
+        <v>20.46762394499614</v>
       </c>
       <c r="D11" t="n">
-        <v>9.688589113306186</v>
+        <v>28.77792679625274</v>
       </c>
       <c r="E11" t="n">
-        <v>39.55561187223256</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>63.96683951500867</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.892375613176503</v>
+        <v>0.748494203217299</v>
       </c>
       <c r="H11" t="n">
-        <v>19.82367362229491</v>
+        <v>1.373098186781236</v>
       </c>
       <c r="I11" t="n">
-        <v>10.27986460839792</v>
+        <v>43.20813683398801</v>
       </c>
       <c r="J11" t="n">
-        <v>31.36226126767403</v>
+        <v>4.187615518274246</v>
       </c>
       <c r="K11" t="n">
-        <v>63.81914441953518</v>
+        <v>14.84348024712649</v>
       </c>
       <c r="L11" t="n">
-        <v>118.8594390462137</v>
+        <v>8.504495571860513</v>
       </c>
       <c r="M11" t="n">
-        <v>64.41619299566611</v>
+        <v>64.20485015645104</v>
       </c>
       <c r="N11" t="n">
-        <v>12.3926894508677</v>
+        <v>206.9377818506215</v>
       </c>
       <c r="O11" t="n">
-        <v>12.45596608030264</v>
+        <v>55.3685766323751</v>
       </c>
       <c r="P11" t="n">
-        <v>50.19026190010185</v>
+        <v>23.377326782258</v>
       </c>
       <c r="Q11" t="n">
-        <v>110.7623446470077</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>38.01824320778594</v>
+        <v>125.4691321288246</v>
       </c>
       <c r="S11" t="n">
-        <v>41.16640579356116</v>
+        <v>14.10881118261129</v>
       </c>
       <c r="T11" t="n">
-        <v>111.403228972577</v>
+        <v>9.816129100271134</v>
       </c>
       <c r="U11" t="n">
-        <v>15.54279836620089</v>
+        <v>40.34525776667011</v>
       </c>
       <c r="V11" t="n">
-        <v>50.59706546366914</v>
+        <v>5.688704147172508</v>
       </c>
       <c r="W11" t="n">
-        <v>49.01129715100979</v>
+        <v>59.96449548870795</v>
       </c>
       <c r="X11" t="n">
-        <v>35.72672983852809</v>
+        <v>11.28614375271314</v>
       </c>
       <c r="Y11" t="n">
-        <v>22.32963905116747</v>
+        <v>22.40697612282869</v>
       </c>
       <c r="Z11" t="n">
-        <v>15.58795200854781</v>
+        <v>21.09185149276003</v>
       </c>
       <c r="AA11" t="n">
-        <v>213.1459418526134</v>
+        <v>0.389939731314227</v>
       </c>
       <c r="AB11" t="n">
-        <v>23.86525500989388</v>
+        <v>8.910663308627669</v>
       </c>
       <c r="AC11" t="n">
-        <v>120.998875702692</v>
+        <v>50.11482397534537</v>
       </c>
       <c r="AD11" t="n">
-        <v>15.10173979479705</v>
+        <v>36.00414196076869</v>
       </c>
       <c r="AE11" t="n">
-        <v>22.01948773411781</v>
+        <v>36.14309612900355</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.531083499059354</v>
+        <v>52.93946367601345</v>
       </c>
       <c r="AG11" t="n">
-        <v>28.16315958468947</v>
+        <v>23.35061612192928</v>
       </c>
       <c r="AH11" t="n">
-        <v>25.47835562865244</v>
+        <v>29.50821213617434</v>
       </c>
       <c r="AI11" t="n">
-        <v>63.20245740621116</v>
+        <v>64.45118888258841</v>
       </c>
       <c r="AJ11" t="n">
-        <v>65.71327073499367</v>
+        <v>30.67396238124306</v>
       </c>
       <c r="AK11" t="n">
-        <v>19.06128017869525</v>
+        <v>21.2959889097189</v>
       </c>
       <c r="AL11" t="n">
-        <v>19.73396756595633</v>
+        <v>117.012725247134</v>
       </c>
       <c r="AM11" t="n">
-        <v>8.188325198283914</v>
+        <v>36.8863370778406</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.383669171488717</v>
+        <v>20.74760383093099</v>
       </c>
       <c r="AO11" t="n">
-        <v>26.32581024945598</v>
+        <v>6.481515218401023</v>
       </c>
       <c r="AP11" t="n">
-        <v>6.940532232131182</v>
+        <v>25.88197469518131</v>
       </c>
       <c r="AQ11" t="n">
-        <v>24.17541844703698</v>
+        <v>28.15294855769372</v>
       </c>
       <c r="AR11" t="n">
-        <v>18.75524804198321</v>
+        <v>30.91560204397893</v>
       </c>
       <c r="AS11" t="n">
-        <v>29.13297617407322</v>
+        <v>41.49466049295295</v>
       </c>
       <c r="AT11" t="n">
-        <v>39.63688470094181</v>
+        <v>41.51084555362704</v>
       </c>
       <c r="AU11" t="n">
-        <v>37.90254200275978</v>
+        <v>30.23256956568503</v>
       </c>
       <c r="AV11" t="n">
-        <v>23.49685528441982</v>
+        <v>19.61270378314712</v>
       </c>
       <c r="AW11" t="n">
-        <v>16.99096215993884</v>
+        <v>29.89740477324044</v>
       </c>
       <c r="AX11" t="n">
-        <v>19.67997288277893</v>
+        <v>8.759433099841974</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>8.305712999577922</v>
+        <v>1.034015805337593</v>
       </c>
       <c r="D12" t="n">
-        <v>3.466682135397168</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>15.47715433956534</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2.799941328232155</v>
+        <v>9.411411528404734</v>
       </c>
       <c r="G12" t="n">
-        <v>35.59190487953506</v>
+        <v>6.007316438215667</v>
       </c>
       <c r="H12" t="n">
-        <v>10.88769598298505</v>
+        <v>5.862586312285629</v>
       </c>
       <c r="I12" t="n">
-        <v>5.010709048914991</v>
+        <v>7.506165339106433</v>
       </c>
       <c r="J12" t="n">
-        <v>9.098838340412099</v>
+        <v>22.24728589748681</v>
       </c>
       <c r="K12" t="n">
-        <v>63.27814867623206</v>
+        <v>18.03705189901292</v>
       </c>
       <c r="L12" t="n">
-        <v>31.26050329484366</v>
+        <v>38.62002984040967</v>
       </c>
       <c r="M12" t="n">
-        <v>16.16496521050146</v>
+        <v>24.32537492841812</v>
       </c>
       <c r="N12" t="n">
-        <v>53.6706222140762</v>
+        <v>23.64517162180268</v>
       </c>
       <c r="O12" t="n">
-        <v>7.873072497335921</v>
+        <v>30.40154022546046</v>
       </c>
       <c r="P12" t="n">
-        <v>7.907297682617304</v>
+        <v>8.997573070731097</v>
       </c>
       <c r="Q12" t="n">
-        <v>11.45779163209868</v>
+        <v>51.159737191654</v>
       </c>
       <c r="R12" t="n">
-        <v>13.03104501686122</v>
+        <v>25.1917840917959</v>
       </c>
       <c r="S12" t="n">
-        <v>13.72721625802755</v>
+        <v>16.71148064624392</v>
       </c>
       <c r="T12" t="n">
-        <v>4.126632302539504</v>
+        <v>4.267872978654069</v>
       </c>
       <c r="U12" t="n">
-        <v>30.06890093668576</v>
+        <v>16.73884285696798</v>
       </c>
       <c r="V12" t="n">
-        <v>15.04850355111903</v>
+        <v>7.417988379157116</v>
       </c>
       <c r="W12" t="n">
-        <v>31.04418843672311</v>
+        <v>8.164636675958938</v>
       </c>
       <c r="X12" t="n">
-        <v>33.70245059669105</v>
+        <v>13.72122541470383</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.6476497172244</v>
+        <v>15.70086563740934</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.17674737450703</v>
+        <v>16.69063958391159</v>
       </c>
       <c r="AA12" t="n">
-        <v>9.548829242008791</v>
+        <v>11.10720900359447</v>
       </c>
       <c r="AB12" t="n">
-        <v>29.79801502790529</v>
+        <v>8.511551419667361</v>
       </c>
       <c r="AC12" t="n">
-        <v>20.24674347275412</v>
+        <v>14.19737531226117</v>
       </c>
       <c r="AD12" t="n">
-        <v>21.50630215381115</v>
+        <v>16.6462477048725</v>
       </c>
       <c r="AE12" t="n">
-        <v>39.86923586922357</v>
+        <v>25.06168355087919</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.015145660110123</v>
+        <v>5.133787973391977</v>
       </c>
       <c r="AG12" t="n">
-        <v>25.33174607432069</v>
+        <v>11.59656188159533</v>
       </c>
       <c r="AH12" t="n">
-        <v>11.92617258263398</v>
+        <v>8.94746722544531</v>
       </c>
       <c r="AI12" t="n">
-        <v>8.386350896583791</v>
+        <v>6.991017744368492</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10.34114550208462</v>
+        <v>1.597160543861498</v>
       </c>
       <c r="AK12" t="n">
-        <v>9.664648067762313</v>
+        <v>4.449695255566476</v>
       </c>
       <c r="AL12" t="n">
-        <v>11.80905510888427</v>
+        <v>0.7417165464713023</v>
       </c>
       <c r="AM12" t="n">
-        <v>1.738291450169305</v>
+        <v>3.826589089593476</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.057081581628621</v>
+        <v>2.361076660967805</v>
       </c>
       <c r="AO12" t="n">
-        <v>2.648273762089112</v>
+        <v>0.9677748465433317</v>
       </c>
       <c r="AP12" t="n">
-        <v>4.071555536382227</v>
+        <v>3.063524651383169</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.370468894974903</v>
+        <v>10.71025842233455</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.9504619703161272</v>
+        <v>1.884566230804896</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.886216648710093</v>
+        <v>3.632139474602348</v>
       </c>
       <c r="AT12" t="n">
-        <v>4.653564215480604</v>
+        <v>3.969910941257085</v>
       </c>
       <c r="AU12" t="n">
-        <v>3.493254922099913</v>
+        <v>1.524696721063258</v>
       </c>
       <c r="AV12" t="n">
-        <v>4.419456759197072</v>
+        <v>1.588170059494615</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.691431854390048</v>
+        <v>1.378125707222015</v>
       </c>
       <c r="AX12" t="n">
-        <v>12.31798495827586</v>
+        <v>1.694457523040737</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>6.933504352258018</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>127.7325237394351</v>
+        <v>28.47061699087089</v>
       </c>
       <c r="E13" t="n">
-        <v>19.29484630641349</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>11.3377644054047</v>
+        <v>11.21186398305151</v>
       </c>
       <c r="G13" t="n">
-        <v>20.75961542408064</v>
+        <v>0.8464630980250041</v>
       </c>
       <c r="H13" t="n">
-        <v>6.491419127725223</v>
+        <v>8.208229039985707</v>
       </c>
       <c r="I13" t="n">
-        <v>18.57156894159249</v>
+        <v>4.155100550246366</v>
       </c>
       <c r="J13" t="n">
-        <v>17.18959913508255</v>
+        <v>31.00242711810758</v>
       </c>
       <c r="K13" t="n">
-        <v>42.11089536377231</v>
+        <v>20.66669858816307</v>
       </c>
       <c r="L13" t="n">
-        <v>19.26830857673787</v>
+        <v>21.96665302012206</v>
       </c>
       <c r="M13" t="n">
-        <v>13.84973504974711</v>
+        <v>31.18933165834716</v>
       </c>
       <c r="N13" t="n">
-        <v>48.59819616279955</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>15.60570477762711</v>
+        <v>2.885666367392329</v>
       </c>
       <c r="P13" t="n">
-        <v>54.45431143142716</v>
+        <v>24.32485927809801</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.77106164160479</v>
+        <v>96.94430904859541</v>
       </c>
       <c r="R13" t="n">
-        <v>81.10741777443495</v>
+        <v>15.99088291858852</v>
       </c>
       <c r="S13" t="n">
-        <v>15.68177813374013</v>
+        <v>21.91595269576419</v>
       </c>
       <c r="T13" t="n">
-        <v>46.38485594428722</v>
+        <v>44.49465550213174</v>
       </c>
       <c r="U13" t="n">
-        <v>32.58575763385399</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>25.5584372886239</v>
+        <v>10.71562997841044</v>
       </c>
       <c r="W13" t="n">
-        <v>5.187875586034356</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>17.00443831403632</v>
+        <v>13.00458036856244</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.663604167287215</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>7.240775130594984</v>
+        <v>22.86236306834988</v>
       </c>
       <c r="AA13" t="n">
-        <v>5.725262613215688</v>
+        <v>7.092627110178922</v>
       </c>
       <c r="AB13" t="n">
-        <v>145.6418393638202</v>
+        <v>9.633797234832169</v>
       </c>
       <c r="AC13" t="n">
-        <v>16.09676259310055</v>
+        <v>10.5769612286555</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.692159674596368</v>
+        <v>3.322906991222486</v>
       </c>
       <c r="AE13" t="n">
-        <v>5.007998222115583</v>
+        <v>15.54279971539747</v>
       </c>
       <c r="AF13" t="n">
-        <v>20.951521914007</v>
+        <v>4.3897494691002</v>
       </c>
       <c r="AG13" t="n">
-        <v>19.48966357131275</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>5.353815264003236</v>
+        <v>14.39294812839506</v>
       </c>
       <c r="AI13" t="n">
-        <v>7.447354566808167</v>
+        <v>0.5347086407924044</v>
       </c>
       <c r="AJ13" t="n">
-        <v>4.795012183977694</v>
+        <v>11.79640499115817</v>
       </c>
       <c r="AK13" t="n">
-        <v>2.041803261335184</v>
+        <v>6.395709266694878</v>
       </c>
       <c r="AL13" t="n">
-        <v>2.98318879000223</v>
+        <v>7.275553149922898</v>
       </c>
       <c r="AM13" t="n">
-        <v>4.806417727004814</v>
+        <v>2.599783381279522</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.573381884164857</v>
+        <v>8.294310151411743</v>
       </c>
       <c r="AO13" t="n">
-        <v>36.51461869395497</v>
+        <v>8.463159656946623</v>
       </c>
       <c r="AP13" t="n">
-        <v>6.364726899875328</v>
+        <v>21.02575540465135</v>
       </c>
       <c r="AQ13" t="n">
-        <v>3.094469093636231</v>
+        <v>21.28866443811198</v>
       </c>
       <c r="AR13" t="n">
-        <v>3.752538109248212</v>
+        <v>8.056910017894312</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.8177345561857422</v>
+        <v>1.298004923808823</v>
       </c>
       <c r="AT13" t="n">
-        <v>5.497248705094703</v>
+        <v>8.408615735017728</v>
       </c>
       <c r="AU13" t="n">
-        <v>4.102953589640776</v>
+        <v>14.11473040943737</v>
       </c>
       <c r="AV13" t="n">
-        <v>5.140494430849988</v>
+        <v>19.63429845919426</v>
       </c>
       <c r="AW13" t="n">
-        <v>1.229216555137893</v>
+        <v>4.559785386441683</v>
       </c>
       <c r="AX13" t="n">
-        <v>6.698806708804094</v>
+        <v>3.626938974360486</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>35.36500292777824</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>16.94843944253922</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>32.99124282165182</v>
+        <v>38.85320577663173</v>
       </c>
       <c r="F14" t="n">
-        <v>13.31399804279371</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>27.68135975216753</v>
+        <v>16.10757782686623</v>
       </c>
       <c r="H14" t="n">
-        <v>31.72658489810268</v>
+        <v>13.05912144716557</v>
       </c>
       <c r="I14" t="n">
-        <v>48.67918359791561</v>
+        <v>40.83913969464043</v>
       </c>
       <c r="J14" t="n">
-        <v>18.92350140775883</v>
+        <v>17.59286576033844</v>
       </c>
       <c r="K14" t="n">
-        <v>44.15547836716506</v>
+        <v>103.2689463417281</v>
       </c>
       <c r="L14" t="n">
-        <v>91.34571587708452</v>
+        <v>57.75452718705371</v>
       </c>
       <c r="M14" t="n">
-        <v>44.237080431251</v>
+        <v>49.75002047161014</v>
       </c>
       <c r="N14" t="n">
-        <v>106.4642847729385</v>
+        <v>62.2651089234</v>
       </c>
       <c r="O14" t="n">
-        <v>71.15046726655237</v>
+        <v>44.93272379667868</v>
       </c>
       <c r="P14" t="n">
-        <v>32.75778975816091</v>
+        <v>66.12478880730598</v>
       </c>
       <c r="Q14" t="n">
-        <v>26.55467644468844</v>
+        <v>68.07213505009867</v>
       </c>
       <c r="R14" t="n">
-        <v>200.5440131094039</v>
+        <v>73.66950090468205</v>
       </c>
       <c r="S14" t="n">
-        <v>40.94542247771108</v>
+        <v>39.96420103191176</v>
       </c>
       <c r="T14" t="n">
-        <v>61.91919336602967</v>
+        <v>31.4754669635944</v>
       </c>
       <c r="U14" t="n">
-        <v>26.10379146164638</v>
+        <v>82.70894822172387</v>
       </c>
       <c r="V14" t="n">
-        <v>48.18822935389792</v>
+        <v>71.6190620170164</v>
       </c>
       <c r="W14" t="n">
-        <v>114.1107031916935</v>
+        <v>36.4733337250782</v>
       </c>
       <c r="X14" t="n">
-        <v>113.6410916013489</v>
+        <v>49.64841296485054</v>
       </c>
       <c r="Y14" t="n">
-        <v>50.32110745152649</v>
+        <v>66.12268772923296</v>
       </c>
       <c r="Z14" t="n">
-        <v>61.79556997037345</v>
+        <v>55.82964152164417</v>
       </c>
       <c r="AA14" t="n">
-        <v>52.06443978358338</v>
+        <v>80.3620339657881</v>
       </c>
       <c r="AB14" t="n">
-        <v>104.7024087084925</v>
+        <v>119.2093026588157</v>
       </c>
       <c r="AC14" t="n">
-        <v>97.41743543981278</v>
+        <v>92.19557641576283</v>
       </c>
       <c r="AD14" t="n">
-        <v>52.05393348260358</v>
+        <v>126.7422403686422</v>
       </c>
       <c r="AE14" t="n">
-        <v>62.98354730218026</v>
+        <v>231.5474972690809</v>
       </c>
       <c r="AF14" t="n">
-        <v>72.20846298454211</v>
+        <v>157.8789947428736</v>
       </c>
       <c r="AG14" t="n">
-        <v>68.68795961801119</v>
+        <v>14.98955564933186</v>
       </c>
       <c r="AH14" t="n">
-        <v>100.0284257578814</v>
+        <v>125.7616747171903</v>
       </c>
       <c r="AI14" t="n">
-        <v>94.35097531278873</v>
+        <v>126.5068368354869</v>
       </c>
       <c r="AJ14" t="n">
-        <v>36.28086784210129</v>
+        <v>120.15365508175</v>
       </c>
       <c r="AK14" t="n">
-        <v>26.03793516599778</v>
+        <v>32.43932036435467</v>
       </c>
       <c r="AL14" t="n">
-        <v>66.3499910133455</v>
+        <v>17.25655531961157</v>
       </c>
       <c r="AM14" t="n">
-        <v>54.49070511706652</v>
+        <v>23.39706985747657</v>
       </c>
       <c r="AN14" t="n">
-        <v>32.34060020689241</v>
+        <v>27.38615709596063</v>
       </c>
       <c r="AO14" t="n">
-        <v>50.66880197191432</v>
+        <v>40.63527129749145</v>
       </c>
       <c r="AP14" t="n">
-        <v>49.60312202513136</v>
+        <v>30.60039191703468</v>
       </c>
       <c r="AQ14" t="n">
-        <v>33.27089026896093</v>
+        <v>17.47235046352578</v>
       </c>
       <c r="AR14" t="n">
-        <v>14.69335545543948</v>
+        <v>15.54310814802298</v>
       </c>
       <c r="AS14" t="n">
-        <v>30.36981496701791</v>
+        <v>15.79800594290819</v>
       </c>
       <c r="AT14" t="n">
-        <v>21.47465453314382</v>
+        <v>26.23340079810649</v>
       </c>
       <c r="AU14" t="n">
-        <v>10.78640718776654</v>
+        <v>7.828730344160505</v>
       </c>
       <c r="AV14" t="n">
-        <v>16.81454914433387</v>
+        <v>14.52642668249031</v>
       </c>
       <c r="AW14" t="n">
-        <v>23.31698519834661</v>
+        <v>20.5516301667311</v>
       </c>
       <c r="AX14" t="n">
-        <v>20.32616167714618</v>
+        <v>12.29108018494951</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>14.56930927423415</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2.487971132354215</v>
+        <v>3.809845228556199</v>
       </c>
       <c r="E15" t="n">
-        <v>1.638006471633426</v>
+        <v>3.183228654615466</v>
       </c>
       <c r="F15" t="n">
-        <v>2.966195115827963</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3.008894536550869</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>19.94040912728276</v>
+        <v>1.959264273363078</v>
       </c>
       <c r="I15" t="n">
-        <v>12.15754850134332</v>
+        <v>8.299346085278124</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7543833516602793</v>
+        <v>6.77586389933272</v>
       </c>
       <c r="K15" t="n">
-        <v>14.82228178710796</v>
+        <v>4.458827531969694</v>
       </c>
       <c r="L15" t="n">
-        <v>7.977817081172623</v>
+        <v>4.50351049690217</v>
       </c>
       <c r="M15" t="n">
-        <v>4.419132975066054</v>
+        <v>11.09300220964103</v>
       </c>
       <c r="N15" t="n">
-        <v>8.753807750542947</v>
+        <v>8.185215816844547</v>
       </c>
       <c r="O15" t="n">
-        <v>2.908747476613512</v>
+        <v>4.911490202091025</v>
       </c>
       <c r="P15" t="n">
-        <v>2.058848032990169</v>
+        <v>2.085662631770296</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.881395987954233</v>
+        <v>4.083122743751496</v>
       </c>
       <c r="R15" t="n">
-        <v>2.798321187412706</v>
+        <v>1.644116335125298</v>
       </c>
       <c r="S15" t="n">
-        <v>3.933541299265491</v>
+        <v>1.225090510576345</v>
       </c>
       <c r="T15" t="n">
-        <v>1.568942120483966</v>
+        <v>7.938697880012765</v>
       </c>
       <c r="U15" t="n">
-        <v>3.213856384177971</v>
+        <v>9.353646106415406</v>
       </c>
       <c r="V15" t="n">
-        <v>2.875685209267351</v>
+        <v>5.522070553293178</v>
       </c>
       <c r="W15" t="n">
-        <v>3.163890077116213</v>
+        <v>1.933923864721061</v>
       </c>
       <c r="X15" t="n">
-        <v>8.011179175926554</v>
+        <v>1.238921520797627</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.875898378764554</v>
+        <v>3.66659135554881</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.782167364020593</v>
+        <v>5.202001411336875</v>
       </c>
       <c r="AA15" t="n">
-        <v>3.697923414542704</v>
+        <v>5.460709182047808</v>
       </c>
       <c r="AB15" t="n">
-        <v>5.981789277906735</v>
+        <v>4.99756403932741</v>
       </c>
       <c r="AC15" t="n">
-        <v>3.621747107620161</v>
+        <v>2.772174315419362</v>
       </c>
       <c r="AD15" t="n">
-        <v>7.909102213567169</v>
+        <v>6.094326432493336</v>
       </c>
       <c r="AE15" t="n">
-        <v>7.191595252345248</v>
+        <v>4.74755089227124</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.693544346407665</v>
+        <v>4.201949808464207</v>
       </c>
       <c r="AG15" t="n">
-        <v>11.66646341304301</v>
+        <v>3.073969058494872</v>
       </c>
       <c r="AH15" t="n">
-        <v>2.204878819791028</v>
+        <v>5.867770010319887</v>
       </c>
       <c r="AI15" t="n">
-        <v>1.630664408196779</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3.861205152414402</v>
+        <v>3.500888016271444</v>
       </c>
       <c r="AK15" t="n">
-        <v>5.504157032532848</v>
+        <v>2.61294953655473</v>
       </c>
       <c r="AL15" t="n">
-        <v>4.614162122375724</v>
+        <v>5.079539345616888</v>
       </c>
       <c r="AM15" t="n">
-        <v>2.596425471854856</v>
+        <v>4.788981124826215</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.591476364307471</v>
+        <v>4.243246728966188</v>
       </c>
       <c r="AO15" t="n">
-        <v>2.453912279912599</v>
+        <v>2.342483493428055</v>
       </c>
       <c r="AP15" t="n">
-        <v>4.555316496525723</v>
+        <v>5.674498229237224</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.83783483592287</v>
+        <v>1.640855562772041</v>
       </c>
       <c r="AR15" t="n">
-        <v>3.305521916389556</v>
+        <v>0.3493058738098265</v>
       </c>
       <c r="AS15" t="n">
-        <v>4.571843062326066</v>
+        <v>2.777813598044937</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.955514867110643</v>
+        <v>4.477188169883809</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.2827647893080852</v>
+        <v>2.048011500591268</v>
       </c>
       <c r="AV15" t="n">
-        <v>2.810658662100118</v>
+        <v>6.336542281937195</v>
       </c>
       <c r="AW15" t="n">
-        <v>3.380592427378209</v>
+        <v>1.730448546606409</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.5294105759743118</v>
+        <v>3.503783480968575</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>12.44222980784719</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>15.45703292087616</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>12.38306152527338</v>
+        <v>20.46059645875309</v>
       </c>
       <c r="F16" t="n">
-        <v>15.26735733424744</v>
+        <v>8.724744910304654</v>
       </c>
       <c r="G16" t="n">
-        <v>27.84977022762974</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>9.847932024195302</v>
+        <v>24.23084051583637</v>
       </c>
       <c r="I16" t="n">
-        <v>50.1031955059189</v>
+        <v>52.45713886489288</v>
       </c>
       <c r="J16" t="n">
-        <v>100.2954146541816</v>
+        <v>180.7938995414701</v>
       </c>
       <c r="K16" t="n">
-        <v>201.5221849688767</v>
+        <v>29.70148077696619</v>
       </c>
       <c r="L16" t="n">
-        <v>63.4828566360818</v>
+        <v>124.8347571805119</v>
       </c>
       <c r="M16" t="n">
-        <v>70.14736561539185</v>
+        <v>60.19536439692591</v>
       </c>
       <c r="N16" t="n">
-        <v>173.6190308534778</v>
+        <v>23.35562052425927</v>
       </c>
       <c r="O16" t="n">
-        <v>32.19710265464295</v>
+        <v>64.11858702361891</v>
       </c>
       <c r="P16" t="n">
-        <v>164.2829686266096</v>
+        <v>79.43721633366425</v>
       </c>
       <c r="Q16" t="n">
-        <v>342.2355859509731</v>
+        <v>208.7588098454244</v>
       </c>
       <c r="R16" t="n">
-        <v>64.6489210433807</v>
+        <v>81.32578784548883</v>
       </c>
       <c r="S16" t="n">
-        <v>25.23542671491636</v>
+        <v>81.09954518410933</v>
       </c>
       <c r="T16" t="n">
-        <v>38.46720389644494</v>
+        <v>28.84697592913512</v>
       </c>
       <c r="U16" t="n">
-        <v>55.29661133484263</v>
+        <v>49.45709938170713</v>
       </c>
       <c r="V16" t="n">
-        <v>38.67937658411364</v>
+        <v>3.138490866722314</v>
       </c>
       <c r="W16" t="n">
-        <v>32.83058508792928</v>
+        <v>145.2747684372844</v>
       </c>
       <c r="X16" t="n">
-        <v>79.74578428936083</v>
+        <v>155.9116222338506</v>
       </c>
       <c r="Y16" t="n">
-        <v>99.52804115101412</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>98.50193333390308</v>
+        <v>48.09017716312009</v>
       </c>
       <c r="AA16" t="n">
-        <v>66.52676327117618</v>
+        <v>24.93574364234887</v>
       </c>
       <c r="AB16" t="n">
-        <v>70.12365972285828</v>
+        <v>90.99646535213962</v>
       </c>
       <c r="AC16" t="n">
-        <v>64.58572959870342</v>
+        <v>115.8036978112416</v>
       </c>
       <c r="AD16" t="n">
-        <v>82.18371204227356</v>
+        <v>92.53936746403458</v>
       </c>
       <c r="AE16" t="n">
-        <v>16.6794447697127</v>
+        <v>128.7550096956055</v>
       </c>
       <c r="AF16" t="n">
-        <v>41.41539471261298</v>
+        <v>99.89932403191064</v>
       </c>
       <c r="AG16" t="n">
-        <v>113.0974040970749</v>
+        <v>96.16099705610294</v>
       </c>
       <c r="AH16" t="n">
-        <v>32.001829134963</v>
+        <v>17.39351550533737</v>
       </c>
       <c r="AI16" t="n">
-        <v>93.75752638143443</v>
+        <v>36.09956369818035</v>
       </c>
       <c r="AJ16" t="n">
-        <v>73.76089537944887</v>
+        <v>36.69524626057485</v>
       </c>
       <c r="AK16" t="n">
-        <v>14.14876112535138</v>
+        <v>35.09190344339243</v>
       </c>
       <c r="AL16" t="n">
-        <v>15.35612801177332</v>
+        <v>89.69245810414041</v>
       </c>
       <c r="AM16" t="n">
-        <v>15.40667655129636</v>
+        <v>13.64848508838836</v>
       </c>
       <c r="AN16" t="n">
-        <v>33.43185341253273</v>
+        <v>4.671451983288076</v>
       </c>
       <c r="AO16" t="n">
-        <v>27.68639452606522</v>
+        <v>19.25350524178934</v>
       </c>
       <c r="AP16" t="n">
-        <v>15.07693126292766</v>
+        <v>21.13505031956014</v>
       </c>
       <c r="AQ16" t="n">
-        <v>16.26992710397132</v>
+        <v>16.60262174017571</v>
       </c>
       <c r="AR16" t="n">
-        <v>21.08291057354215</v>
+        <v>11.34806229453305</v>
       </c>
       <c r="AS16" t="n">
-        <v>12.7009996607165</v>
+        <v>10.00015478822444</v>
       </c>
       <c r="AT16" t="n">
-        <v>20.3450794641848</v>
+        <v>5.740888733480763</v>
       </c>
       <c r="AU16" t="n">
-        <v>10.48523119927004</v>
+        <v>7.473886197544415</v>
       </c>
       <c r="AV16" t="n">
-        <v>17.99289367984553</v>
+        <v>15.95291642218927</v>
       </c>
       <c r="AW16" t="n">
-        <v>13.8328068458418</v>
+        <v>12.64874295991895</v>
       </c>
       <c r="AX16" t="n">
-        <v>9.104253076220621</v>
+        <v>20.77681131869194</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>7.82810609701659</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>15.01248959303788</v>
+        <v>14.00328989873177</v>
       </c>
       <c r="E17" t="n">
-        <v>6.19319234084865</v>
+        <v>18.27716478446223</v>
       </c>
       <c r="F17" t="n">
-        <v>7.141427579461454</v>
+        <v>5.296485611235187</v>
       </c>
       <c r="G17" t="n">
-        <v>31.1043936104458</v>
+        <v>81.50850616280522</v>
       </c>
       <c r="H17" t="n">
-        <v>23.39780351625089</v>
+        <v>53.09009920873961</v>
       </c>
       <c r="I17" t="n">
-        <v>38.33730082207486</v>
+        <v>26.73796571917065</v>
       </c>
       <c r="J17" t="n">
-        <v>30.71101882011958</v>
+        <v>195.0518318033922</v>
       </c>
       <c r="K17" t="n">
-        <v>14.74420810995461</v>
+        <v>16.00907889431033</v>
       </c>
       <c r="L17" t="n">
-        <v>63.11739174624561</v>
+        <v>34.38741460000819</v>
       </c>
       <c r="M17" t="n">
-        <v>8.112821831597991</v>
+        <v>5.096126767932389</v>
       </c>
       <c r="N17" t="n">
-        <v>73.21738094734289</v>
+        <v>70.79563021264289</v>
       </c>
       <c r="O17" t="n">
-        <v>115.7724559916337</v>
+        <v>14.94936789842193</v>
       </c>
       <c r="P17" t="n">
-        <v>60.89585919277231</v>
+        <v>23.42806714278779</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.69273519692971</v>
+        <v>20.45398616031882</v>
       </c>
       <c r="R17" t="n">
-        <v>41.63779447110777</v>
+        <v>33.17896324983569</v>
       </c>
       <c r="S17" t="n">
-        <v>37.97347621103648</v>
+        <v>59.92383926315755</v>
       </c>
       <c r="T17" t="n">
-        <v>7.733771295313901</v>
+        <v>29.40978445589696</v>
       </c>
       <c r="U17" t="n">
-        <v>30.3818525409802</v>
+        <v>56.57984068178707</v>
       </c>
       <c r="V17" t="n">
-        <v>157.9494210803224</v>
+        <v>285.4619625912884</v>
       </c>
       <c r="W17" t="n">
-        <v>30.84388081919696</v>
+        <v>39.56582193058899</v>
       </c>
       <c r="X17" t="n">
-        <v>11.96241880133365</v>
+        <v>25.19047731167465</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.342414521146098</v>
+        <v>32.11185906120161</v>
       </c>
       <c r="Z17" t="n">
-        <v>12.08001942419549</v>
+        <v>51.6262683402058</v>
       </c>
       <c r="AA17" t="n">
-        <v>63.73246799124608</v>
+        <v>23.04567398394067</v>
       </c>
       <c r="AB17" t="n">
-        <v>15.64941577323394</v>
+        <v>17.19112534647104</v>
       </c>
       <c r="AC17" t="n">
-        <v>52.9502846926831</v>
+        <v>27.76994668572829</v>
       </c>
       <c r="AD17" t="n">
-        <v>15.4979034628179</v>
+        <v>39.80859223545924</v>
       </c>
       <c r="AE17" t="n">
-        <v>40.48429615795119</v>
+        <v>42.89098056829609</v>
       </c>
       <c r="AF17" t="n">
-        <v>7.178434589756814</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>49.4840162705947</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>25.25215145504109</v>
+        <v>47.74361283977419</v>
       </c>
       <c r="AI17" t="n">
-        <v>6.742244029787233</v>
+        <v>61.13737039961522</v>
       </c>
       <c r="AJ17" t="n">
-        <v>21.70833761688169</v>
+        <v>22.83745733309019</v>
       </c>
       <c r="AK17" t="n">
-        <v>20.92690365034147</v>
+        <v>11.35734777610642</v>
       </c>
       <c r="AL17" t="n">
-        <v>13.88068530272542</v>
+        <v>78.37922126854588</v>
       </c>
       <c r="AM17" t="n">
-        <v>6.158282958394405</v>
+        <v>36.64368715031716</v>
       </c>
       <c r="AN17" t="n">
-        <v>27.81410157198296</v>
+        <v>40.83730692292825</v>
       </c>
       <c r="AO17" t="n">
-        <v>18.13465460222972</v>
+        <v>29.30446302711725</v>
       </c>
       <c r="AP17" t="n">
-        <v>13.01472268661203</v>
+        <v>29.09972820064421</v>
       </c>
       <c r="AQ17" t="n">
-        <v>16.9840998707806</v>
+        <v>25.08510968538366</v>
       </c>
       <c r="AR17" t="n">
-        <v>23.17114246013555</v>
+        <v>21.09282115229111</v>
       </c>
       <c r="AS17" t="n">
-        <v>5.914676453536814</v>
+        <v>23.95348637739421</v>
       </c>
       <c r="AT17" t="n">
-        <v>46.05302000064408</v>
+        <v>28.61001660431392</v>
       </c>
       <c r="AU17" t="n">
-        <v>52.19571119582071</v>
+        <v>38.88964427971273</v>
       </c>
       <c r="AV17" t="n">
-        <v>21.79972868963624</v>
+        <v>0</v>
       </c>
       <c r="AW17" t="n">
-        <v>16.40431367098847</v>
+        <v>29.02622614999163</v>
       </c>
       <c r="AX17" t="n">
-        <v>23.77258523455636</v>
+        <v>4.376945512030823</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>4.168842530128607</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>4.644611951366485</v>
+        <v>2.585552001547552</v>
       </c>
       <c r="E18" t="n">
-        <v>4.171837290429088</v>
+        <v>3.581071556968893</v>
       </c>
       <c r="F18" t="n">
-        <v>14.56754737300881</v>
+        <v>5.666854319476064</v>
       </c>
       <c r="G18" t="n">
-        <v>1.710169870676331</v>
+        <v>7.452809897071836</v>
       </c>
       <c r="H18" t="n">
-        <v>6.663015618650799</v>
+        <v>7.841438313451571</v>
       </c>
       <c r="I18" t="n">
-        <v>8.622674978887821</v>
+        <v>27.54786393505186</v>
       </c>
       <c r="J18" t="n">
-        <v>12.71440370115482</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>23.77728757077727</v>
+        <v>4.140882371684556</v>
       </c>
       <c r="L18" t="n">
-        <v>14.10891759811155</v>
+        <v>19.69847081663883</v>
       </c>
       <c r="M18" t="n">
-        <v>19.42254511811536</v>
+        <v>36.54883647180848</v>
       </c>
       <c r="N18" t="n">
-        <v>4.621952906944896</v>
+        <v>13.28044204794439</v>
       </c>
       <c r="O18" t="n">
-        <v>7.279088144383962</v>
+        <v>93.98679839143684</v>
       </c>
       <c r="P18" t="n">
-        <v>29.48315412848215</v>
+        <v>32.1303695847894</v>
       </c>
       <c r="Q18" t="n">
-        <v>66.26614001691976</v>
+        <v>9.152907895574508</v>
       </c>
       <c r="R18" t="n">
-        <v>16.83019356432836</v>
+        <v>30.82539025545778</v>
       </c>
       <c r="S18" t="n">
-        <v>8.345572063219613</v>
+        <v>10.93988474562265</v>
       </c>
       <c r="T18" t="n">
-        <v>13.3397768411693</v>
+        <v>71.88629211111937</v>
       </c>
       <c r="U18" t="n">
-        <v>27.91184274658587</v>
+        <v>17.37572679454582</v>
       </c>
       <c r="V18" t="n">
-        <v>53.09746268739465</v>
+        <v>13.53424335669453</v>
       </c>
       <c r="W18" t="n">
-        <v>33.46536401707365</v>
+        <v>42.96562688308696</v>
       </c>
       <c r="X18" t="n">
-        <v>24.5773251475822</v>
+        <v>12.53166811354251</v>
       </c>
       <c r="Y18" t="n">
-        <v>22.4015672561622</v>
+        <v>14.56622056793586</v>
       </c>
       <c r="Z18" t="n">
-        <v>14.65606340320996</v>
+        <v>15.92608824327545</v>
       </c>
       <c r="AA18" t="n">
-        <v>8.099860064734518</v>
+        <v>13.64930357603888</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.97440698497248</v>
+        <v>16.71847291456066</v>
       </c>
       <c r="AC18" t="n">
-        <v>23.69990509620185</v>
+        <v>27.82032858281179</v>
       </c>
       <c r="AD18" t="n">
-        <v>47.02761520605718</v>
+        <v>38.26397625974958</v>
       </c>
       <c r="AE18" t="n">
-        <v>21.18082455738105</v>
+        <v>28.5289918476628</v>
       </c>
       <c r="AF18" t="n">
-        <v>18.20549738382124</v>
+        <v>6.145310957638786</v>
       </c>
       <c r="AG18" t="n">
-        <v>6.607826386451251</v>
+        <v>5.482791672937681</v>
       </c>
       <c r="AH18" t="n">
-        <v>10.25712008916244</v>
+        <v>17.5080739986026</v>
       </c>
       <c r="AI18" t="n">
-        <v>8.907795007669003</v>
+        <v>10.00824544605771</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11.6600614521612</v>
+        <v>11.74970943479022</v>
       </c>
       <c r="AK18" t="n">
-        <v>10.14027074204996</v>
+        <v>11.56868419545186</v>
       </c>
       <c r="AL18" t="n">
-        <v>60.79087593160588</v>
+        <v>25.07609160920777</v>
       </c>
       <c r="AM18" t="n">
-        <v>1.680998830504435</v>
+        <v>6.716022037140606</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.709971527955876</v>
+        <v>2.592293582684002</v>
       </c>
       <c r="AO18" t="n">
-        <v>2.717013493358454</v>
+        <v>4.551561320947123</v>
       </c>
       <c r="AP18" t="n">
-        <v>4.743586658141653</v>
+        <v>2.653025168237744</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.780510266004458</v>
+        <v>1.956479213835331</v>
       </c>
       <c r="AR18" t="n">
-        <v>3.3397420568215</v>
+        <v>4.490858430836384</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.191632472540204</v>
+        <v>3.870264275872337</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.580348959683196</v>
+        <v>3.856974139104611</v>
       </c>
       <c r="AU18" t="n">
-        <v>3.303947477186267</v>
+        <v>2.654273139089095</v>
       </c>
       <c r="AV18" t="n">
-        <v>2.70341624645635</v>
+        <v>3.265078499504719</v>
       </c>
       <c r="AW18" t="n">
-        <v>4.461357695338036</v>
+        <v>0.9855943758926961</v>
       </c>
       <c r="AX18" t="n">
-        <v>2.824475341362864</v>
+        <v>0.2452789516548988</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>39.25585584625832</v>
+        <v>15.00467939392769</v>
       </c>
       <c r="D19" t="n">
-        <v>3.100633011248593</v>
+        <v>75.44294331865618</v>
       </c>
       <c r="E19" t="n">
-        <v>4.319064511495327</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>6.663546870488788</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>28.41146587288092</v>
+        <v>17.02223747728579</v>
       </c>
       <c r="H19" t="n">
-        <v>84.02898908548384</v>
+        <v>18.4574560115077</v>
       </c>
       <c r="I19" t="n">
-        <v>16.42766670205607</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4.19788837348945</v>
+        <v>121.4324774333554</v>
       </c>
       <c r="K19" t="n">
-        <v>11.94123141767876</v>
+        <v>21.52349040017923</v>
       </c>
       <c r="L19" t="n">
-        <v>32.35443203309833</v>
+        <v>16.68373050725606</v>
       </c>
       <c r="M19" t="n">
-        <v>5.635684876792984</v>
+        <v>47.35915858828489</v>
       </c>
       <c r="N19" t="n">
-        <v>24.86856019196144</v>
+        <v>6.495011573772175</v>
       </c>
       <c r="O19" t="n">
-        <v>186.0740804196647</v>
+        <v>29.86948773478789</v>
       </c>
       <c r="P19" t="n">
-        <v>131.4628919581714</v>
+        <v>29.8560608566889</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.973955196921812</v>
+        <v>67.86020708005533</v>
       </c>
       <c r="R19" t="n">
-        <v>55.5431398628293</v>
+        <v>42.26081376033106</v>
       </c>
       <c r="S19" t="n">
-        <v>34.59844847936613</v>
+        <v>52.21341200176825</v>
       </c>
       <c r="T19" t="n">
-        <v>75.01929640496979</v>
+        <v>14.38272216764084</v>
       </c>
       <c r="U19" t="n">
-        <v>8.941974876935118</v>
+        <v>45.69324659018863</v>
       </c>
       <c r="V19" t="n">
-        <v>6.887528848349779</v>
+        <v>16.76732461376039</v>
       </c>
       <c r="W19" t="n">
-        <v>16.85738710670315</v>
+        <v>4.586785911050619</v>
       </c>
       <c r="X19" t="n">
-        <v>20.24240165932592</v>
+        <v>7.983621673681382</v>
       </c>
       <c r="Y19" t="n">
-        <v>95.05455826796745</v>
+        <v>30.11616840785462</v>
       </c>
       <c r="Z19" t="n">
-        <v>9.03272466251282</v>
+        <v>3.504919617072071</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.286906191300483</v>
+        <v>66.49562722231343</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.6065464588793603</v>
+        <v>23.75521864158299</v>
       </c>
       <c r="AC19" t="n">
-        <v>6.6986758179635</v>
+        <v>2.323625023017138</v>
       </c>
       <c r="AD19" t="n">
-        <v>5.210986353553407</v>
+        <v>34.20137918301283</v>
       </c>
       <c r="AE19" t="n">
-        <v>6.730556731236955</v>
+        <v>19.08077589335677</v>
       </c>
       <c r="AF19" t="n">
-        <v>20.70345094457812</v>
+        <v>8.697424760537379</v>
       </c>
       <c r="AG19" t="n">
-        <v>13.20003586947861</v>
+        <v>4.285618522536076</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.44743925322727</v>
+        <v>4.590444626975452</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.7669089179160469</v>
+        <v>20.97440084154127</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7.597387735829882</v>
+        <v>2.493087457813933</v>
       </c>
       <c r="AK19" t="n">
-        <v>10.46243070509543</v>
+        <v>5.092408187382085</v>
       </c>
       <c r="AL19" t="n">
-        <v>4.276257977844089</v>
+        <v>20.00611095736722</v>
       </c>
       <c r="AM19" t="n">
-        <v>11.52530608563668</v>
+        <v>3.812763460477334</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.450194410673744</v>
+        <v>6.866042042075291</v>
       </c>
       <c r="AO19" t="n">
-        <v>2.046817086227444</v>
+        <v>33.52236874858785</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.8518632406660095</v>
+        <v>4.160653845983588</v>
       </c>
       <c r="AQ19" t="n">
-        <v>4.697304315560404</v>
+        <v>8.796961242835534</v>
       </c>
       <c r="AR19" t="n">
-        <v>20.92264043060829</v>
+        <v>3.934643215112768</v>
       </c>
       <c r="AS19" t="n">
-        <v>49.11214455792616</v>
+        <v>0.7270639019706966</v>
       </c>
       <c r="AT19" t="n">
-        <v>9.115539885213455</v>
+        <v>10.6703041666603</v>
       </c>
       <c r="AU19" t="n">
-        <v>6.256145432690659</v>
+        <v>3.221918876971651</v>
       </c>
       <c r="AV19" t="n">
-        <v>168.5415698650066</v>
+        <v>10.91264625439132</v>
       </c>
       <c r="AW19" t="n">
-        <v>6.860923482712646</v>
+        <v>6.896407780196834</v>
       </c>
       <c r="AX19" t="n">
-        <v>2.881009887237238</v>
+        <v>10.0586229287418</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>22.81867647375396</v>
+        <v>8.672647616539363</v>
       </c>
       <c r="D20" t="n">
-        <v>10.50969409082573</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>16.38743833054276</v>
+        <v>26.51495642883215</v>
       </c>
       <c r="F20" t="n">
-        <v>15.12314364604514</v>
+        <v>12.71118828768847</v>
       </c>
       <c r="G20" t="n">
-        <v>27.6545199730383</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>8.942680057505962</v>
+        <v>23.65110714289985</v>
       </c>
       <c r="I20" t="n">
-        <v>44.46013314382514</v>
+        <v>44.54330604609758</v>
       </c>
       <c r="J20" t="n">
-        <v>50.54437809985524</v>
+        <v>85.71628460870521</v>
       </c>
       <c r="K20" t="n">
-        <v>84.89130171347639</v>
+        <v>37.50852818722421</v>
       </c>
       <c r="L20" t="n">
-        <v>80.16455179717101</v>
+        <v>154.3740063569001</v>
       </c>
       <c r="M20" t="n">
-        <v>50.36179077220535</v>
+        <v>41.94286735798053</v>
       </c>
       <c r="N20" t="n">
-        <v>37.87828317003304</v>
+        <v>80.21053231783456</v>
       </c>
       <c r="O20" t="n">
-        <v>82.92582282470637</v>
+        <v>28.05192776132274</v>
       </c>
       <c r="P20" t="n">
-        <v>152.9327334801356</v>
+        <v>13.80188696873125</v>
       </c>
       <c r="Q20" t="n">
-        <v>100.7398559316882</v>
+        <v>77.16443626735733</v>
       </c>
       <c r="R20" t="n">
-        <v>56.04927004688287</v>
+        <v>30.55451686025506</v>
       </c>
       <c r="S20" t="n">
-        <v>62.96808259358965</v>
+        <v>104.9880133440721</v>
       </c>
       <c r="T20" t="n">
-        <v>40.79950713347488</v>
+        <v>68.07688659733643</v>
       </c>
       <c r="U20" t="n">
-        <v>149.5045640934185</v>
+        <v>130.8025929235047</v>
       </c>
       <c r="V20" t="n">
-        <v>74.49784657722927</v>
+        <v>175.1452333638144</v>
       </c>
       <c r="W20" t="n">
-        <v>70.8989133576646</v>
+        <v>39.55720112817839</v>
       </c>
       <c r="X20" t="n">
-        <v>43.48859757711539</v>
+        <v>50.10818239557936</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.31435293843784</v>
+        <v>90.35516343859625</v>
       </c>
       <c r="Z20" t="n">
-        <v>46.46384804989165</v>
+        <v>61.08927939647651</v>
       </c>
       <c r="AA20" t="n">
-        <v>114.9533340828018</v>
+        <v>103.1956570927864</v>
       </c>
       <c r="AB20" t="n">
-        <v>93.31966724985064</v>
+        <v>79.82874304601413</v>
       </c>
       <c r="AC20" t="n">
-        <v>119.7072285904866</v>
+        <v>111.1510636906515</v>
       </c>
       <c r="AD20" t="n">
-        <v>123.0060925600898</v>
+        <v>117.5029851163054</v>
       </c>
       <c r="AE20" t="n">
-        <v>274.3437134204947</v>
+        <v>175.8419199014963</v>
       </c>
       <c r="AF20" t="n">
-        <v>122.71653868635</v>
+        <v>87.73612603936142</v>
       </c>
       <c r="AG20" t="n">
-        <v>40.6506875296278</v>
+        <v>39.71298989227529</v>
       </c>
       <c r="AH20" t="n">
-        <v>95.74368215308873</v>
+        <v>133.4088593459375</v>
       </c>
       <c r="AI20" t="n">
-        <v>23.83768582445995</v>
+        <v>166.7572512945032</v>
       </c>
       <c r="AJ20" t="n">
-        <v>140.2815243585516</v>
+        <v>129.6680707891893</v>
       </c>
       <c r="AK20" t="n">
-        <v>163.2492886666201</v>
+        <v>51.1769629055386</v>
       </c>
       <c r="AL20" t="n">
-        <v>74.09270334866089</v>
+        <v>26.71529498889072</v>
       </c>
       <c r="AM20" t="n">
-        <v>19.59777472035035</v>
+        <v>23.19549779165684</v>
       </c>
       <c r="AN20" t="n">
-        <v>12.55536526058634</v>
+        <v>25.5539985775553</v>
       </c>
       <c r="AO20" t="n">
-        <v>23.21852189807236</v>
+        <v>14.42659733034022</v>
       </c>
       <c r="AP20" t="n">
-        <v>42.10097751951801</v>
+        <v>23.97503988190055</v>
       </c>
       <c r="AQ20" t="n">
-        <v>20.6916566981632</v>
+        <v>16.58148427162195</v>
       </c>
       <c r="AR20" t="n">
-        <v>39.57207087870201</v>
+        <v>8.787947281640051</v>
       </c>
       <c r="AS20" t="n">
-        <v>18.16057780851851</v>
+        <v>17.43970920146131</v>
       </c>
       <c r="AT20" t="n">
-        <v>40.14266418301349</v>
+        <v>28.26221430735773</v>
       </c>
       <c r="AU20" t="n">
-        <v>31.5133171320422</v>
+        <v>22.84939560064343</v>
       </c>
       <c r="AV20" t="n">
-        <v>23.5387878365593</v>
+        <v>22.95536351280735</v>
       </c>
       <c r="AW20" t="n">
-        <v>36.97091201406885</v>
+        <v>27.65955163950919</v>
       </c>
       <c r="AX20" t="n">
-        <v>29.62788000275158</v>
+        <v>13.41633741150414</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2844611041562678</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2.260043314256977</v>
+        <v>1.281640598764298</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3021582684310012</v>
+        <v>2.688242278921722</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5520668120925331</v>
+        <v>5.927212132796127</v>
       </c>
       <c r="G21" t="n">
-        <v>2.369325027647397</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>21.66954214110993</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8409770715749827</v>
+        <v>2.141656635222394</v>
       </c>
       <c r="J21" t="n">
-        <v>6.146066012118705</v>
+        <v>5.318015654305166</v>
       </c>
       <c r="K21" t="n">
-        <v>3.035770196221857</v>
+        <v>4.237213559432393</v>
       </c>
       <c r="L21" t="n">
-        <v>1.577366221790825</v>
+        <v>0.8871001920282767</v>
       </c>
       <c r="M21" t="n">
-        <v>3.656543323019859</v>
+        <v>2.874259849049449</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8178169932036616</v>
+        <v>6.407346817626879</v>
       </c>
       <c r="O21" t="n">
-        <v>3.797251922499857</v>
+        <v>7.530814359822628</v>
       </c>
       <c r="P21" t="n">
-        <v>4.085778906960284</v>
+        <v>8.822926085062209</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.890318811745364</v>
+        <v>2.801438457142476</v>
       </c>
       <c r="R21" t="n">
-        <v>5.803791602096756</v>
+        <v>3.581341803758177</v>
       </c>
       <c r="S21" t="n">
-        <v>2.504431236537995</v>
+        <v>10.35798426830989</v>
       </c>
       <c r="T21" t="n">
-        <v>7.411498032765381</v>
+        <v>4.16438501080318</v>
       </c>
       <c r="U21" t="n">
-        <v>2.354230296401162</v>
+        <v>9.331074644663174</v>
       </c>
       <c r="V21" t="n">
-        <v>8.937096603357361</v>
+        <v>3.690741193638327</v>
       </c>
       <c r="W21" t="n">
-        <v>2.302077600755271</v>
+        <v>4.982639994849277</v>
       </c>
       <c r="X21" t="n">
-        <v>1.925280834038131</v>
+        <v>11.61025637556101</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.164839339458602</v>
+        <v>2.01983978898349</v>
       </c>
       <c r="Z21" t="n">
-        <v>3.193130305527141</v>
+        <v>3.501798290423346</v>
       </c>
       <c r="AA21" t="n">
-        <v>4.304670916831268</v>
+        <v>5.978438049823566</v>
       </c>
       <c r="AB21" t="n">
-        <v>6.152576146128109</v>
+        <v>3.017278898105208</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.375242787313678</v>
+        <v>6.663958714570892</v>
       </c>
       <c r="AD21" t="n">
-        <v>3.49007081144917</v>
+        <v>4.278326026537127</v>
       </c>
       <c r="AE21" t="n">
-        <v>2.749981124393568</v>
+        <v>7.210920742982688</v>
       </c>
       <c r="AF21" t="n">
-        <v>6.167308132534752</v>
+        <v>6.225161702564965</v>
       </c>
       <c r="AG21" t="n">
-        <v>4.465830454166191</v>
+        <v>1.869841277499712</v>
       </c>
       <c r="AH21" t="n">
-        <v>3.138474700101712</v>
+        <v>4.769285714085339</v>
       </c>
       <c r="AI21" t="n">
-        <v>6.185170008141725</v>
+        <v>6.302046378973079</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9.035653008025038</v>
+        <v>5.355988146222334</v>
       </c>
       <c r="AK21" t="n">
-        <v>4.411923325430543</v>
+        <v>3.747779380872722</v>
       </c>
       <c r="AL21" t="n">
-        <v>2.681885162569745</v>
+        <v>4.262539181306965</v>
       </c>
       <c r="AM21" t="n">
-        <v>9.144450851084059</v>
+        <v>2.628874242013917</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.218787109553819</v>
+        <v>5.419834225638974</v>
       </c>
       <c r="AO21" t="n">
-        <v>2.514032761962886</v>
+        <v>1.735520837386485</v>
       </c>
       <c r="AP21" t="n">
-        <v>4.45859362594435</v>
+        <v>2.258242320711952</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2.039134910394587</v>
+        <v>6.030330054811338</v>
       </c>
       <c r="AR21" t="n">
-        <v>1.125902050685483</v>
+        <v>4.72568141564939</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.940837239580848</v>
+        <v>2.579465398011362</v>
       </c>
       <c r="AT21" t="n">
-        <v>9.943058953668817</v>
+        <v>5.214051818864026</v>
       </c>
       <c r="AU21" t="n">
-        <v>7.233314742344223</v>
+        <v>1.380255816816407</v>
       </c>
       <c r="AV21" t="n">
-        <v>1.306345954875693</v>
+        <v>1.282759945145383</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.379446448280185</v>
+        <v>4.058145868241505</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.6881735318596301</v>
+        <v>5.297946087781195</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>11.6384388596775</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>11.17427005282824</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>6.222678336972941</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>16.10425980989659</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.706357389130475</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>9.30280671491307</v>
+        <v>15.34643038662193</v>
       </c>
       <c r="I22" t="n">
-        <v>25.75921225992926</v>
+        <v>4.921183813739774</v>
       </c>
       <c r="J22" t="n">
-        <v>49.96528936690696</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>75.62349526024012</v>
+        <v>76.41651448437871</v>
       </c>
       <c r="L22" t="n">
-        <v>113.4478352984953</v>
+        <v>216.6493718746717</v>
       </c>
       <c r="M22" t="n">
-        <v>128.3429804218455</v>
+        <v>38.35667624446101</v>
       </c>
       <c r="N22" t="n">
-        <v>168.7217920423372</v>
+        <v>270.8280849758674</v>
       </c>
       <c r="O22" t="n">
-        <v>63.76640175042257</v>
+        <v>29.71807061006488</v>
       </c>
       <c r="P22" t="n">
-        <v>64.13767703648921</v>
+        <v>14.88733440703622</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.77893094514586</v>
+        <v>33.47435207244972</v>
       </c>
       <c r="R22" t="n">
-        <v>44.08272551829614</v>
+        <v>85.193293933826</v>
       </c>
       <c r="S22" t="n">
-        <v>45.17366736860305</v>
+        <v>55.70269169641796</v>
       </c>
       <c r="T22" t="n">
-        <v>84.21643432965649</v>
+        <v>44.61461220080726</v>
       </c>
       <c r="U22" t="n">
-        <v>89.20716718167652</v>
+        <v>23.42549326586946</v>
       </c>
       <c r="V22" t="n">
-        <v>46.8199605331585</v>
+        <v>33.4164398279525</v>
       </c>
       <c r="W22" t="n">
-        <v>52.15672816348832</v>
+        <v>100.93000503532</v>
       </c>
       <c r="X22" t="n">
-        <v>34.04780414549857</v>
+        <v>194.5670671412192</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.87698457683358</v>
+        <v>77.69248250217224</v>
       </c>
       <c r="Z22" t="n">
-        <v>81.94074659091815</v>
+        <v>51.6951668784998</v>
       </c>
       <c r="AA22" t="n">
-        <v>57.21051617103717</v>
+        <v>99.8616593489501</v>
       </c>
       <c r="AB22" t="n">
-        <v>53.17678133624463</v>
+        <v>87.585693253843</v>
       </c>
       <c r="AC22" t="n">
-        <v>111.0755600260807</v>
+        <v>63.44401459572244</v>
       </c>
       <c r="AD22" t="n">
-        <v>46.96839764112518</v>
+        <v>86.82924455776781</v>
       </c>
       <c r="AE22" t="n">
-        <v>97.60978909511509</v>
+        <v>69.15929661999044</v>
       </c>
       <c r="AF22" t="n">
-        <v>77.82886398197522</v>
+        <v>40.7458818875593</v>
       </c>
       <c r="AG22" t="n">
-        <v>39.44013902356208</v>
+        <v>108.252934217709</v>
       </c>
       <c r="AH22" t="n">
-        <v>20.72161506498568</v>
+        <v>50.6137540180887</v>
       </c>
       <c r="AI22" t="n">
-        <v>51.28716248745515</v>
+        <v>66.1381645727306</v>
       </c>
       <c r="AJ22" t="n">
-        <v>20.25563380548326</v>
+        <v>17.57350393984085</v>
       </c>
       <c r="AK22" t="n">
-        <v>30.70325886108159</v>
+        <v>44.47784105128449</v>
       </c>
       <c r="AL22" t="n">
-        <v>38.44182627113076</v>
+        <v>62.15937753697338</v>
       </c>
       <c r="AM22" t="n">
-        <v>20.28967117441587</v>
+        <v>55.43794123864658</v>
       </c>
       <c r="AN22" t="n">
-        <v>33.05379168747851</v>
+        <v>44.33681249595222</v>
       </c>
       <c r="AO22" t="n">
-        <v>17.86261379077578</v>
+        <v>14.10580012387787</v>
       </c>
       <c r="AP22" t="n">
-        <v>12.98135130098074</v>
+        <v>31.88119001377637</v>
       </c>
       <c r="AQ22" t="n">
-        <v>7.214369362141561</v>
+        <v>23.59297605880502</v>
       </c>
       <c r="AR22" t="n">
-        <v>7.341770172675956</v>
+        <v>18.90003688567979</v>
       </c>
       <c r="AS22" t="n">
-        <v>15.64199664306089</v>
+        <v>15.36383230609575</v>
       </c>
       <c r="AT22" t="n">
-        <v>21.33806611471831</v>
+        <v>16.24696465661187</v>
       </c>
       <c r="AU22" t="n">
-        <v>22.10517018381186</v>
+        <v>22.92676585157268</v>
       </c>
       <c r="AV22" t="n">
-        <v>15.5263344338374</v>
+        <v>18.37075565592624</v>
       </c>
       <c r="AW22" t="n">
-        <v>16.28595502339016</v>
+        <v>10.92425623039646</v>
       </c>
       <c r="AX22" t="n">
-        <v>8.660110047850958</v>
+        <v>10.70917501452374</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>7.362985555882079</v>
+        <v>1.324345536709917</v>
       </c>
       <c r="D23" t="n">
-        <v>8.652503064404847</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>15.71370634938551</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>8.465057706378312</v>
+        <v>0.009096930873707443</v>
       </c>
       <c r="G23" t="n">
-        <v>5.453069297796655</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>15.66162971001697</v>
+        <v>44.3511282288251</v>
       </c>
       <c r="I23" t="n">
-        <v>28.49158395587046</v>
+        <v>4.779286302037097</v>
       </c>
       <c r="J23" t="n">
-        <v>17.07054047795822</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>119.3553844763751</v>
+        <v>97.23474056587963</v>
       </c>
       <c r="L23" t="n">
-        <v>37.57190485159634</v>
+        <v>8.924108297092504</v>
       </c>
       <c r="M23" t="n">
-        <v>19.46815658469006</v>
+        <v>4.44791946826072</v>
       </c>
       <c r="N23" t="n">
-        <v>34.8198146661071</v>
+        <v>82.27856991415416</v>
       </c>
       <c r="O23" t="n">
-        <v>14.97035224107693</v>
+        <v>18.60562185430857</v>
       </c>
       <c r="P23" t="n">
-        <v>101.7645190207753</v>
+        <v>29.43880931903099</v>
       </c>
       <c r="Q23" t="n">
-        <v>46.12277457669957</v>
+        <v>20.39673304338277</v>
       </c>
       <c r="R23" t="n">
-        <v>151.4251838575015</v>
+        <v>24.81054991069898</v>
       </c>
       <c r="S23" t="n">
-        <v>27.28725896025668</v>
+        <v>84.35470025672905</v>
       </c>
       <c r="T23" t="n">
-        <v>41.56145032473683</v>
+        <v>18.98025964954726</v>
       </c>
       <c r="U23" t="n">
-        <v>64.00010435956423</v>
+        <v>34.08172200161409</v>
       </c>
       <c r="V23" t="n">
-        <v>101.171658171768</v>
+        <v>109.4866878449697</v>
       </c>
       <c r="W23" t="n">
-        <v>45.81965822206605</v>
+        <v>128.8832422059049</v>
       </c>
       <c r="X23" t="n">
-        <v>72.14155590033003</v>
+        <v>44.64197430587351</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.95823758474108</v>
+        <v>12.8163737597843</v>
       </c>
       <c r="Z23" t="n">
-        <v>103.6743087312155</v>
+        <v>46.1272972305986</v>
       </c>
       <c r="AA23" t="n">
-        <v>21.7579558598905</v>
+        <v>33.92994025860211</v>
       </c>
       <c r="AB23" t="n">
-        <v>43.48613347828995</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>14.35824353899338</v>
+        <v>53.97854346282984</v>
       </c>
       <c r="AD23" t="n">
-        <v>6.901216703976879</v>
+        <v>29.3722976241846</v>
       </c>
       <c r="AE23" t="n">
-        <v>72.19922497492206</v>
+        <v>19.11201165636291</v>
       </c>
       <c r="AF23" t="n">
-        <v>88.01512240800653</v>
+        <v>40.91298978217637</v>
       </c>
       <c r="AG23" t="n">
-        <v>27.64882184731657</v>
+        <v>11.1877921275947</v>
       </c>
       <c r="AH23" t="n">
-        <v>11.80302063783119</v>
+        <v>43.52395610917528</v>
       </c>
       <c r="AI23" t="n">
-        <v>22.31640123731859</v>
+        <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>40.52475215176621</v>
+        <v>24.5291442151145</v>
       </c>
       <c r="AK23" t="n">
-        <v>18.88140377867734</v>
+        <v>29.52012563131556</v>
       </c>
       <c r="AL23" t="n">
-        <v>34.06703912499093</v>
+        <v>22.64510460226052</v>
       </c>
       <c r="AM23" t="n">
-        <v>33.93011502554241</v>
+        <v>11.41452717007022</v>
       </c>
       <c r="AN23" t="n">
-        <v>8.055711239447119</v>
+        <v>23.36215949442814</v>
       </c>
       <c r="AO23" t="n">
-        <v>14.24759250045978</v>
+        <v>27.97005143184818</v>
       </c>
       <c r="AP23" t="n">
-        <v>6.993807920273317</v>
+        <v>21.04458864849252</v>
       </c>
       <c r="AQ23" t="n">
-        <v>14.26693207998414</v>
+        <v>48.46492140026015</v>
       </c>
       <c r="AR23" t="n">
-        <v>8.065415821530324</v>
+        <v>25.57097447241714</v>
       </c>
       <c r="AS23" t="n">
-        <v>11.69430634153493</v>
+        <v>18.33781269179911</v>
       </c>
       <c r="AT23" t="n">
-        <v>27.39953795949755</v>
+        <v>21.41590346270651</v>
       </c>
       <c r="AU23" t="n">
-        <v>72.13031738746612</v>
+        <v>19.77449978520534</v>
       </c>
       <c r="AV23" t="n">
-        <v>43.31088363102679</v>
+        <v>31.91491358533029</v>
       </c>
       <c r="AW23" t="n">
-        <v>23.69039039478997</v>
+        <v>25.70584121613091</v>
       </c>
       <c r="AX23" t="n">
-        <v>58.99861626591849</v>
+        <v>18.59894662450703</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>2.192652637457313</v>
+        <v>3.334639010382233</v>
       </c>
       <c r="D24" t="n">
-        <v>5.95618982723285</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>4.718753365706175</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>2.660395678833698</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9816261576721665</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>5.934560014460422</v>
+        <v>1.176609996217625</v>
       </c>
       <c r="I24" t="n">
-        <v>29.88453735066143</v>
+        <v>13.46079960134999</v>
       </c>
       <c r="J24" t="n">
-        <v>9.456376342866216</v>
+        <v>54.8299366115106</v>
       </c>
       <c r="K24" t="n">
-        <v>13.20975990325039</v>
+        <v>0.9898707567394198</v>
       </c>
       <c r="L24" t="n">
-        <v>28.93406790550156</v>
+        <v>22.73881330097347</v>
       </c>
       <c r="M24" t="n">
-        <v>17.0114296616124</v>
+        <v>63.20058888378253</v>
       </c>
       <c r="N24" t="n">
-        <v>111.319989828886</v>
+        <v>32.93258194197129</v>
       </c>
       <c r="O24" t="n">
-        <v>12.60304119160141</v>
+        <v>23.14591723914386</v>
       </c>
       <c r="P24" t="n">
-        <v>6.422038129004759</v>
+        <v>12.89499252589191</v>
       </c>
       <c r="Q24" t="n">
-        <v>38.5925813868005</v>
+        <v>26.76114638174376</v>
       </c>
       <c r="R24" t="n">
-        <v>26.16618544948945</v>
+        <v>23.40922779773187</v>
       </c>
       <c r="S24" t="n">
-        <v>84.81709770250968</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>26.75928373711258</v>
+        <v>23.74851899974338</v>
       </c>
       <c r="U24" t="n">
-        <v>13.1149437044304</v>
+        <v>16.34329346931154</v>
       </c>
       <c r="V24" t="n">
-        <v>13.41112298761697</v>
+        <v>37.81936974881557</v>
       </c>
       <c r="W24" t="n">
-        <v>37.84760669235981</v>
+        <v>32.59545337661058</v>
       </c>
       <c r="X24" t="n">
-        <v>18.78465850169837</v>
+        <v>6.46364654453876</v>
       </c>
       <c r="Y24" t="n">
-        <v>16.61084980394972</v>
+        <v>42.65588617841134</v>
       </c>
       <c r="Z24" t="n">
-        <v>11.82739882444524</v>
+        <v>16.41799853306118</v>
       </c>
       <c r="AA24" t="n">
-        <v>15.66817618717136</v>
+        <v>18.30347779331798</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.144591351499734</v>
+        <v>14.76627555221871</v>
       </c>
       <c r="AC24" t="n">
-        <v>14.37865018319915</v>
+        <v>17.80423771290356</v>
       </c>
       <c r="AD24" t="n">
-        <v>19.96173206574727</v>
+        <v>16.01116169656112</v>
       </c>
       <c r="AE24" t="n">
-        <v>13.25159481733355</v>
+        <v>21.09247141843181</v>
       </c>
       <c r="AF24" t="n">
-        <v>15.45816926685891</v>
+        <v>12.19224056737904</v>
       </c>
       <c r="AG24" t="n">
-        <v>6.130475239255772</v>
+        <v>11.17868316475121</v>
       </c>
       <c r="AH24" t="n">
-        <v>16.41925042705622</v>
+        <v>6.975945496715548</v>
       </c>
       <c r="AI24" t="n">
-        <v>8.950939183367261</v>
+        <v>22.10136182067188</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12.96687219874883</v>
+        <v>6.982293856076266</v>
       </c>
       <c r="AK24" t="n">
-        <v>2.610478371698622</v>
+        <v>10.89761913009185</v>
       </c>
       <c r="AL24" t="n">
-        <v>4.640176423452871</v>
+        <v>2.865088354170622</v>
       </c>
       <c r="AM24" t="n">
-        <v>4.274508595057177</v>
+        <v>2.003320824655702</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.046177575100946</v>
+        <v>2.236412906756359</v>
       </c>
       <c r="AO24" t="n">
-        <v>2.289653734213199</v>
+        <v>6.480833730733865</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.724553587155905</v>
+        <v>2.463062700109269</v>
       </c>
       <c r="AQ24" t="n">
-        <v>4.759057084715187</v>
+        <v>3.814543237201871</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.595554838646619</v>
+        <v>5.253077045954374</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.050208024677115</v>
+        <v>12.50307178308895</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.6133870068952223</v>
+        <v>5.463914861313861</v>
       </c>
       <c r="AU24" t="n">
-        <v>2.485136092697366</v>
+        <v>10.05606843731379</v>
       </c>
       <c r="AV24" t="n">
-        <v>2.095193681151736</v>
+        <v>4.068443699624109</v>
       </c>
       <c r="AW24" t="n">
-        <v>1.341848300445838</v>
+        <v>3.514926014601665</v>
       </c>
       <c r="AX24" t="n">
-        <v>2.052703876906088</v>
+        <v>2.89558714990312</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.008350206783788</v>
+        <v>69.87189887608675</v>
       </c>
       <c r="D25" t="n">
-        <v>2.521739426570535</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>2.74946377194494</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>6.507003516966804</v>
+        <v>13.8368289699106</v>
       </c>
       <c r="G25" t="n">
-        <v>20.60463436399199</v>
+        <v>8.05287476411759</v>
       </c>
       <c r="H25" t="n">
-        <v>3.773692197522977</v>
+        <v>11.35620617826269</v>
       </c>
       <c r="I25" t="n">
-        <v>22.27059490457327</v>
+        <v>21.34747820012672</v>
       </c>
       <c r="J25" t="n">
-        <v>77.83779359428408</v>
+        <v>11.08477079382603</v>
       </c>
       <c r="K25" t="n">
-        <v>97.32870429718569</v>
+        <v>30.24778371015784</v>
       </c>
       <c r="L25" t="n">
-        <v>13.19306922016606</v>
+        <v>48.49278941204958</v>
       </c>
       <c r="M25" t="n">
-        <v>22.00250441437356</v>
+        <v>67.73533614795456</v>
       </c>
       <c r="N25" t="n">
-        <v>42.82012374733551</v>
+        <v>50.81978031659607</v>
       </c>
       <c r="O25" t="n">
-        <v>20.43224215185369</v>
+        <v>19.78691408998923</v>
       </c>
       <c r="P25" t="n">
-        <v>43.11658736694604</v>
+        <v>16.97923061097707</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.32236748575065</v>
+        <v>100.4820707698521</v>
       </c>
       <c r="R25" t="n">
-        <v>18.6324141410581</v>
+        <v>11.06352744574659</v>
       </c>
       <c r="S25" t="n">
-        <v>19.63333925796139</v>
+        <v>0.8502600588620028</v>
       </c>
       <c r="T25" t="n">
-        <v>56.92117426844909</v>
+        <v>9.961716315328776</v>
       </c>
       <c r="U25" t="n">
-        <v>15.67164882512992</v>
+        <v>33.25498612441687</v>
       </c>
       <c r="V25" t="n">
-        <v>7.365411861184624</v>
+        <v>43.32823041454168</v>
       </c>
       <c r="W25" t="n">
-        <v>5.995994632454367</v>
+        <v>41.27416089914571</v>
       </c>
       <c r="X25" t="n">
-        <v>71.75940869074772</v>
+        <v>28.87925337573506</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.06606689792005</v>
+        <v>4.949269160538513</v>
       </c>
       <c r="Z25" t="n">
-        <v>75.64948425379777</v>
+        <v>18.11853784247143</v>
       </c>
       <c r="AA25" t="n">
-        <v>4.088308530553004</v>
+        <v>4.764099134358895</v>
       </c>
       <c r="AB25" t="n">
-        <v>5.828810034736668</v>
+        <v>2.105887486587399</v>
       </c>
       <c r="AC25" t="n">
-        <v>33.13983774978134</v>
+        <v>16.4058832669847</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.715679749720523</v>
+        <v>9.142064697557194</v>
       </c>
       <c r="AE25" t="n">
-        <v>7.601901426895654</v>
+        <v>55.99821478753442</v>
       </c>
       <c r="AF25" t="n">
-        <v>4.962640879735059</v>
+        <v>13.67783235688888</v>
       </c>
       <c r="AG25" t="n">
-        <v>2.072491865650883</v>
+        <v>4.563321419592151</v>
       </c>
       <c r="AH25" t="n">
-        <v>5.200045058529109</v>
+        <v>46.37850075632876</v>
       </c>
       <c r="AI25" t="n">
-        <v>14.51013620133848</v>
+        <v>3.273547080816027</v>
       </c>
       <c r="AJ25" t="n">
-        <v>20.91177324257333</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
-        <v>8.895686822506232</v>
+        <v>16.45158747559503</v>
       </c>
       <c r="AL25" t="n">
-        <v>15.26601044698385</v>
+        <v>10.34696534951241</v>
       </c>
       <c r="AM25" t="n">
-        <v>3.134638256635521</v>
+        <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.232547651758899</v>
+        <v>7.74381783603555</v>
       </c>
       <c r="AO25" t="n">
-        <v>143.7569430946966</v>
+        <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.407035029186129</v>
+        <v>3.350335795667226</v>
       </c>
       <c r="AQ25" t="n">
-        <v>7.971341336885363</v>
+        <v>4.654832606968768</v>
       </c>
       <c r="AR25" t="n">
-        <v>3.299025956108671</v>
+        <v>0.007163664329334796</v>
       </c>
       <c r="AS25" t="n">
-        <v>16.94073579199548</v>
+        <v>18.89352026880119</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.275928661717915</v>
+        <v>3.906492146003575</v>
       </c>
       <c r="AU25" t="n">
-        <v>8.698552877683781</v>
+        <v>2.207135448660445</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.901083275223963</v>
+        <v>1.047487408886902</v>
       </c>
       <c r="AW25" t="n">
-        <v>4.101591221819203</v>
+        <v>1.809388388032215</v>
       </c>
       <c r="AX25" t="n">
-        <v>15.23352915606825</v>
+        <v>4.955141309925495</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>15.73747671525536</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>25.16676964822866</v>
+        <v>11.43210670070981</v>
       </c>
       <c r="E26" t="n">
-        <v>23.82344988551476</v>
+        <v>26.10011395234109</v>
       </c>
       <c r="F26" t="n">
-        <v>15.52709909073983</v>
+        <v>16.42115417584914</v>
       </c>
       <c r="G26" t="n">
-        <v>23.74103105136904</v>
+        <v>21.03583085895941</v>
       </c>
       <c r="H26" t="n">
-        <v>13.33683370342959</v>
+        <v>4.441464907340352</v>
       </c>
       <c r="I26" t="n">
-        <v>48.06749370506098</v>
+        <v>52.00491410392183</v>
       </c>
       <c r="J26" t="n">
-        <v>20.29636310168156</v>
+        <v>46.12032976431708</v>
       </c>
       <c r="K26" t="n">
-        <v>50.93076856085217</v>
+        <v>72.53368623695532</v>
       </c>
       <c r="L26" t="n">
-        <v>26.26463779969043</v>
+        <v>79.69705507585088</v>
       </c>
       <c r="M26" t="n">
-        <v>76.38196025189752</v>
+        <v>81.20413973905745</v>
       </c>
       <c r="N26" t="n">
-        <v>29.97332582999097</v>
+        <v>86.04072133959698</v>
       </c>
       <c r="O26" t="n">
-        <v>106.2799924284088</v>
+        <v>10.19461193785026</v>
       </c>
       <c r="P26" t="n">
-        <v>71.10570071315624</v>
+        <v>51.71803043197276</v>
       </c>
       <c r="Q26" t="n">
-        <v>44.03289417517333</v>
+        <v>54.64460763246742</v>
       </c>
       <c r="R26" t="n">
-        <v>24.48840765371604</v>
+        <v>2.912337429885909</v>
       </c>
       <c r="S26" t="n">
-        <v>97.9762981736978</v>
+        <v>71.54680403496423</v>
       </c>
       <c r="T26" t="n">
-        <v>65.70445097088279</v>
+        <v>100.2212433233862</v>
       </c>
       <c r="U26" t="n">
-        <v>60.13535571077831</v>
+        <v>24.78885507908805</v>
       </c>
       <c r="V26" t="n">
-        <v>16.21966324214511</v>
+        <v>64.02425363452136</v>
       </c>
       <c r="W26" t="n">
-        <v>88.38923974684374</v>
+        <v>24.49789456070173</v>
       </c>
       <c r="X26" t="n">
-        <v>75.82163626874893</v>
+        <v>50.7482277373965</v>
       </c>
       <c r="Y26" t="n">
-        <v>104.5873844729056</v>
+        <v>85.39170764724238</v>
       </c>
       <c r="Z26" t="n">
-        <v>71.78012972413124</v>
+        <v>60.60030424285671</v>
       </c>
       <c r="AA26" t="n">
-        <v>65.89872343722648</v>
+        <v>56.75784958481955</v>
       </c>
       <c r="AB26" t="n">
-        <v>54.78986026121798</v>
+        <v>110.8821667237366</v>
       </c>
       <c r="AC26" t="n">
-        <v>80.21206743035698</v>
+        <v>65.71814863254789</v>
       </c>
       <c r="AD26" t="n">
-        <v>69.14206975184004</v>
+        <v>95.99989348177746</v>
       </c>
       <c r="AE26" t="n">
-        <v>180.7516814719749</v>
+        <v>75.99505533751383</v>
       </c>
       <c r="AF26" t="n">
-        <v>118.9373050764281</v>
+        <v>91.31439310199403</v>
       </c>
       <c r="AG26" t="n">
-        <v>354.6501534069472</v>
+        <v>116.2704223465993</v>
       </c>
       <c r="AH26" t="n">
-        <v>40.14222746272556</v>
+        <v>49.46068768627257</v>
       </c>
       <c r="AI26" t="n">
-        <v>85.62454046821044</v>
+        <v>94.87872982243893</v>
       </c>
       <c r="AJ26" t="n">
-        <v>68.2822999220711</v>
+        <v>130.4627943587509</v>
       </c>
       <c r="AK26" t="n">
-        <v>104.8218235146902</v>
+        <v>136.4515246308318</v>
       </c>
       <c r="AL26" t="n">
-        <v>52.70685011184742</v>
+        <v>56.24817442919682</v>
       </c>
       <c r="AM26" t="n">
-        <v>47.15071477285787</v>
+        <v>35.67525068438118</v>
       </c>
       <c r="AN26" t="n">
-        <v>24.41707336098101</v>
+        <v>38.97304367307287</v>
       </c>
       <c r="AO26" t="n">
-        <v>26.12844252668643</v>
+        <v>54.98400878995306</v>
       </c>
       <c r="AP26" t="n">
-        <v>34.55336667927819</v>
+        <v>11.83041941846452</v>
       </c>
       <c r="AQ26" t="n">
-        <v>10.94127732177141</v>
+        <v>15.52293901667324</v>
       </c>
       <c r="AR26" t="n">
-        <v>17.21245248365324</v>
+        <v>14.70087155099608</v>
       </c>
       <c r="AS26" t="n">
-        <v>23.27262628423218</v>
+        <v>23.68669267350998</v>
       </c>
       <c r="AT26" t="n">
-        <v>16.54930543246328</v>
+        <v>9.993669378537728</v>
       </c>
       <c r="AU26" t="n">
-        <v>24.12020805725921</v>
+        <v>21.92384328310089</v>
       </c>
       <c r="AV26" t="n">
-        <v>26.68491117832023</v>
+        <v>9.862051899455343</v>
       </c>
       <c r="AW26" t="n">
-        <v>16.96152649627125</v>
+        <v>25.07311583121897</v>
       </c>
       <c r="AX26" t="n">
-        <v>15.70351896979199</v>
+        <v>20.00278211320783</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>1.255667917886609</v>
+        <v>1.102701417116373</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7663028296193084</v>
+        <v>3.283172229106511</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8960402146797067</v>
+        <v>8.609644344568833</v>
       </c>
       <c r="F27" t="n">
-        <v>5.111013473633588</v>
+        <v>7.589712788094101</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7366475773068335</v>
+        <v>4.777836699635711</v>
       </c>
       <c r="H27" t="n">
-        <v>1.008560833988635</v>
+        <v>1.427888645511429</v>
       </c>
       <c r="I27" t="n">
-        <v>3.623600579785279</v>
+        <v>3.218357534174523</v>
       </c>
       <c r="J27" t="n">
-        <v>4.364102381571881</v>
+        <v>15.6679125260325</v>
       </c>
       <c r="K27" t="n">
-        <v>2.491230318737722</v>
+        <v>4.041939298594926</v>
       </c>
       <c r="L27" t="n">
-        <v>0.6678739240450449</v>
+        <v>2.659325470644037</v>
       </c>
       <c r="M27" t="n">
-        <v>9.826839304418908</v>
+        <v>7.524574089800884</v>
       </c>
       <c r="N27" t="n">
-        <v>1.854711093387115</v>
+        <v>3.147866010330226</v>
       </c>
       <c r="O27" t="n">
-        <v>2.234940823198306</v>
+        <v>5.034213941952759</v>
       </c>
       <c r="P27" t="n">
-        <v>6.649326442778271</v>
+        <v>3.219999328893378</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.615567044862688</v>
+        <v>2.695449176252998</v>
       </c>
       <c r="R27" t="n">
-        <v>2.158445805560398</v>
+        <v>5.939654000362266</v>
       </c>
       <c r="S27" t="n">
-        <v>4.638277216610888</v>
+        <v>1.606789195293729</v>
       </c>
       <c r="T27" t="n">
-        <v>3.20302313453017</v>
+        <v>7.269233143314658</v>
       </c>
       <c r="U27" t="n">
-        <v>3.439898226555153</v>
+        <v>1.406616656915343</v>
       </c>
       <c r="V27" t="n">
-        <v>6.047959965379573</v>
+        <v>3.194864249880849</v>
       </c>
       <c r="W27" t="n">
-        <v>2.292231478566787</v>
+        <v>3.579471141179303</v>
       </c>
       <c r="X27" t="n">
-        <v>1.201694278067978</v>
+        <v>7.555385191194252</v>
       </c>
       <c r="Y27" t="n">
-        <v>3.017477506050206</v>
+        <v>5.460376629893284</v>
       </c>
       <c r="Z27" t="n">
-        <v>5.324695280982436</v>
+        <v>5.303676717728099</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.097435199811003</v>
+        <v>5.96680841694709</v>
       </c>
       <c r="AB27" t="n">
-        <v>4.786067676973063</v>
+        <v>7.058881898403806</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.754352952476381</v>
+        <v>7.68239586059447</v>
       </c>
       <c r="AD27" t="n">
-        <v>2.097722620452105</v>
+        <v>5.570232086166831</v>
       </c>
       <c r="AE27" t="n">
-        <v>4.664066206184774</v>
+        <v>6.493583051054429</v>
       </c>
       <c r="AF27" t="n">
-        <v>4.451178529090494</v>
+        <v>4.981121971666928</v>
       </c>
       <c r="AG27" t="n">
-        <v>3.770552426617023</v>
+        <v>5.657699125984405</v>
       </c>
       <c r="AH27" t="n">
-        <v>2.511916677937246</v>
+        <v>2.826921503846603</v>
       </c>
       <c r="AI27" t="n">
-        <v>4.261894618019066</v>
+        <v>0.5784119095886002</v>
       </c>
       <c r="AJ27" t="n">
-        <v>3.872493530839598</v>
+        <v>6.546018282551933</v>
       </c>
       <c r="AK27" t="n">
-        <v>2.284125552730299</v>
+        <v>4.196258885170766</v>
       </c>
       <c r="AL27" t="n">
-        <v>3.316297799883467</v>
+        <v>3.286038142069109</v>
       </c>
       <c r="AM27" t="n">
-        <v>9.643181764280044</v>
+        <v>4.810601544507744</v>
       </c>
       <c r="AN27" t="n">
-        <v>2.977104958282896</v>
+        <v>3.251589534477819</v>
       </c>
       <c r="AO27" t="n">
-        <v>3.126024802672192</v>
+        <v>6.245975391922794</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.578220422542471</v>
+        <v>5.967099039921778</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.772559825038607</v>
+        <v>5.709680508624627</v>
       </c>
       <c r="AR27" t="n">
-        <v>8.249294424059441</v>
+        <v>2.384207114066915</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.532041866925442</v>
+        <v>4.39132169333425</v>
       </c>
       <c r="AT27" t="n">
-        <v>5.326087700671414</v>
+        <v>5.193046804342568</v>
       </c>
       <c r="AU27" t="n">
-        <v>2.262847832873441</v>
+        <v>8.206236551540703</v>
       </c>
       <c r="AV27" t="n">
-        <v>2.87548426195336</v>
+        <v>2.517108626594549</v>
       </c>
       <c r="AW27" t="n">
-        <v>2.13357014592601</v>
+        <v>1.707646003600062</v>
       </c>
       <c r="AX27" t="n">
-        <v>2.017704173403504</v>
+        <v>0.3757602657220946</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>5.525279042406096</v>
+        <v>6.883933493027832</v>
       </c>
       <c r="D28" t="n">
-        <v>16.35774522906637</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>14.5832182341795</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>15.44149214349126</v>
+        <v>13.38975220529445</v>
       </c>
       <c r="G28" t="n">
-        <v>14.48393618832016</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>92.95246371035695</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>10.65839913246828</v>
+        <v>2.091803045152377</v>
       </c>
       <c r="J28" t="n">
-        <v>103.0992244625729</v>
+        <v>4.332429856832318</v>
       </c>
       <c r="K28" t="n">
-        <v>150.7534685014145</v>
+        <v>160.8131376039217</v>
       </c>
       <c r="L28" t="n">
-        <v>35.71224742493269</v>
+        <v>25.6833751912923</v>
       </c>
       <c r="M28" t="n">
-        <v>18.16295482070337</v>
+        <v>36.1132286249383</v>
       </c>
       <c r="N28" t="n">
-        <v>70.16640809457313</v>
+        <v>115.7000837773077</v>
       </c>
       <c r="O28" t="n">
-        <v>34.21572489109867</v>
+        <v>55.79903482216687</v>
       </c>
       <c r="P28" t="n">
-        <v>44.92513192974442</v>
+        <v>27.20478180738291</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.61728727871543</v>
+        <v>70.88228595045027</v>
       </c>
       <c r="R28" t="n">
-        <v>75.77030456729297</v>
+        <v>46.86716826464504</v>
       </c>
       <c r="S28" t="n">
-        <v>136.7160899918663</v>
+        <v>50.79641373326216</v>
       </c>
       <c r="T28" t="n">
-        <v>36.10961585374944</v>
+        <v>30.00468748096363</v>
       </c>
       <c r="U28" t="n">
-        <v>52.21453313847513</v>
+        <v>48.16228405733121</v>
       </c>
       <c r="V28" t="n">
-        <v>56.09679172234121</v>
+        <v>110.3655491399801</v>
       </c>
       <c r="W28" t="n">
-        <v>102.7598961286008</v>
+        <v>65.59541457940034</v>
       </c>
       <c r="X28" t="n">
-        <v>80.89351814977942</v>
+        <v>98.05108493561634</v>
       </c>
       <c r="Y28" t="n">
-        <v>62.84028079354417</v>
+        <v>104.7151862141284</v>
       </c>
       <c r="Z28" t="n">
-        <v>80.18095551820055</v>
+        <v>76.37557976374242</v>
       </c>
       <c r="AA28" t="n">
-        <v>33.45368711995989</v>
+        <v>64.71551007743359</v>
       </c>
       <c r="AB28" t="n">
-        <v>61.44528316135715</v>
+        <v>75.94693871841984</v>
       </c>
       <c r="AC28" t="n">
-        <v>65.13090376635677</v>
+        <v>99.37448979549396</v>
       </c>
       <c r="AD28" t="n">
-        <v>65.80660800421073</v>
+        <v>103.0035353171543</v>
       </c>
       <c r="AE28" t="n">
-        <v>71.70801369802012</v>
+        <v>91.0581393022257</v>
       </c>
       <c r="AF28" t="n">
-        <v>63.66798938545175</v>
+        <v>83.60022572891343</v>
       </c>
       <c r="AG28" t="n">
-        <v>45.97560212572763</v>
+        <v>40.96010157892729</v>
       </c>
       <c r="AH28" t="n">
-        <v>67.64052131105349</v>
+        <v>50.33567089730037</v>
       </c>
       <c r="AI28" t="n">
-        <v>35.17070384498295</v>
+        <v>47.08808034994638</v>
       </c>
       <c r="AJ28" t="n">
-        <v>133.8338816055715</v>
+        <v>59.50238506832001</v>
       </c>
       <c r="AK28" t="n">
-        <v>47.09372006060934</v>
+        <v>63.26152024240955</v>
       </c>
       <c r="AL28" t="n">
-        <v>47.92709713495489</v>
+        <v>26.11564196127847</v>
       </c>
       <c r="AM28" t="n">
-        <v>24.89376664749589</v>
+        <v>15.24926670141736</v>
       </c>
       <c r="AN28" t="n">
-        <v>16.09880553552489</v>
+        <v>15.21914295599097</v>
       </c>
       <c r="AO28" t="n">
-        <v>47.89435690721455</v>
+        <v>13.90951056805558</v>
       </c>
       <c r="AP28" t="n">
-        <v>13.25347124773195</v>
+        <v>18.23654132255064</v>
       </c>
       <c r="AQ28" t="n">
-        <v>17.85401023922704</v>
+        <v>14.96582536679291</v>
       </c>
       <c r="AR28" t="n">
-        <v>20.21574705502519</v>
+        <v>27.05214412717173</v>
       </c>
       <c r="AS28" t="n">
-        <v>15.43998961559594</v>
+        <v>24.01714400940453</v>
       </c>
       <c r="AT28" t="n">
-        <v>13.89937213075527</v>
+        <v>6.493518730325738</v>
       </c>
       <c r="AU28" t="n">
-        <v>8.813674031624329</v>
+        <v>26.15785061236101</v>
       </c>
       <c r="AV28" t="n">
-        <v>11.51329809834872</v>
+        <v>4.919848071574688</v>
       </c>
       <c r="AW28" t="n">
-        <v>19.35055615178738</v>
+        <v>7.20794116939643</v>
       </c>
       <c r="AX28" t="n">
-        <v>9.637790551902713</v>
+        <v>17.26962035448792</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>19.75861550777155</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>28.4633951536836</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>13.00804819514004</v>
+        <v>27.70273835484579</v>
       </c>
       <c r="F29" t="n">
-        <v>5.242261954009146</v>
+        <v>4.572601115673068</v>
       </c>
       <c r="G29" t="n">
-        <v>27.67779895912557</v>
+        <v>19.87443786377303</v>
       </c>
       <c r="H29" t="n">
-        <v>35.27096021132943</v>
+        <v>31.91239624343711</v>
       </c>
       <c r="I29" t="n">
-        <v>64.54026417347038</v>
+        <v>26.31160234009607</v>
       </c>
       <c r="J29" t="n">
-        <v>103.0642375713169</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>46.67264477242316</v>
+        <v>22.49525979125162</v>
       </c>
       <c r="L29" t="n">
-        <v>16.79081667710029</v>
+        <v>43.36538700579506</v>
       </c>
       <c r="M29" t="n">
-        <v>78.26865590693021</v>
+        <v>78.17459232493671</v>
       </c>
       <c r="N29" t="n">
-        <v>215.376641699087</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>19.52362803576726</v>
+        <v>43.87098728672564</v>
       </c>
       <c r="P29" t="n">
-        <v>4.439679188563923</v>
+        <v>26.89231282516452</v>
       </c>
       <c r="Q29" t="n">
-        <v>139.1346757732382</v>
+        <v>34.83025154781262</v>
       </c>
       <c r="R29" t="n">
-        <v>11.50363850713386</v>
+        <v>21.77710091024387</v>
       </c>
       <c r="S29" t="n">
-        <v>21.7357715827832</v>
+        <v>24.19418670597949</v>
       </c>
       <c r="T29" t="n">
-        <v>30.68006006050847</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>54.19464879768727</v>
+        <v>177.1257052195275</v>
       </c>
       <c r="V29" t="n">
-        <v>93.17155721976047</v>
+        <v>25.61176965981773</v>
       </c>
       <c r="W29" t="n">
-        <v>127.4688799851515</v>
+        <v>45.14752477661734</v>
       </c>
       <c r="X29" t="n">
-        <v>80.73958131108286</v>
+        <v>120.7355457556047</v>
       </c>
       <c r="Y29" t="n">
-        <v>27.12173977041111</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>26.16857501428071</v>
+        <v>30.71565984649141</v>
       </c>
       <c r="AA29" t="n">
-        <v>54.51427370942696</v>
+        <v>64.53265774227127</v>
       </c>
       <c r="AB29" t="n">
-        <v>119.064411638256</v>
+        <v>37.37174386814783</v>
       </c>
       <c r="AC29" t="n">
-        <v>14.56374228937466</v>
+        <v>28.65597886601711</v>
       </c>
       <c r="AD29" t="n">
-        <v>26.29449923281695</v>
+        <v>11.7564137212737</v>
       </c>
       <c r="AE29" t="n">
-        <v>11.56969336301942</v>
+        <v>54.93813019518521</v>
       </c>
       <c r="AF29" t="n">
-        <v>16.19847797760626</v>
+        <v>0.9620631925690422</v>
       </c>
       <c r="AG29" t="n">
-        <v>26.5013749490658</v>
+        <v>41.71558530323935</v>
       </c>
       <c r="AH29" t="n">
-        <v>4.858297476357942</v>
+        <v>22.97937563228406</v>
       </c>
       <c r="AI29" t="n">
-        <v>4.766260744874221</v>
+        <v>25.52225512447701</v>
       </c>
       <c r="AJ29" t="n">
-        <v>24.95321993196075</v>
+        <v>100.1653860923959</v>
       </c>
       <c r="AK29" t="n">
-        <v>29.62254407562757</v>
+        <v>72.11832549195523</v>
       </c>
       <c r="AL29" t="n">
-        <v>32.25499966941712</v>
+        <v>6.218601329703599</v>
       </c>
       <c r="AM29" t="n">
-        <v>7.719995242969437</v>
+        <v>17.05044112780461</v>
       </c>
       <c r="AN29" t="n">
-        <v>7.754878044736879</v>
+        <v>24.89119492754069</v>
       </c>
       <c r="AO29" t="n">
-        <v>53.37943381723026</v>
+        <v>24.73326984849327</v>
       </c>
       <c r="AP29" t="n">
-        <v>16.25448702013986</v>
+        <v>4.316243279339254</v>
       </c>
       <c r="AQ29" t="n">
-        <v>25.46871333960078</v>
+        <v>36.9631799641088</v>
       </c>
       <c r="AR29" t="n">
-        <v>10.69888155594362</v>
+        <v>46.31236688708636</v>
       </c>
       <c r="AS29" t="n">
-        <v>19.57486956918399</v>
+        <v>24.26915723930062</v>
       </c>
       <c r="AT29" t="n">
-        <v>9.711305657872144</v>
+        <v>7.898334447391527</v>
       </c>
       <c r="AU29" t="n">
-        <v>64.59073522702562</v>
+        <v>41.70408347126047</v>
       </c>
       <c r="AV29" t="n">
-        <v>24.82145010952766</v>
+        <v>12.28062596075907</v>
       </c>
       <c r="AW29" t="n">
-        <v>53.54053079918067</v>
+        <v>25.3615554099498</v>
       </c>
       <c r="AX29" t="n">
-        <v>13.86618547330023</v>
+        <v>17.07069078209046</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>6.073423039058533</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1.80979195178842</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>2.19872711764198</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>3.816138808620493</v>
+        <v>6.106515273408498</v>
       </c>
       <c r="G30" t="n">
-        <v>3.228005435071428</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>16.25093000936347</v>
+        <v>9.26016670259008</v>
       </c>
       <c r="I30" t="n">
-        <v>9.179777922230052</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>10.18900203708067</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>26.90216634905543</v>
+        <v>28.5438997070188</v>
       </c>
       <c r="L30" t="n">
-        <v>29.36254902421607</v>
+        <v>17.11472850530989</v>
       </c>
       <c r="M30" t="n">
-        <v>9.306638895032277</v>
+        <v>8.477389735511199</v>
       </c>
       <c r="N30" t="n">
-        <v>20.33182441438932</v>
+        <v>2.297765813263087</v>
       </c>
       <c r="O30" t="n">
-        <v>27.31430156162403</v>
+        <v>8.477471893788524</v>
       </c>
       <c r="P30" t="n">
-        <v>12.32265427371921</v>
+        <v>44.61086821765604</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.31111206460294</v>
+        <v>17.59857065693796</v>
       </c>
       <c r="R30" t="n">
-        <v>26.15725434044779</v>
+        <v>47.72576855736272</v>
       </c>
       <c r="S30" t="n">
-        <v>12.37355461283808</v>
+        <v>4.948103359887209</v>
       </c>
       <c r="T30" t="n">
-        <v>19.23753947124686</v>
+        <v>34.6237692248726</v>
       </c>
       <c r="U30" t="n">
-        <v>23.67585196030016</v>
+        <v>8.562770699607675</v>
       </c>
       <c r="V30" t="n">
-        <v>15.19627628866855</v>
+        <v>24.64334753618924</v>
       </c>
       <c r="W30" t="n">
-        <v>28.90859504801149</v>
+        <v>18.31097937608148</v>
       </c>
       <c r="X30" t="n">
-        <v>15.63852512085379</v>
+        <v>19.96319896123297</v>
       </c>
       <c r="Y30" t="n">
-        <v>23.19609524123848</v>
+        <v>36.4490190480433</v>
       </c>
       <c r="Z30" t="n">
-        <v>17.21868922487631</v>
+        <v>23.65791645955403</v>
       </c>
       <c r="AA30" t="n">
-        <v>11.51491890246645</v>
+        <v>14.13579594529269</v>
       </c>
       <c r="AB30" t="n">
-        <v>21.7569263318722</v>
+        <v>17.20181356451281</v>
       </c>
       <c r="AC30" t="n">
-        <v>15.78488338209718</v>
+        <v>21.43222421793138</v>
       </c>
       <c r="AD30" t="n">
-        <v>19.60448696338581</v>
+        <v>13.75385216936771</v>
       </c>
       <c r="AE30" t="n">
-        <v>11.12263898792984</v>
+        <v>13.86375321180294</v>
       </c>
       <c r="AF30" t="n">
-        <v>17.1469703537073</v>
+        <v>17.6616209322295</v>
       </c>
       <c r="AG30" t="n">
-        <v>4.05517080214269</v>
+        <v>12.08372906896216</v>
       </c>
       <c r="AH30" t="n">
-        <v>23.10800909461036</v>
+        <v>5.571702476216235</v>
       </c>
       <c r="AI30" t="n">
-        <v>7.694235649553099</v>
+        <v>11.30873489204633</v>
       </c>
       <c r="AJ30" t="n">
-        <v>18.00298368894405</v>
+        <v>9.270280464355638</v>
       </c>
       <c r="AK30" t="n">
-        <v>5.139016433638204</v>
+        <v>7.12561224830715</v>
       </c>
       <c r="AL30" t="n">
-        <v>4.513674905763207</v>
+        <v>3.039158153570335</v>
       </c>
       <c r="AM30" t="n">
-        <v>3.399554926921964</v>
+        <v>4.318739293348901</v>
       </c>
       <c r="AN30" t="n">
-        <v>8.076761625069667</v>
+        <v>5.38394405985963</v>
       </c>
       <c r="AO30" t="n">
-        <v>3.94156412887734</v>
+        <v>3.999514809908569</v>
       </c>
       <c r="AP30" t="n">
-        <v>3.676454161325232</v>
+        <v>3.955850292367085</v>
       </c>
       <c r="AQ30" t="n">
-        <v>8.136462209126757</v>
+        <v>4.060745322183521</v>
       </c>
       <c r="AR30" t="n">
-        <v>1.994869253755885</v>
+        <v>2.475623944692734</v>
       </c>
       <c r="AS30" t="n">
-        <v>3.4250194452108</v>
+        <v>4.624437787827993</v>
       </c>
       <c r="AT30" t="n">
-        <v>8.14697201067516</v>
+        <v>1.736016405959888</v>
       </c>
       <c r="AU30" t="n">
-        <v>5.220840956691523</v>
+        <v>5.203792176429495</v>
       </c>
       <c r="AV30" t="n">
-        <v>1.034412367780316</v>
+        <v>1.15615523383705</v>
       </c>
       <c r="AW30" t="n">
-        <v>0.7994517609487043</v>
+        <v>4.42335860516275</v>
       </c>
       <c r="AX30" t="n">
-        <v>9.558872787522548</v>
+        <v>2.509517003400573</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>5.838103954208499</v>
+        <v>24.44575083339805</v>
       </c>
       <c r="D31" t="n">
-        <v>9.713743710736436</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>4.392554465610329</v>
+        <v>3.890155814617067</v>
       </c>
       <c r="F31" t="n">
-        <v>6.457783549182558</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.63096590421882</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.580518629047881</v>
+        <v>8.11852263658319</v>
       </c>
       <c r="I31" t="n">
-        <v>12.63478466394727</v>
+        <v>40.34544133986192</v>
       </c>
       <c r="J31" t="n">
-        <v>6.711913647763841</v>
+        <v>29.48485231237963</v>
       </c>
       <c r="K31" t="n">
-        <v>3.552469552463004</v>
+        <v>29.59761727469976</v>
       </c>
       <c r="L31" t="n">
-        <v>21.49431651142967</v>
+        <v>4.991451974965344</v>
       </c>
       <c r="M31" t="n">
-        <v>9.039454577610599</v>
+        <v>42.02816242004815</v>
       </c>
       <c r="N31" t="n">
-        <v>9.198222337989277</v>
+        <v>68.25561188130838</v>
       </c>
       <c r="O31" t="n">
-        <v>17.7522289375985</v>
+        <v>97.48077516639862</v>
       </c>
       <c r="P31" t="n">
-        <v>266.6613862959329</v>
+        <v>17.36655137804868</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.65606434072898</v>
+        <v>14.9537666139227</v>
       </c>
       <c r="R31" t="n">
-        <v>41.22711397444797</v>
+        <v>0.3386974570390962</v>
       </c>
       <c r="S31" t="n">
-        <v>20.36671839644178</v>
+        <v>33.79303644776821</v>
       </c>
       <c r="T31" t="n">
-        <v>12.03262404644803</v>
+        <v>33.34074223502315</v>
       </c>
       <c r="U31" t="n">
-        <v>19.17176441125085</v>
+        <v>8.316281313199394</v>
       </c>
       <c r="V31" t="n">
-        <v>24.59662361258365</v>
+        <v>35.13812707198865</v>
       </c>
       <c r="W31" t="n">
-        <v>5.979879929485207</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>11.37730713940875</v>
+        <v>0.409850771057509</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.574394120677842</v>
+        <v>57.4304761635861</v>
       </c>
       <c r="Z31" t="n">
-        <v>15.79625480191265</v>
+        <v>19.71319219449818</v>
       </c>
       <c r="AA31" t="n">
-        <v>26.34825133015337</v>
+        <v>2.603956489999628</v>
       </c>
       <c r="AB31" t="n">
-        <v>10.41226213689452</v>
+        <v>15.27094798028082</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.465362882397524</v>
+        <v>6.06408135124377</v>
       </c>
       <c r="AD31" t="n">
-        <v>17.08311027012804</v>
+        <v>14.91178650479394</v>
       </c>
       <c r="AE31" t="n">
-        <v>2.199648358421763</v>
+        <v>21.37586834247602</v>
       </c>
       <c r="AF31" t="n">
-        <v>10.98842304919903</v>
+        <v>2.832353159229742</v>
       </c>
       <c r="AG31" t="n">
-        <v>5.713350247986908</v>
+        <v>10.65412383650313</v>
       </c>
       <c r="AH31" t="n">
-        <v>4.976503723367682</v>
+        <v>1.700740439357322</v>
       </c>
       <c r="AI31" t="n">
-        <v>15.63612220164667</v>
+        <v>10.49747092737667</v>
       </c>
       <c r="AJ31" t="n">
-        <v>2.197912685451833</v>
+        <v>4.343045227819733</v>
       </c>
       <c r="AK31" t="n">
-        <v>1.659634482626973</v>
+        <v>0.07463893962775847</v>
       </c>
       <c r="AL31" t="n">
-        <v>21.49844289695264</v>
+        <v>43.02362853391311</v>
       </c>
       <c r="AM31" t="n">
-        <v>14.65609198414277</v>
+        <v>1.192864671591003</v>
       </c>
       <c r="AN31" t="n">
-        <v>32.17431080285104</v>
+        <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>20.7492259473994</v>
+        <v>5.318620699095616</v>
       </c>
       <c r="AP31" t="n">
-        <v>3.0356094310958</v>
+        <v>21.3974545093688</v>
       </c>
       <c r="AQ31" t="n">
-        <v>5.23367297576864</v>
+        <v>0</v>
       </c>
       <c r="AR31" t="n">
-        <v>10.87781568871382</v>
+        <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>46.48817277318492</v>
+        <v>7.871453308008074</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.277096058616089</v>
+        <v>5.549784328164989</v>
       </c>
       <c r="AU31" t="n">
-        <v>4.315444542943805</v>
+        <v>4.041050602751723</v>
       </c>
       <c r="AV31" t="n">
-        <v>2.972031298272859</v>
+        <v>13.6164769971573</v>
       </c>
       <c r="AW31" t="n">
-        <v>5.057050369909529</v>
+        <v>18.03014218181234</v>
       </c>
       <c r="AX31" t="n">
-        <v>7.275538572517186</v>
+        <v>10.59543415190538</v>
       </c>
     </row>
   </sheetData>
